--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7863906-861B-4F85-9608-937AEBE47D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85CB35-342E-4497-B6CF-CEE659D48E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <t>3;7500@10010041;20@10010083;80@10000136;25@10000134;1</t>
   </si>
   <si>
-    <t>;10000@10010041;20@10010083;80@10000136;50@10010026;1</t>
-  </si>
-  <si>
     <t>10010011;20</t>
   </si>
   <si>
@@ -673,6 +670,10 @@
   </si>
   <si>
     <t>1,29</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;10000@10010041;20@10010083;80@10000136;50@10010026;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2817,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2859,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
@@ -2905,13 +2906,13 @@
         <v>1999</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,13 +2926,13 @@
         <v>1999</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2945,13 +2946,13 @@
         <v>1999</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2965,13 +2966,13 @@
         <v>1999</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2985,13 +2986,13 @@
         <v>1999</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3005,13 +3006,13 @@
         <v>1999</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3022,16 +3023,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3042,16 +3043,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3062,16 +3063,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3082,16 +3083,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3102,16 +3103,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3122,16 +3123,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3142,16 +3143,16 @@
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3162,16 +3163,16 @@
         <v>2</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3182,16 +3183,16 @@
         <v>2</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3202,16 +3203,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3222,16 +3223,16 @@
         <v>2</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3242,16 +3243,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3262,16 +3263,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="3:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3282,16 +3283,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4271,13 +4272,13 @@
         <v>5</v>
       </c>
       <c r="F74" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4291,13 +4292,13 @@
         <v>7</v>
       </c>
       <c r="F75" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4311,13 +4312,13 @@
         <v>9</v>
       </c>
       <c r="F76" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="H76" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4331,13 +4332,13 @@
         <v>11</v>
       </c>
       <c r="F77" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="H77" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4351,13 +4352,13 @@
         <v>13</v>
       </c>
       <c r="F78" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H78" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4371,13 +4372,13 @@
         <v>15</v>
       </c>
       <c r="F79" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="H79" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4391,13 +4392,13 @@
         <v>17</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4411,13 +4412,13 @@
         <v>19</v>
       </c>
       <c r="F81" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H81" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4431,13 +4432,13 @@
         <v>21</v>
       </c>
       <c r="F82" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H82" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4451,13 +4452,13 @@
         <v>23</v>
       </c>
       <c r="F83" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="H83" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4471,13 +4472,13 @@
         <v>25</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4491,13 +4492,13 @@
         <v>27</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4511,13 +4512,13 @@
         <v>29</v>
       </c>
       <c r="F86" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4531,13 +4532,13 @@
         <v>31</v>
       </c>
       <c r="F87" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4551,13 +4552,13 @@
         <v>33</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G88" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H88" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4571,13 +4572,13 @@
         <v>35</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4591,13 +4592,13 @@
         <v>37</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4611,13 +4612,13 @@
         <v>39</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4631,13 +4632,13 @@
         <v>41</v>
       </c>
       <c r="F92" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4651,13 +4652,13 @@
         <v>43</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G93" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4671,13 +4672,13 @@
         <v>45</v>
       </c>
       <c r="F94" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H94" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4691,13 +4692,13 @@
         <v>47</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4711,13 +4712,13 @@
         <v>49</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4731,13 +4732,13 @@
         <v>51</v>
       </c>
       <c r="F97" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G97" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4751,13 +4752,13 @@
         <v>53</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G98" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4771,13 +4772,13 @@
         <v>55</v>
       </c>
       <c r="F99" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H99" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4791,13 +4792,13 @@
         <v>57</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4811,13 +4812,13 @@
         <v>59</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5054,7 +5055,7 @@
         <v>500000</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>72</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85CB35-342E-4497-B6CF-CEE659D48E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33A900-414D-41CF-BBDE-077D702A6D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 Par_4表示奖励内容
 21 战区等级
 22 战区战力
-23 签到
+23 签到    par_1天数 par_2充值奖励 par_3奖励
 24 令牌
 31 登录奖励
 101 冒险家</t>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="163">
   <si>
     <t>Par_1</t>
   </si>
@@ -674,6 +674,17 @@
   </si>
   <si>
     <t>3;10000@10010041;20@10010083;80@10000136;50@10010026;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;1@10010085;20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000</t>
+  </si>
+  <si>
+    <t>1;100000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2818,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3671,11 +3682,11 @@
       <c r="E44" s="9">
         <v>1</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
+      <c r="F44" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>21</v>
@@ -3691,8 +3702,8 @@
       <c r="E45" s="9">
         <v>2</v>
       </c>
-      <c r="F45" s="9">
-        <v>0</v>
+      <c r="F45" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>46</v>
@@ -3711,8 +3722,8 @@
       <c r="E46" s="9">
         <v>3</v>
       </c>
-      <c r="F46" s="9">
-        <v>0</v>
+      <c r="F46" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>46</v>
@@ -3731,8 +3742,8 @@
       <c r="E47" s="9">
         <v>4</v>
       </c>
-      <c r="F47" s="9">
-        <v>0</v>
+      <c r="F47" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>46</v>
@@ -3751,8 +3762,8 @@
       <c r="E48" s="9">
         <v>5</v>
       </c>
-      <c r="F48" s="9">
-        <v>0</v>
+      <c r="F48" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>46</v>
@@ -3771,8 +3782,8 @@
       <c r="E49" s="9">
         <v>6</v>
       </c>
-      <c r="F49" s="9">
-        <v>0</v>
+      <c r="F49" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>46</v>
@@ -3791,8 +3802,8 @@
       <c r="E50" s="9">
         <v>7</v>
       </c>
-      <c r="F50" s="9">
-        <v>0</v>
+      <c r="F50" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>46</v>
@@ -3811,8 +3822,8 @@
       <c r="E51" s="9">
         <v>8</v>
       </c>
-      <c r="F51" s="9">
-        <v>0</v>
+      <c r="F51" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>46</v>
@@ -3831,8 +3842,8 @@
       <c r="E52" s="9">
         <v>9</v>
       </c>
-      <c r="F52" s="9">
-        <v>0</v>
+      <c r="F52" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>46</v>
@@ -3851,8 +3862,8 @@
       <c r="E53" s="9">
         <v>10</v>
       </c>
-      <c r="F53" s="9">
-        <v>0</v>
+      <c r="F53" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>46</v>
@@ -3871,8 +3882,8 @@
       <c r="E54" s="9">
         <v>11</v>
       </c>
-      <c r="F54" s="9">
-        <v>0</v>
+      <c r="F54" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>46</v>
@@ -3891,8 +3902,8 @@
       <c r="E55" s="9">
         <v>12</v>
       </c>
-      <c r="F55" s="9">
-        <v>0</v>
+      <c r="F55" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>46</v>
@@ -3911,8 +3922,8 @@
       <c r="E56" s="9">
         <v>13</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
+      <c r="F56" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>46</v>
@@ -3931,8 +3942,8 @@
       <c r="E57" s="9">
         <v>14</v>
       </c>
-      <c r="F57" s="9">
-        <v>0</v>
+      <c r="F57" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>46</v>
@@ -3951,8 +3962,8 @@
       <c r="E58" s="9">
         <v>15</v>
       </c>
-      <c r="F58" s="9">
-        <v>0</v>
+      <c r="F58" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>46</v>
@@ -3971,8 +3982,8 @@
       <c r="E59" s="9">
         <v>16</v>
       </c>
-      <c r="F59" s="9">
-        <v>0</v>
+      <c r="F59" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>46</v>
@@ -3991,8 +4002,8 @@
       <c r="E60" s="9">
         <v>17</v>
       </c>
-      <c r="F60" s="9">
-        <v>0</v>
+      <c r="F60" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>46</v>
@@ -4011,8 +4022,8 @@
       <c r="E61" s="9">
         <v>18</v>
       </c>
-      <c r="F61" s="9">
-        <v>0</v>
+      <c r="F61" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>46</v>
@@ -4031,8 +4042,8 @@
       <c r="E62" s="9">
         <v>19</v>
       </c>
-      <c r="F62" s="9">
-        <v>0</v>
+      <c r="F62" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>46</v>
@@ -4051,8 +4062,8 @@
       <c r="E63" s="9">
         <v>20</v>
       </c>
-      <c r="F63" s="9">
-        <v>0</v>
+      <c r="F63" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>46</v>
@@ -4071,8 +4082,8 @@
       <c r="E64" s="9">
         <v>21</v>
       </c>
-      <c r="F64" s="9">
-        <v>0</v>
+      <c r="F64" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>46</v>
@@ -4091,8 +4102,8 @@
       <c r="E65" s="9">
         <v>22</v>
       </c>
-      <c r="F65" s="9">
-        <v>0</v>
+      <c r="F65" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>46</v>
@@ -4111,8 +4122,8 @@
       <c r="E66" s="9">
         <v>23</v>
       </c>
-      <c r="F66" s="9">
-        <v>0</v>
+      <c r="F66" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>46</v>
@@ -4131,8 +4142,8 @@
       <c r="E67" s="9">
         <v>24</v>
       </c>
-      <c r="F67" s="9">
-        <v>0</v>
+      <c r="F67" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>46</v>
@@ -4151,8 +4162,8 @@
       <c r="E68" s="9">
         <v>25</v>
       </c>
-      <c r="F68" s="9">
-        <v>0</v>
+      <c r="F68" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>46</v>
@@ -4171,8 +4182,8 @@
       <c r="E69" s="9">
         <v>26</v>
       </c>
-      <c r="F69" s="9">
-        <v>0</v>
+      <c r="F69" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>46</v>
@@ -4191,8 +4202,8 @@
       <c r="E70" s="9">
         <v>27</v>
       </c>
-      <c r="F70" s="9">
-        <v>0</v>
+      <c r="F70" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>46</v>
@@ -4211,8 +4222,8 @@
       <c r="E71" s="9">
         <v>28</v>
       </c>
-      <c r="F71" s="9">
-        <v>0</v>
+      <c r="F71" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>46</v>
@@ -4231,8 +4242,8 @@
       <c r="E72" s="9">
         <v>29</v>
       </c>
-      <c r="F72" s="9">
-        <v>0</v>
+      <c r="F72" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>46</v>
@@ -4251,8 +4262,8 @@
       <c r="E73" s="9">
         <v>30</v>
       </c>
-      <c r="F73" s="9">
-        <v>0</v>
+      <c r="F73" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>46</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC33A900-414D-41CF-BBDE-077D702A6D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C3A1E8-70FB-48A4-A334-10039B4F6826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
   <si>
     <t>Par_1</t>
   </si>
@@ -681,10 +681,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1;100000</t>
-  </si>
-  <si>
-    <t>1;100000</t>
+    <t>10010043;1@5;20@10010044;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1945,7 +1942,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1962,7 +1959,7 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2829,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3683,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>160</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>Id</t>
   </si>
@@ -451,43 +451,46 @@
     <t>1;200000@12000001;150@12003009;1@12003010;1</t>
   </si>
   <si>
+    <t>1;50000@10010083;10@10000101;1</t>
+  </si>
+  <si>
+    <t>等级战区礼包</t>
+  </si>
+  <si>
+    <t>1;50000@10010083;10@10021008;3@10000122;1</t>
+  </si>
+  <si>
+    <t>1;100000@10010083;15@10021008;3@10021009;2</t>
+  </si>
+  <si>
+    <t>1;150000@10010083;20@10022008;3@10000103;1@10000123;1</t>
+  </si>
+  <si>
+    <t>1;200000@10010083;25@10022008;3@10010033;1@10022009;2</t>
+  </si>
+  <si>
+    <t>1;250000@10010083;30@10023008;3@10023009;2@10000124;1</t>
+  </si>
+  <si>
     <t>1;50000@10010083;10</t>
   </si>
   <si>
-    <t>等级战区礼包</t>
-  </si>
-  <si>
-    <t>1;50000@10010083;10@10021008;3</t>
-  </si>
-  <si>
-    <t>1;100000@10010083;15@10021008;3@10021009;2</t>
-  </si>
-  <si>
-    <t>1;150000@10010083;20@10022008;3@10022009;2</t>
-  </si>
-  <si>
-    <t>1;200000@10010083;25@10022008;3@10022009;2</t>
-  </si>
-  <si>
-    <t>1;250000@10010083;30@10023008;3@10023009;2</t>
-  </si>
-  <si>
-    <t>等级实力礼包</t>
-  </si>
-  <si>
-    <t>1;50000@10010083;10@10010085;50</t>
-  </si>
-  <si>
-    <t>1;100000@10010083;15@10010085;100</t>
-  </si>
-  <si>
-    <t>1;150000@10010083;20@10010085;150@10010026;1</t>
-  </si>
-  <si>
-    <t>1;200000@10010083;25@10010085;200@10010026;1</t>
-  </si>
-  <si>
-    <t>1;250000@10010083;30@10010085;300@10010026;1</t>
+    <t>战力实力礼包</t>
+  </si>
+  <si>
+    <t>1;50000@10010083;10@10010085;50@10010046;1</t>
+  </si>
+  <si>
+    <t>1;100000@10010083;15@10010085;100@10010046;1</t>
+  </si>
+  <si>
+    <t>1;150000@10010083;20@10010085;150@10010045;1@10010046;1</t>
+  </si>
+  <si>
+    <t>1;200000@10010083;25@10010085;200@10010026;1@10010046;1</t>
+  </si>
+  <si>
+    <t>1;250000@10010083;30@10010085;300@10000143;10@10010046;1</t>
   </si>
   <si>
     <t>10010043;1@5;20@10010044;1</t>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>10021009;1</t>
+  </si>
+  <si>
+    <t>10010046;1</t>
   </si>
   <si>
     <t>10000132;10</t>
@@ -754,11 +760,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,13 +777,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -795,14 +794,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,29 +809,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,22 +840,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -901,7 +863,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,22 +909,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,13 +922,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,7 +970,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,115 +1078,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,25 +1120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,55 +1132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,37 +1150,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,16 +1294,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,35 +1341,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,11 +1384,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,1073 +1396,1073 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2515,58 +2472,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="361">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
+    <cellStyle name="输入" xfId="6" builtinId="20"/>
     <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
     <cellStyle name="差" xfId="9" builtinId="27"/>
@@ -2577,25 +2534,25 @@
     <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
     <cellStyle name="超链接" xfId="15" builtinId="8"/>
     <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="19"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="21" builtinId="36"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="18"/>
+    <cellStyle name="注释" xfId="19" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="20"/>
+    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
     <cellStyle name="常规 5 2 4" xfId="22"/>
-    <cellStyle name="标题 4" xfId="23" builtinId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="23" builtinId="36"/>
     <cellStyle name="警告文本" xfId="24" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="26"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
+    <cellStyle name="标题" xfId="25" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="26"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="27"/>
     <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="29"/>
-    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="31"/>
-    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="33" builtinId="32"/>
+    <cellStyle name="标题 1" xfId="29" builtinId="16"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="30"/>
+    <cellStyle name="标题 2" xfId="31" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="32"/>
+    <cellStyle name="标题 3" xfId="33" builtinId="18"/>
     <cellStyle name="常规 5 2 3" xfId="34"/>
-    <cellStyle name="标题 3" xfId="35" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="35" builtinId="32"/>
     <cellStyle name="常规 5 2 6" xfId="36"/>
     <cellStyle name="常规 2 3 2 3 3" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38"/>
@@ -2606,87 +2563,87 @@
     <cellStyle name="计算" xfId="43" builtinId="22"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="44"/>
     <cellStyle name="检查单元格" xfId="45" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="47" builtinId="33"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="48"/>
     <cellStyle name="注释 2 3" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="50"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
-    <cellStyle name="汇总" xfId="53" builtinId="25"/>
-    <cellStyle name="好" xfId="54" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="58"/>
-    <cellStyle name="适中" xfId="59" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="61" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="62"/>
-    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="64"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="70" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="72" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="73" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="74" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="80"/>
-    <cellStyle name="强调文字颜色 5" xfId="81" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="89" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="90" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 5" xfId="93"/>
+    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="51"/>
+    <cellStyle name="汇总" xfId="52" builtinId="25"/>
+    <cellStyle name="好" xfId="53" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="54"/>
+    <cellStyle name="适中" xfId="55" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="56" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="57"/>
+    <cellStyle name="强调文字颜色 1" xfId="58" builtinId="29"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="59"/>
+    <cellStyle name="注释 2 3 3" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="61" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="62"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="63" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="65" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="66"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="67" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="68" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="69" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="70" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="71" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="72" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="73" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="74" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="75" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="77" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="78" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="79"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="81"/>
+    <cellStyle name="常规 2 3 2 4" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="86"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="89"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="90"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="91"/>
+    <cellStyle name="常规 2 3 2 3" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="93"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="95"/>
-    <cellStyle name="常规 2 3 2 6" xfId="96"/>
+    <cellStyle name="常规 2 3 2 5" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="96"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
-    <cellStyle name="常规 2 3 2 7" xfId="99"/>
+    <cellStyle name="常规 2 3 2 6" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="99"/>
     <cellStyle name="40% - 强调文字颜色 2 5" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="101"/>
-    <cellStyle name="常规 2 3 3 3" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
-    <cellStyle name="常规 2 3 3 4" xfId="104"/>
+    <cellStyle name="常规 2 3 2 7" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="102"/>
+    <cellStyle name="常规 2 3 3 3" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="104"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="106"/>
-    <cellStyle name="常规 2 3 4 3" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
+    <cellStyle name="常规 2 3 3 4" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="107"/>
+    <cellStyle name="常规 2 3 4 3" xfId="108"/>
     <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="109"/>
     <cellStyle name="20% - 强调文字颜色 1 6" xfId="110"/>
     <cellStyle name="20% - 强调文字颜色 1 7" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="120"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="124"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="125"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="126"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="127"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="128"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="129"/>
@@ -2709,8 +2666,8 @@
     <cellStyle name="20% - 强调文字颜色 3 5" xfId="146"/>
     <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="147"/>
     <cellStyle name="20% - 强调文字颜色 3 7" xfId="148"/>
-    <cellStyle name="常规 3" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="149"/>
+    <cellStyle name="常规 3" xfId="150"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="151"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="152"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="153"/>
@@ -2720,27 +2677,27 @@
     <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="157"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="159"/>
-    <cellStyle name="常规 4" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="160"/>
+    <cellStyle name="常规 4" xfId="161"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="162"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="163"/>
-    <cellStyle name="常规 5" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
-    <cellStyle name="注释 2" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="164"/>
+    <cellStyle name="常规 5" xfId="165"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="166"/>
+    <cellStyle name="注释 2" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 4 7" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="172"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="173"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="174"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="177"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="178"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="180"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="180"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="181"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="183"/>
@@ -2752,42 +2709,42 @@
     <cellStyle name="20% - 强调文字颜色 5 6" xfId="189"/>
     <cellStyle name="20% - 强调文字颜色 5 7" xfId="190"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="193"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="195"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="198"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="202"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="203"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="204"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="206"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="207"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="209"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="215"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="212"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="214"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="216"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="218"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="220"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="221"/>
-    <cellStyle name="常规 5 7" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="222"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="224"/>
+    <cellStyle name="常规 5 7" xfId="224"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="225"/>
-    <cellStyle name="注释 2 2 3 2" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="226"/>
+    <cellStyle name="注释 2 2 3 2" xfId="227"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="228"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="229"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="230"/>
@@ -2805,31 +2762,31 @@
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="242"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="243"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="244"/>
-    <cellStyle name="注释 2 5 2" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="245"/>
+    <cellStyle name="注释 2 5 2" xfId="246"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="248"/>
-    <cellStyle name="常规 2 3 2 2" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="249"/>
+    <cellStyle name="常规 2 3 2 2" xfId="250"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="251"/>
     <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="252"/>
     <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 2 6" xfId="254"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="255"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="260"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="261"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="262"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="264"/>
-    <cellStyle name="常规 2 3 3 5" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="265"/>
+    <cellStyle name="常规 2 3 3 5" xfId="266"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="267"/>
-    <cellStyle name="常规 2 3 3 6" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="268"/>
+    <cellStyle name="常规 2 3 3 6" xfId="269"/>
     <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="270"/>
     <cellStyle name="40% - 强调文字颜色 3 5" xfId="271"/>
     <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="272"/>
@@ -2854,12 +2811,12 @@
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="291"/>
     <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="292"/>
     <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="293"/>
-    <cellStyle name="注释 2 2" xfId="294"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="294"/>
+    <cellStyle name="注释 2 2" xfId="295"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="296"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="297"/>
-    <cellStyle name="常规 5 6" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="298"/>
+    <cellStyle name="常规 5 6" xfId="299"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="300"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="301"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="302"/>
@@ -2881,24 +2838,24 @@
     <cellStyle name="常规 2 3 2 2 2 3" xfId="318"/>
     <cellStyle name="常规 2 3 2 2 3" xfId="319"/>
     <cellStyle name="常规 2 3 2 2 3 2" xfId="320"/>
-    <cellStyle name="注释 2 3 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="321"/>
+    <cellStyle name="注释 2 3 2" xfId="322"/>
     <cellStyle name="常规 2 3 2 2 4 2" xfId="323"/>
     <cellStyle name="常规 2 3 3" xfId="324"/>
     <cellStyle name="常规 2 3 3 2" xfId="325"/>
     <cellStyle name="常规 2 3 3 2 2" xfId="326"/>
     <cellStyle name="常规 2 3 3 2 3" xfId="327"/>
-    <cellStyle name="注释 2 5" xfId="328"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="328"/>
+    <cellStyle name="注释 2 5" xfId="329"/>
     <cellStyle name="常规 2 3 4" xfId="330"/>
     <cellStyle name="常规 2 3 4 2" xfId="331"/>
     <cellStyle name="常规 2 3 5" xfId="332"/>
     <cellStyle name="常规 2 3 5 2" xfId="333"/>
-    <cellStyle name="常规 5 2 2 2" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
+    <cellStyle name="常规 2 3 6" xfId="334"/>
+    <cellStyle name="常规 5 2 2 2" xfId="335"/>
     <cellStyle name="常规 2 3 6 2" xfId="336"/>
-    <cellStyle name="常规 5 2 2 3" xfId="337"/>
-    <cellStyle name="常规 2 3 7" xfId="338"/>
+    <cellStyle name="常规 2 3 7" xfId="337"/>
+    <cellStyle name="常规 5 2 2 3" xfId="338"/>
     <cellStyle name="常规 2 3 8" xfId="339"/>
     <cellStyle name="常规 5 2 3 2" xfId="340"/>
     <cellStyle name="常规 5 2 4 2" xfId="341"/>
@@ -3281,8 +3238,8 @@
   <sheetPr/>
   <dimension ref="C1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3895,7 +3852,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="12">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>61</v>
@@ -3915,7 +3872,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="12">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>63</v>
@@ -3935,7 +3892,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>64</v>
@@ -3955,7 +3912,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>65</v>
@@ -3975,7 +3932,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>66</v>
@@ -3995,7 +3952,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>67</v>
@@ -4015,13 +3972,13 @@
         <v>2000</v>
       </c>
       <c r="F38" s="12">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="20.1" customHeight="1" spans="3:8">
@@ -4035,13 +3992,13 @@
         <v>3000</v>
       </c>
       <c r="F39" s="12">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="3:8">
@@ -4055,13 +4012,13 @@
         <v>4000</v>
       </c>
       <c r="F40" s="12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="3:8">
@@ -4075,13 +4032,13 @@
         <v>6000</v>
       </c>
       <c r="F41" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="3:8">
@@ -4095,13 +4052,13 @@
         <v>8000</v>
       </c>
       <c r="F42" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="3:8">
@@ -4115,13 +4072,13 @@
         <v>10000</v>
       </c>
       <c r="F43" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="3:8">
@@ -4135,13 +4092,13 @@
         <v>1</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="3:8">
@@ -4155,13 +4112,13 @@
         <v>2</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="3:8">
@@ -4175,13 +4132,13 @@
         <v>3</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="3:8">
@@ -4195,13 +4152,13 @@
         <v>4</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="3:8">
@@ -4215,13 +4172,13 @@
         <v>5</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="3:8">
@@ -4235,13 +4192,13 @@
         <v>6</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="3:8">
@@ -4255,13 +4212,13 @@
         <v>7</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="3:8">
@@ -4275,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="3:8">
@@ -4295,13 +4252,13 @@
         <v>9</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="3:8">
@@ -4315,13 +4272,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" ht="20.1" customHeight="1" spans="3:8">
@@ -4335,13 +4292,13 @@
         <v>11</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" ht="20.1" customHeight="1" spans="3:8">
@@ -4355,13 +4312,13 @@
         <v>12</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" ht="20.1" customHeight="1" spans="3:8">
@@ -4375,13 +4332,13 @@
         <v>13</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" ht="20.1" customHeight="1" spans="3:8">
@@ -4395,13 +4352,13 @@
         <v>14</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="3:8">
@@ -4415,13 +4372,13 @@
         <v>15</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" ht="20.1" customHeight="1" spans="3:8">
@@ -4435,13 +4392,13 @@
         <v>16</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" ht="20.1" customHeight="1" spans="3:8">
@@ -4455,13 +4412,13 @@
         <v>17</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="3:8">
@@ -4475,13 +4432,13 @@
         <v>18</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="20.1" customHeight="1" spans="3:8">
@@ -4495,13 +4452,13 @@
         <v>19</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" ht="20.1" customHeight="1" spans="3:8">
@@ -4515,13 +4472,13 @@
         <v>20</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" ht="20.1" customHeight="1" spans="3:8">
@@ -4535,13 +4492,13 @@
         <v>21</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" ht="20.1" customHeight="1" spans="3:8">
@@ -4555,13 +4512,13 @@
         <v>22</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" ht="20.1" customHeight="1" spans="3:8">
@@ -4575,13 +4532,13 @@
         <v>23</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" ht="20.1" customHeight="1" spans="3:8">
@@ -4595,13 +4552,13 @@
         <v>24</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" ht="20.1" customHeight="1" spans="3:8">
@@ -4615,13 +4572,13 @@
         <v>25</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" ht="20.1" customHeight="1" spans="3:8">
@@ -4635,13 +4592,13 @@
         <v>26</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" ht="20.1" customHeight="1" spans="3:8">
@@ -4655,13 +4612,13 @@
         <v>27</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" ht="20.1" customHeight="1" spans="3:8">
@@ -4675,13 +4632,13 @@
         <v>28</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" ht="20.1" customHeight="1" spans="3:8">
@@ -4695,13 +4652,13 @@
         <v>29</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" ht="20.1" customHeight="1" spans="3:8">
@@ -4715,13 +4672,13 @@
         <v>30</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" ht="20.1" customHeight="1" spans="3:8">
@@ -4735,13 +4692,13 @@
         <v>5</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" ht="20.1" customHeight="1" spans="3:8">
@@ -4755,13 +4712,13 @@
         <v>7</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" ht="20.1" customHeight="1" spans="3:8">
@@ -4775,13 +4732,13 @@
         <v>9</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" ht="20.1" customHeight="1" spans="3:8">
@@ -4795,13 +4752,13 @@
         <v>11</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" ht="20.1" customHeight="1" spans="3:8">
@@ -4815,13 +4772,13 @@
         <v>13</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" ht="20.1" customHeight="1" spans="3:8">
@@ -4835,13 +4792,13 @@
         <v>15</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" ht="20.1" customHeight="1" spans="3:8">
@@ -4855,13 +4812,13 @@
         <v>17</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" ht="20.1" customHeight="1" spans="3:8">
@@ -4875,13 +4832,13 @@
         <v>19</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" ht="20.1" customHeight="1" spans="3:8">
@@ -4895,13 +4852,13 @@
         <v>21</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" ht="20.1" customHeight="1" spans="3:8">
@@ -4915,13 +4872,13 @@
         <v>23</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" ht="20.1" customHeight="1" spans="3:8">
@@ -4935,13 +4892,13 @@
         <v>25</v>
       </c>
       <c r="F84" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G84" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G84" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="H84" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" ht="20.1" customHeight="1" spans="3:8">
@@ -4955,13 +4912,13 @@
         <v>27</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" ht="20.1" customHeight="1" spans="3:8">
@@ -4975,13 +4932,13 @@
         <v>29</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" ht="20.1" customHeight="1" spans="3:8">
@@ -4995,13 +4952,13 @@
         <v>31</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" ht="20.1" customHeight="1" spans="3:8">
@@ -5015,13 +4972,13 @@
         <v>33</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" ht="20.1" customHeight="1" spans="3:8">
@@ -5035,13 +4992,13 @@
         <v>35</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" ht="20.1" customHeight="1" spans="3:8">
@@ -5055,13 +5012,13 @@
         <v>37</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" ht="20.1" customHeight="1" spans="3:8">
@@ -5075,13 +5032,13 @@
         <v>39</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" ht="20.1" customHeight="1" spans="3:8">
@@ -5095,13 +5052,13 @@
         <v>41</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" ht="20.1" customHeight="1" spans="3:8">
@@ -5115,13 +5072,13 @@
         <v>43</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" ht="20.1" customHeight="1" spans="3:8">
@@ -5135,13 +5092,13 @@
         <v>45</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" ht="20.1" customHeight="1" spans="3:8">
@@ -5155,13 +5112,13 @@
         <v>47</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" ht="20.1" customHeight="1" spans="3:8">
@@ -5175,13 +5132,13 @@
         <v>49</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" ht="20.1" customHeight="1" spans="3:8">
@@ -5195,13 +5152,13 @@
         <v>51</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" ht="20.1" customHeight="1" spans="3:8">
@@ -5215,13 +5172,13 @@
         <v>53</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" ht="20.1" customHeight="1" spans="3:8">
@@ -5235,13 +5192,13 @@
         <v>55</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" ht="20.1" customHeight="1" spans="3:8">
@@ -5255,13 +5212,13 @@
         <v>57</v>
       </c>
       <c r="F100" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H100" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="101" ht="20.1" customHeight="1" spans="3:8">
@@ -5275,13 +5232,13 @@
         <v>59</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" ht="20.1" customHeight="1" spans="3:8">
@@ -5298,10 +5255,10 @@
         <v>1000</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" ht="20.1" customHeight="1" spans="3:8">
@@ -5318,10 +5275,10 @@
         <v>3000</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" ht="20.1" customHeight="1" spans="3:8">
@@ -5338,10 +5295,10 @@
         <v>7000</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" ht="20.1" customHeight="1" spans="3:8">
@@ -5358,10 +5315,10 @@
         <v>15000</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" ht="20.1" customHeight="1" spans="3:8">
@@ -5378,10 +5335,10 @@
         <v>30000</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" ht="20.1" customHeight="1" spans="3:8">
@@ -5398,10 +5355,10 @@
         <v>50000</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" ht="20.1" customHeight="1" spans="3:8">
@@ -5418,10 +5375,10 @@
         <v>80000</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" ht="20.1" customHeight="1" spans="3:8">
@@ -5438,10 +5395,10 @@
         <v>130000</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" ht="20.1" customHeight="1" spans="3:8">
@@ -5458,10 +5415,10 @@
         <v>200000</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" ht="20.1" customHeight="1" spans="3:8">
@@ -5478,10 +5435,10 @@
         <v>300000</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" ht="20.1" customHeight="1" spans="3:8">
@@ -5498,10 +5455,10 @@
         <v>500000</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" ht="20.1" customHeight="1" spans="3:8">
@@ -5518,10 +5475,10 @@
         <v>500000</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" ht="20.1" customHeight="1" spans="3:8">
@@ -5538,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" ht="20.1" customHeight="1" spans="3:8">
@@ -5558,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" ht="20.1" customHeight="1" spans="3:8">
@@ -5578,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" ht="20.1" customHeight="1" spans="3:8">
@@ -5598,10 +5555,10 @@
         <v>0</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" ht="20.1" customHeight="1" spans="3:8">
@@ -5618,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" ht="20.1" customHeight="1" spans="3:8">
@@ -5638,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" ht="20.1" customHeight="1" spans="3:8">
@@ -5658,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" ht="20.1" customHeight="1"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9474E909-00BB-40B9-9912-42671E6BCDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D69FA3-7BAA-4269-8030-654CECBD7C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -295,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="164">
   <si>
     <t>Id</t>
   </si>
@@ -546,241 +556,254 @@
     <t>10000121;1</t>
   </si>
   <si>
+    <t>10020001;20</t>
+  </si>
+  <si>
+    <t>10010091;1</t>
+  </si>
+  <si>
+    <t>10010041;5</t>
+  </si>
+  <si>
+    <t>10000101;1</t>
+  </si>
+  <si>
+    <t>10021008;1</t>
+  </si>
+  <si>
+    <t>10021009;1</t>
+  </si>
+  <si>
+    <t>10010046;1</t>
+  </si>
+  <si>
+    <t>10000132;10</t>
+  </si>
+  <si>
+    <t>10000132;20</t>
+  </si>
+  <si>
+    <t>10000122;1</t>
+  </si>
+  <si>
+    <t>10010098;3</t>
+  </si>
+  <si>
+    <t>10022008;1</t>
+  </si>
+  <si>
+    <t>10010083;10</t>
+  </si>
+  <si>
+    <t>10022009;1</t>
+  </si>
+  <si>
+    <t>10010085;50</t>
+  </si>
+  <si>
+    <t>10010026;1</t>
+  </si>
+  <si>
+    <t>10023001;20</t>
+  </si>
+  <si>
+    <t>10023008;1</t>
+  </si>
+  <si>
+    <t>10000123;1</t>
+  </si>
+  <si>
+    <t>10000102;1</t>
+  </si>
+  <si>
+    <t>10023009;1</t>
+  </si>
+  <si>
+    <t>10024008;1</t>
+  </si>
+  <si>
+    <t>10024001;20</t>
+  </si>
+  <si>
+    <t>10000124;1</t>
+  </si>
+  <si>
+    <t>10000103;1</t>
+  </si>
+  <si>
+    <t>10024010;20</t>
+  </si>
+  <si>
+    <t>10024009;1</t>
+  </si>
+  <si>
+    <t>10010085;100</t>
+  </si>
+  <si>
+    <t>10025001;20</t>
+  </si>
+  <si>
+    <t>10000104;1</t>
+  </si>
+  <si>
+    <t>10000125;1</t>
+  </si>
+  <si>
+    <t>10025008;1</t>
+  </si>
+  <si>
+    <t>10010083;20</t>
+  </si>
+  <si>
+    <t>10025010;20</t>
+  </si>
+  <si>
+    <t>10025009;1</t>
+  </si>
+  <si>
+    <t>10010099;1</t>
+  </si>
+  <si>
+    <t>3;500@10010041;5@10010083;20@10010087;3</t>
+  </si>
+  <si>
+    <t>1级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;750@10010041;5@10010083;25@10000122;1@10010093;1</t>
+  </si>
+  <si>
+    <t>2级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;1000@10010041;10@10010083;30@10010099;1@10000133;1</t>
+  </si>
+  <si>
+    <t>3级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;1250@10010041;10@10010083;35@10010026;1@10000134;1</t>
+  </si>
+  <si>
+    <t>4级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;1500@10010041;10@10010083;40@10010093;1@10000133;1</t>
+  </si>
+  <si>
+    <t>5级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;2000@10010041;15@10010083;45@10000104;5@10000133;1</t>
+  </si>
+  <si>
+    <t>6级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;2500@10010041;15@10010083;50@10000137;3@10000134;1</t>
+  </si>
+  <si>
+    <t>7级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;3000@10010041;15@10010083;50@10000136;25@10010026;1</t>
+  </si>
+  <si>
+    <t>8级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;4000@10010041;20@10010083;60@10000138;3@10000134;1</t>
+  </si>
+  <si>
+    <t>9级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;5000@10010041;20@10010083;60@10000135;1@10010026;1</t>
+  </si>
+  <si>
+    <t>10级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;7500@10010041;20@10010083;80@10000136;25@10000134;1</t>
+  </si>
+  <si>
+    <t>11级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;10000@10010041;20@10010083;80@10000136;50@10010026;1</t>
+  </si>
+  <si>
+    <t>12级探险家奖励</t>
+  </si>
+  <si>
+    <t>10010042;1@10010099;1</t>
+  </si>
+  <si>
+    <t>第一天</t>
+  </si>
+  <si>
+    <t>10010042;1@10000121;1@10010092;1</t>
+  </si>
+  <si>
+    <t>第二天</t>
+  </si>
+  <si>
+    <t>10010042;2@10010083;5@10000102;1@10010026;1</t>
+  </si>
+  <si>
+    <t>第三天</t>
+  </si>
+  <si>
+    <t>10010042;2@10010083;5@10010085;30@10010086;1</t>
+  </si>
+  <si>
+    <t>第四天</t>
+  </si>
+  <si>
+    <t>10010042;2@10010083;5@10000123;1@10010087;1</t>
+  </si>
+  <si>
+    <t>第五天</t>
+  </si>
+  <si>
+    <t>10010042;3@10010083;5@10010041;5@10010026;3</t>
+  </si>
+  <si>
+    <t>第六天</t>
+  </si>
+  <si>
+    <t>10010042;3@10010083;5@10000103;1@10010093;1</t>
+  </si>
+  <si>
+    <t>第七天</t>
+  </si>
+  <si>
+    <t>10000131;10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000121;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010033;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>10021004;20</t>
-  </si>
-  <si>
-    <t>10020001;20</t>
-  </si>
-  <si>
-    <t>10010091;1</t>
-  </si>
-  <si>
-    <t>10010041;5</t>
-  </si>
-  <si>
-    <t>10000101;1</t>
-  </si>
-  <si>
-    <t>10021008;1</t>
-  </si>
-  <si>
-    <t>10021009;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10010046;1</t>
-  </si>
-  <si>
-    <t>10000132;10</t>
-  </si>
-  <si>
-    <t>10010083;5</t>
-  </si>
-  <si>
-    <t>10000132;20</t>
-  </si>
-  <si>
-    <t>10022001;20</t>
-  </si>
-  <si>
-    <t>10000122;1</t>
-  </si>
-  <si>
-    <t>10010098;3</t>
-  </si>
-  <si>
-    <t>10022008;1</t>
-  </si>
-  <si>
-    <t>10010083;10</t>
-  </si>
-  <si>
-    <t>10022009;1</t>
-  </si>
-  <si>
-    <t>10010085;50</t>
-  </si>
-  <si>
-    <t>10022010;20</t>
-  </si>
-  <si>
-    <t>10010026;1</t>
-  </si>
-  <si>
-    <t>10023001;20</t>
-  </si>
-  <si>
-    <t>10023008;1</t>
-  </si>
-  <si>
-    <t>10000123;1</t>
-  </si>
-  <si>
-    <t>10000102;1</t>
-  </si>
-  <si>
-    <t>10023009;1</t>
-  </si>
-  <si>
-    <t>10023010;20</t>
-  </si>
-  <si>
-    <t>10024008;1</t>
-  </si>
-  <si>
-    <t>10024001;20</t>
-  </si>
-  <si>
-    <t>10000124;1</t>
-  </si>
-  <si>
-    <t>10000103;1</t>
-  </si>
-  <si>
-    <t>10024010;20</t>
-  </si>
-  <si>
-    <t>10024009;1</t>
-  </si>
-  <si>
-    <t>10010085;100</t>
-  </si>
-  <si>
-    <t>10025001;20</t>
-  </si>
-  <si>
-    <t>10000104;1</t>
-  </si>
-  <si>
-    <t>10000125;1</t>
-  </si>
-  <si>
-    <t>10025008;1</t>
-  </si>
-  <si>
-    <t>10010083;20</t>
-  </si>
-  <si>
-    <t>10025010;20</t>
-  </si>
-  <si>
-    <t>10025009;1</t>
-  </si>
-  <si>
-    <t>10010099;1</t>
-  </si>
-  <si>
-    <t>3;500@10010041;5@10010083;20@10010087;3</t>
-  </si>
-  <si>
-    <t>1级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;750@10010041;5@10010083;25@10000122;1@10010093;1</t>
-  </si>
-  <si>
-    <t>2级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;1000@10010041;10@10010083;30@10010099;1@10000133;1</t>
-  </si>
-  <si>
-    <t>3级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;1250@10010041;10@10010083;35@10010026;1@10000134;1</t>
-  </si>
-  <si>
-    <t>4级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;1500@10010041;10@10010083;40@10010093;1@10000133;1</t>
-  </si>
-  <si>
-    <t>5级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;2000@10010041;15@10010083;45@10000104;5@10000133;1</t>
-  </si>
-  <si>
-    <t>6级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;2500@10010041;15@10010083;50@10000137;3@10000134;1</t>
-  </si>
-  <si>
-    <t>7级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;3000@10010041;15@10010083;50@10000136;25@10010026;1</t>
-  </si>
-  <si>
-    <t>8级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;4000@10010041;20@10010083;60@10000138;3@10000134;1</t>
-  </si>
-  <si>
-    <t>9级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;5000@10010041;20@10010083;60@10000135;1@10010026;1</t>
-  </si>
-  <si>
-    <t>10级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;7500@10010041;20@10010083;80@10000136;25@10000134;1</t>
-  </si>
-  <si>
-    <t>11级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;10000@10010041;20@10010083;80@10000136;50@10010026;1</t>
-  </si>
-  <si>
-    <t>12级探险家奖励</t>
-  </si>
-  <si>
-    <t>10010042;1@10010099;1</t>
-  </si>
-  <si>
-    <t>第一天</t>
-  </si>
-  <si>
-    <t>10010042;1@10000121;1@10010092;1</t>
-  </si>
-  <si>
-    <t>第二天</t>
-  </si>
-  <si>
-    <t>10010042;2@10010083;5@10000102;1@10010026;1</t>
-  </si>
-  <si>
-    <t>第三天</t>
-  </si>
-  <si>
-    <t>10010042;2@10010083;5@10010085;30@10010086;1</t>
-  </si>
-  <si>
-    <t>第四天</t>
-  </si>
-  <si>
-    <t>10010042;2@10010083;5@10000123;1@10010087;1</t>
-  </si>
-  <si>
-    <t>第五天</t>
-  </si>
-  <si>
-    <t>10010042;3@10010083;5@10010041;5@10010026;3</t>
-  </si>
-  <si>
-    <t>第六天</t>
-  </si>
-  <si>
-    <t>10010042;3@10010083;5@10000103;1@10010093;1</t>
-  </si>
-  <si>
-    <t>第七天</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2735,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4206,7 +4229,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>81</v>
@@ -4226,10 +4249,10 @@
         <v>9</v>
       </c>
       <c r="F76" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>79</v>
@@ -4246,13 +4269,13 @@
         <v>11</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4266,10 +4289,10 @@
         <v>13</v>
       </c>
       <c r="F78" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>82</v>
@@ -4286,13 +4309,13 @@
         <v>15</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4306,10 +4329,10 @@
         <v>17</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>79</v>
@@ -4326,13 +4349,13 @@
         <v>19</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4346,13 +4369,13 @@
         <v>21</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4366,13 +4389,13 @@
         <v>23</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4386,13 +4409,13 @@
         <v>25</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4406,13 +4429,13 @@
         <v>27</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>79</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4426,13 +4449,13 @@
         <v>29</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4446,13 +4469,13 @@
         <v>31</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4466,13 +4489,13 @@
         <v>33</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4486,13 +4509,13 @@
         <v>35</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4506,13 +4529,13 @@
         <v>37</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4526,13 +4549,13 @@
         <v>39</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4546,13 +4569,13 @@
         <v>41</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4566,13 +4589,13 @@
         <v>43</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4586,13 +4609,13 @@
         <v>45</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4606,13 +4629,13 @@
         <v>47</v>
       </c>
       <c r="F95" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G95" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="H95" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4626,13 +4649,13 @@
         <v>49</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4646,13 +4669,13 @@
         <v>51</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4666,13 +4689,13 @@
         <v>53</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4686,13 +4709,13 @@
         <v>55</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4706,13 +4729,13 @@
         <v>57</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4726,13 +4749,13 @@
         <v>59</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4749,10 +4772,10 @@
         <v>1000</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4769,10 +4792,10 @@
         <v>3000</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4789,10 +4812,10 @@
         <v>7000</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4809,10 +4832,10 @@
         <v>15000</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4829,10 +4852,10 @@
         <v>30000</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4849,10 +4872,10 @@
         <v>50000</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4869,10 +4892,10 @@
         <v>80000</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4889,10 +4912,10 @@
         <v>130000</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4909,10 +4932,10 @@
         <v>200000</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4929,10 +4952,10 @@
         <v>300000</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4949,10 +4972,10 @@
         <v>500000</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,10 +4992,10 @@
         <v>500000</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4989,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5009,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5029,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5049,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5069,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5089,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5109,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D69FA3-7BAA-4269-8030-654CECBD7C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A7E65-8273-4AD3-A986-01A0B79F67A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29700" yWindow="915" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -664,73 +664,37 @@
     <t>10010099;1</t>
   </si>
   <si>
-    <t>3;500@10010041;5@10010083;20@10010087;3</t>
-  </si>
-  <si>
     <t>1级探险家奖励</t>
   </si>
   <si>
-    <t>3;750@10010041;5@10010083;25@10000122;1@10010093;1</t>
-  </si>
-  <si>
     <t>2级探险家奖励</t>
   </si>
   <si>
-    <t>3;1000@10010041;10@10010083;30@10010099;1@10000133;1</t>
-  </si>
-  <si>
     <t>3级探险家奖励</t>
   </si>
   <si>
-    <t>3;1250@10010041;10@10010083;35@10010026;1@10000134;1</t>
-  </si>
-  <si>
     <t>4级探险家奖励</t>
   </si>
   <si>
-    <t>3;1500@10010041;10@10010083;40@10010093;1@10000133;1</t>
-  </si>
-  <si>
     <t>5级探险家奖励</t>
   </si>
   <si>
-    <t>3;2000@10010041;15@10010083;45@10000104;5@10000133;1</t>
-  </si>
-  <si>
     <t>6级探险家奖励</t>
   </si>
   <si>
-    <t>3;2500@10010041;15@10010083;50@10000137;3@10000134;1</t>
-  </si>
-  <si>
     <t>7级探险家奖励</t>
   </si>
   <si>
-    <t>3;3000@10010041;15@10010083;50@10000136;25@10010026;1</t>
-  </si>
-  <si>
     <t>8级探险家奖励</t>
   </si>
   <si>
-    <t>3;4000@10010041;20@10010083;60@10000138;3@10000134;1</t>
-  </si>
-  <si>
     <t>9级探险家奖励</t>
   </si>
   <si>
-    <t>3;5000@10010041;20@10010083;60@10000135;1@10010026;1</t>
-  </si>
-  <si>
     <t>10级探险家奖励</t>
   </si>
   <si>
-    <t>3;7500@10010041;20@10010083;80@10000136;25@10000134;1</t>
-  </si>
-  <si>
     <t>11级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;10000@10010041;20@10010083;80@10000136;50@10010026;1</t>
   </si>
   <si>
     <t>12级探险家奖励</t>
@@ -803,6 +767,49 @@
   </si>
   <si>
     <t>10010046;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;500@10010041;5@10010083;20@10010087;3@10010046;1</t>
+  </si>
+  <si>
+    <t>3;750@10010041;5@10010083;25@10010033;1@10000131;10010010093;1</t>
+  </si>
+  <si>
+    <t>3;1000@10010041;10@10010083;30@10010099;1@10010046;110000133;1</t>
+  </si>
+  <si>
+    <t>3;1250@10010041;10@10010083;35@10010026;1@10000143;510000134;1</t>
+  </si>
+  <si>
+    <t>3;1500@10010041;10@10010083;40@10000136;10@10000135;110000133;1</t>
+  </si>
+  <si>
+    <t>3;2000@10010041;15@10010083;45@10000136;10@10000143;1010000133;1</t>
+  </si>
+  <si>
+    <t>3;2500@10010041;15@10010083;50@10000137;3@10000104;510000134;1</t>
+  </si>
+  <si>
+    <t>3;3000@10010041;15@10010083;50@10000136;20@10000143;1010010026;1</t>
+  </si>
+  <si>
+    <t>3;4000@10010041;20@10010083;60@10000138;3@10010046;110000134;1</t>
+  </si>
+  <si>
+    <t>3;5000@10010041;20@10010083;60@10000135;1@10000143;1010010026;1</t>
+  </si>
+  <si>
+    <t>3;7500@10010041;20@10010083;80@10000136;20@10000143;2010000134;1</t>
+  </si>
+  <si>
+    <t>3;10000@10010041;20@10010083;80@10000136;30@10000143;2010010026;1</t>
+  </si>
+  <si>
+    <t>3;12500@10010041;20@10010083;100@10000136;30@10000143;2010010026;1</t>
+  </si>
+  <si>
+    <t>13级探险家奖励</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2756,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H128"/>
+  <dimension ref="C1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4229,7 +4236,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>81</v>
@@ -4249,7 +4256,7 @@
         <v>9</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>83</v>
@@ -4272,7 +4279,7 @@
         <v>84</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>86</v>
@@ -4312,7 +4319,7 @@
         <v>89</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>88</v>
@@ -4349,7 +4356,7 @@
         <v>19</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>85</v>
@@ -4369,7 +4376,7 @@
         <v>21</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>91</v>
@@ -4392,7 +4399,7 @@
         <v>93</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>95</v>
@@ -4429,7 +4436,7 @@
         <v>27</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>79</v>
@@ -4449,7 +4456,7 @@
         <v>29</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>89</v>
@@ -4509,7 +4516,7 @@
         <v>35</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>101</v>
@@ -4769,13 +4776,13 @@
         <v>1</v>
       </c>
       <c r="F102" s="12">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G102" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H102" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4789,13 +4796,13 @@
         <v>1</v>
       </c>
       <c r="F103" s="12">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4809,13 +4816,13 @@
         <v>1</v>
       </c>
       <c r="F104" s="12">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4829,13 +4836,13 @@
         <v>1</v>
       </c>
       <c r="F105" s="12">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4849,13 +4856,13 @@
         <v>1</v>
       </c>
       <c r="F106" s="12">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4869,13 +4876,13 @@
         <v>1</v>
       </c>
       <c r="F107" s="12">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4889,13 +4896,13 @@
         <v>1</v>
       </c>
       <c r="F108" s="12">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4909,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="F109" s="12">
-        <v>130000</v>
+        <v>13000</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4929,13 +4936,13 @@
         <v>1</v>
       </c>
       <c r="F110" s="12">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4949,13 +4956,13 @@
         <v>1</v>
       </c>
       <c r="F111" s="12">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4969,13 +4976,13 @@
         <v>1</v>
       </c>
       <c r="F112" s="12">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4989,38 +4996,38 @@
         <v>1</v>
       </c>
       <c r="F113" s="12">
-        <v>500000</v>
+        <v>75000</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="11">
-        <v>31001</v>
+      <c r="C114" s="10">
+        <v>30013</v>
       </c>
       <c r="D114" s="11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E114" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="12">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="11">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="D115" s="11">
         <v>31</v>
@@ -5032,15 +5039,15 @@
         <v>0</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="11">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="D116" s="11">
         <v>31</v>
@@ -5052,15 +5059,15 @@
         <v>0</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="11">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="D117" s="11">
         <v>31</v>
@@ -5072,15 +5079,15 @@
         <v>0</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="11">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="D118" s="11">
         <v>31</v>
@@ -5092,15 +5099,15 @@
         <v>0</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="11">
-        <v>31006</v>
+        <v>31005</v>
       </c>
       <c r="D119" s="11">
         <v>31</v>
@@ -5112,15 +5119,15 @@
         <v>0</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="11">
-        <v>31007</v>
+        <v>31006</v>
       </c>
       <c r="D120" s="11">
         <v>31</v>
@@ -5132,13 +5139,32 @@
         <v>0</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="11">
+        <v>31007</v>
+      </c>
+      <c r="D121" s="11">
+        <v>31</v>
+      </c>
+      <c r="E121" s="11">
+        <v>0</v>
+      </c>
+      <c r="F121" s="12">
+        <v>0</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="122" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="123" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="124" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5146,13 +5172,14 @@
     <row r="126" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="127" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C263C6-800F-497B-82AE-BC83C8AC7306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DE67F-305F-4E1F-831C-D1DF98B36A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -305,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="181">
   <si>
     <t>Id</t>
   </si>
@@ -355,9 +345,6 @@
     <t>10010098;10@10010099;1@10000131;100</t>
   </si>
   <si>
-    <t>宠物之核</t>
-  </si>
-  <si>
     <t>10010042;10@10010042;10@10010043;1</t>
   </si>
   <si>
@@ -658,9 +645,6 @@
     <t>1级探险家奖励</t>
   </si>
   <si>
-    <t>3;750@10010041;5@10010083;25@10010033;1@10000131;100@10010093;1</t>
-  </si>
-  <si>
     <t>2级探险家奖励</t>
   </si>
   <si>
@@ -674,9 +658,6 @@
   </si>
   <si>
     <t>4级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;1500@10010041;10@10010083;40@10000136;10@10000135;1@10000133;1</t>
   </si>
   <si>
     <t>5级探险家奖励</t>
@@ -963,6 +944,48 @@
   </si>
   <si>
     <t>10010042;1@10010098;5</t>
+  </si>
+  <si>
+    <t>3;1500@10010041;10@10010083;40@10000136;10@10010045;1@10000133;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;750@10010041;5@10010083;25@10010033;3@10000131;100@10010093;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物箱子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activ103</t>
+  </si>
+  <si>
+    <t>Activ101</t>
+  </si>
+  <si>
+    <t>Activ102</t>
+  </si>
+  <si>
+    <t>Activ106</t>
+  </si>
+  <si>
+    <t>Activ104</t>
+  </si>
+  <si>
+    <t>Activ105</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2587,47 @@
     <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
     <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="hair">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2588,8 +2651,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2633,10 +2696,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:F25" totalsRowShown="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="活动类型"/>
+    <tableColumn id="5" xr3:uid="{FA967DA2-3A82-43D4-9E5D-9D5C78E4776A}" name="Icon显示" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="参数_1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="参数_2"/>
   </tableColumns>
@@ -2929,23 +2993,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H129"/>
+  <dimension ref="C1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G41" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.375" customWidth="1"/>
-    <col min="7" max="7" width="55.125" customWidth="1"/>
-    <col min="8" max="8" width="40.375" customWidth="1"/>
+    <col min="3" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="40.375" customWidth="1"/>
+    <col min="8" max="8" width="55.125" customWidth="1"/>
+    <col min="9" max="9" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:9" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2953,39 +3017,45 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2993,7 +3063,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -3004,2340 +3074,2499 @@
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>2001</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="7">
         <v>1999</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>2002</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="7">
         <v>1999</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>2003</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7">
         <v>1999</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>2004</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="7">
         <v>1999</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>2005</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="7">
         <v>1999</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>2006</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="7">
         <v>1999</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>2007</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>2008</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>2009</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>2010</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>2011</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>2012</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>2013</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="E18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>2014</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>2015</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>2016</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>2017</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>2018</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="E23" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I23" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>2019</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>2020</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="10">
         <v>10001</v>
       </c>
       <c r="D26" s="10">
         <v>3</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
         <v>5</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="10" t="str">
-        <f>E26&amp;"级礼包"</f>
+      <c r="I26" s="10" t="str">
+        <f>F26&amp;"级礼包"</f>
         <v>5级礼包</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="10">
         <v>10002</v>
       </c>
       <c r="D27" s="10">
         <v>3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
         <v>10</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f t="shared" ref="H27:H31" si="0">E27&amp;"级礼包"</f>
+      <c r="I27" s="10" t="str">
+        <f t="shared" ref="I27:I31" si="0">F27&amp;"级礼包"</f>
         <v>10级礼包</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="10">
         <v>10003</v>
       </c>
       <c r="D28" s="10">
         <v>3</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
         <v>15</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="G28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="10" t="str">
+      <c r="I28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>15级礼包</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="10">
         <v>10004</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
         <v>20</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="G29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="10" t="str">
+      <c r="I29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>20级礼包</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="10">
         <v>10005</v>
       </c>
       <c r="D30" s="10">
         <v>3</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
         <v>25</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="10" t="str">
+      <c r="I30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>25级礼包</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="10">
         <v>10006</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
         <v>30</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="10" t="str">
+      <c r="I31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>30级礼包</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="10">
         <v>21001</v>
       </c>
       <c r="D32" s="10">
         <v>21</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
         <v>15</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="10">
         <v>100</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="10">
         <v>21002</v>
       </c>
       <c r="D33" s="10">
         <v>21</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
         <v>20</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="10">
         <v>50</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I33" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="10">
         <v>21003</v>
       </c>
       <c r="D34" s="10">
         <v>21</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
         <v>25</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="10">
         <v>30</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="10">
         <v>21004</v>
       </c>
       <c r="D35" s="10">
         <v>21</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
         <v>30</v>
       </c>
-      <c r="F35" s="10">
+      <c r="G35" s="10">
         <v>20</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="H35" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="10">
         <v>21005</v>
       </c>
       <c r="D36" s="10">
         <v>21</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
         <v>35</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>10</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="H36" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="10">
         <v>21006</v>
       </c>
       <c r="D37" s="10">
         <v>21</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10">
         <v>40</v>
       </c>
-      <c r="F37" s="10">
+      <c r="G37" s="10">
         <v>5</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="H37" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="10">
         <v>22001</v>
       </c>
       <c r="D38" s="10">
         <v>22</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10">
         <v>8000</v>
       </c>
-      <c r="F38" s="10">
+      <c r="G38" s="10">
         <v>100</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="10">
         <v>22002</v>
       </c>
       <c r="D39" s="10">
         <v>22</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10">
         <v>12000</v>
       </c>
-      <c r="F39" s="10">
+      <c r="G39" s="10">
         <v>50</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I39" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="10">
         <v>22003</v>
       </c>
       <c r="D40" s="10">
         <v>22</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
         <v>16000</v>
       </c>
-      <c r="F40" s="10">
+      <c r="G40" s="10">
         <v>30</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="H40" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="10">
         <v>22004</v>
       </c>
       <c r="D41" s="10">
         <v>22</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10">
         <v>20000</v>
       </c>
-      <c r="F41" s="10">
+      <c r="G41" s="10">
         <v>20</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="H41" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10">
         <v>22005</v>
       </c>
       <c r="D42" s="10">
         <v>22</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
         <v>25000</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="10">
         <v>10</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="H42" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10">
         <v>22006</v>
       </c>
       <c r="D43" s="10">
         <v>22</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
         <v>30000</v>
       </c>
-      <c r="F43" s="10">
+      <c r="G43" s="10">
         <v>5</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="H43" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="10">
         <v>23001</v>
       </c>
       <c r="D44" s="10">
         <v>23</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10">
         <v>1</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G44" s="10" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="10">
         <v>23002</v>
       </c>
       <c r="D45" s="10">
         <v>23</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10">
         <v>2</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G45" s="10" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="10">
         <v>23003</v>
       </c>
       <c r="D46" s="10">
         <v>23</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
         <v>3</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G46" s="10" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="10">
         <v>23004</v>
       </c>
       <c r="D47" s="10">
         <v>23</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="10"/>
+      <c r="F47" s="10">
         <v>4</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G47" s="10" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="10">
         <v>23005</v>
       </c>
       <c r="D48" s="10">
         <v>23</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10">
         <v>5</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="G48" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="I48" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="10">
         <v>23006</v>
       </c>
       <c r="D49" s="10">
         <v>23</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10">
         <v>6</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G49" s="10" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="10">
         <v>23007</v>
       </c>
       <c r="D50" s="10">
         <v>23</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10">
         <v>7</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G50" s="10" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="10">
         <v>23008</v>
       </c>
       <c r="D51" s="10">
         <v>23</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10">
         <v>8</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G51" s="10" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="10">
         <v>23009</v>
       </c>
       <c r="D52" s="10">
         <v>23</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10">
         <v>9</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="I52" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="10">
         <v>23010</v>
       </c>
       <c r="D53" s="10">
         <v>23</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10">
         <v>10</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G53" s="10" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="10">
         <v>23011</v>
       </c>
       <c r="D54" s="10">
         <v>23</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10">
         <v>11</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G54" s="10" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="10">
         <v>23012</v>
       </c>
       <c r="D55" s="10">
         <v>23</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
         <v>12</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="10">
         <v>23013</v>
       </c>
       <c r="D56" s="10">
         <v>23</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10">
         <v>13</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G56" s="10" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="10">
         <v>23014</v>
       </c>
       <c r="D57" s="10">
         <v>23</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10">
         <v>14</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G57" s="10" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="10">
         <v>23015</v>
       </c>
       <c r="D58" s="10">
         <v>23</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10">
         <v>15</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G58" s="10" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="10">
         <v>23016</v>
       </c>
       <c r="D59" s="10">
         <v>23</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10">
         <v>16</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="I59" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="10">
         <v>23017</v>
       </c>
       <c r="D60" s="10">
         <v>23</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10">
         <v>17</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G60" s="10" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="10">
         <v>23018</v>
       </c>
       <c r="D61" s="10">
         <v>23</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10">
         <v>18</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G61" s="10" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="10">
         <v>23019</v>
       </c>
       <c r="D62" s="10">
         <v>23</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10">
         <v>19</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="G62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="10">
         <v>23020</v>
       </c>
       <c r="D63" s="10">
         <v>23</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10">
         <v>20</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G63" s="10" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="10">
         <v>23021</v>
       </c>
       <c r="D64" s="10">
         <v>23</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10">
         <v>21</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G64" s="10" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="10">
         <v>23022</v>
       </c>
       <c r="D65" s="10">
         <v>23</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10">
         <v>22</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G65" s="10" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="10">
         <v>23023</v>
       </c>
       <c r="D66" s="10">
         <v>23</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10">
         <v>23</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="G66" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="I66" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="10">
         <v>23024</v>
       </c>
       <c r="D67" s="10">
         <v>23</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10">
         <v>24</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G67" s="10" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="10">
         <v>23025</v>
       </c>
       <c r="D68" s="10">
         <v>23</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10">
         <v>25</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G68" s="10" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="10">
         <v>23026</v>
       </c>
       <c r="D69" s="10">
         <v>23</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10">
         <v>26</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="G69" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="I69" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H69" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="10">
         <v>23027</v>
       </c>
       <c r="D70" s="10">
         <v>23</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10">
         <v>27</v>
       </c>
-      <c r="F70" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G70" s="10" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="10">
         <v>23028</v>
       </c>
       <c r="D71" s="10">
         <v>23</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="10"/>
+      <c r="F71" s="10">
         <v>28</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G71" s="10" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="10">
         <v>23029</v>
       </c>
       <c r="D72" s="10">
         <v>23</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10">
         <v>29</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G72" s="10" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="10">
         <v>23030</v>
       </c>
       <c r="D73" s="10">
         <v>23</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="10"/>
+      <c r="F73" s="10">
         <v>30</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="G73" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="I73" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="10">
         <v>24001</v>
       </c>
       <c r="D74" s="10">
         <v>24</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="12"/>
+      <c r="F74" s="9">
         <v>5</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="G74" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I74" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="10">
         <v>24002</v>
       </c>
       <c r="D75" s="10">
         <v>24</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="12"/>
+      <c r="F75" s="9">
         <v>7</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="G75" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I75" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="10">
         <v>24003</v>
       </c>
       <c r="D76" s="10">
         <v>24</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="12"/>
+      <c r="F76" s="9">
         <v>9</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="G76" s="10" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="10">
         <v>24004</v>
       </c>
       <c r="D77" s="10">
         <v>24</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="12"/>
+      <c r="F77" s="9">
         <v>11</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="G77" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="I77" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H77" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="10">
         <v>24005</v>
       </c>
       <c r="D78" s="10">
         <v>24</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="12"/>
+      <c r="F78" s="9">
         <v>13</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="G78" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I78" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="10">
         <v>24006</v>
       </c>
       <c r="D79" s="10">
         <v>24</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="12"/>
+      <c r="F79" s="9">
         <v>15</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="G79" s="10" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="10">
         <v>24007</v>
       </c>
       <c r="D80" s="10">
         <v>24</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="12"/>
+      <c r="F80" s="9">
         <v>17</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>82</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="10">
         <v>24008</v>
       </c>
       <c r="D81" s="10">
         <v>24</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="12"/>
+      <c r="F81" s="9">
         <v>19</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="G81" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="I81" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="10">
         <v>24009</v>
       </c>
       <c r="D82" s="10">
         <v>24</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="12"/>
+      <c r="F82" s="9">
         <v>21</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>86</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="10">
         <v>24010</v>
       </c>
       <c r="D83" s="10">
         <v>24</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="12"/>
+      <c r="F83" s="9">
         <v>23</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="G83" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G83" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="10">
         <v>24011</v>
       </c>
       <c r="D84" s="10">
         <v>24</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="12"/>
+      <c r="F84" s="9">
         <v>25</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="G84" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G84" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="10">
         <v>24012</v>
       </c>
       <c r="D85" s="10">
         <v>24</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="12"/>
+      <c r="F85" s="9">
         <v>27</v>
       </c>
-      <c r="F85" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="G85" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="10">
         <v>24013</v>
       </c>
       <c r="D86" s="10">
         <v>24</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="12"/>
+      <c r="F86" s="9">
         <v>29</v>
       </c>
-      <c r="F86" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="G86" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="10">
         <v>24014</v>
       </c>
       <c r="D87" s="10">
         <v>24</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="12"/>
+      <c r="F87" s="9">
         <v>31</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="G87" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H87" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="10">
         <v>24015</v>
       </c>
       <c r="D88" s="10">
         <v>24</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="12"/>
+      <c r="F88" s="9">
         <v>33</v>
       </c>
-      <c r="F88" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="G88" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H88" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="10">
         <v>24016</v>
       </c>
       <c r="D89" s="10">
         <v>24</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="12"/>
+      <c r="F89" s="9">
         <v>35</v>
       </c>
-      <c r="F89" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="G89" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="10">
         <v>24017</v>
       </c>
       <c r="D90" s="10">
         <v>24</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="12"/>
+      <c r="F90" s="9">
         <v>37</v>
       </c>
-      <c r="F90" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="G90" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="10">
         <v>24018</v>
       </c>
       <c r="D91" s="10">
         <v>24</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="12"/>
+      <c r="F91" s="9">
         <v>39</v>
       </c>
-      <c r="F91" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="G91" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="10">
         <v>24019</v>
       </c>
       <c r="D92" s="10">
         <v>24</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="12"/>
+      <c r="F92" s="9">
         <v>41</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="10">
         <v>24020</v>
       </c>
       <c r="D93" s="10">
         <v>24</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="12"/>
+      <c r="F93" s="9">
         <v>43</v>
       </c>
-      <c r="F93" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="G93" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I93" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H93" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="10">
         <v>24021</v>
       </c>
       <c r="D94" s="10">
         <v>24</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="12"/>
+      <c r="F94" s="9">
         <v>45</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>103</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="10">
         <v>24022</v>
       </c>
       <c r="D95" s="10">
         <v>24</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="12"/>
+      <c r="F95" s="9">
         <v>47</v>
       </c>
-      <c r="F95" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="G95" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="10">
         <v>24023</v>
       </c>
       <c r="D96" s="10">
         <v>24</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="12"/>
+      <c r="F96" s="9">
         <v>49</v>
       </c>
-      <c r="F96" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="G96" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="10">
         <v>24024</v>
       </c>
       <c r="D97" s="10">
         <v>24</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="12"/>
+      <c r="F97" s="9">
         <v>51</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="G97" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="I97" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H97" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="10">
         <v>24025</v>
       </c>
       <c r="D98" s="10">
         <v>24</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="12"/>
+      <c r="F98" s="9">
         <v>53</v>
       </c>
-      <c r="F98" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="G98" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I98" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H98" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="10">
         <v>24026</v>
       </c>
       <c r="D99" s="10">
         <v>24</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="12"/>
+      <c r="F99" s="9">
         <v>55</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="G99" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I99" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G99" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="10">
         <v>24027</v>
       </c>
       <c r="D100" s="10">
         <v>24</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="12"/>
+      <c r="F100" s="9">
         <v>57</v>
       </c>
-      <c r="F100" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="G100" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="10">
         <v>24028</v>
       </c>
       <c r="D101" s="10">
         <v>24</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="12"/>
+      <c r="F101" s="9">
         <v>59</v>
       </c>
-      <c r="F101" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="G101" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="10">
         <v>30001</v>
       </c>
       <c r="D102" s="11">
         <v>101</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="11"/>
+      <c r="F102" s="11">
         <v>1</v>
       </c>
-      <c r="F102" s="12">
+      <c r="G102" s="12">
         <v>100</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="H102" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I102" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="10">
         <v>30002</v>
       </c>
       <c r="D103" s="11">
         <v>101</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="11"/>
+      <c r="F103" s="11">
         <v>1</v>
       </c>
-      <c r="F103" s="12">
+      <c r="G103" s="12">
         <v>300</v>
       </c>
-      <c r="G103" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H103" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="10">
         <v>30003</v>
       </c>
       <c r="D104" s="11">
         <v>101</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="11"/>
+      <c r="F104" s="11">
         <v>1</v>
       </c>
-      <c r="F104" s="12">
+      <c r="G104" s="12">
         <v>700</v>
       </c>
-      <c r="G104" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H104" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="10">
         <v>30004</v>
       </c>
       <c r="D105" s="11">
         <v>101</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="11"/>
+      <c r="F105" s="11">
         <v>1</v>
       </c>
-      <c r="F105" s="12">
+      <c r="G105" s="12">
         <v>1500</v>
       </c>
-      <c r="G105" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H105" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="10">
         <v>30005</v>
       </c>
       <c r="D106" s="11">
         <v>101</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="11"/>
+      <c r="F106" s="11">
         <v>1</v>
       </c>
-      <c r="F106" s="12">
+      <c r="G106" s="12">
         <v>3000</v>
       </c>
-      <c r="G106" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H106" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="10">
         <v>30006</v>
       </c>
       <c r="D107" s="11">
         <v>101</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="11"/>
+      <c r="F107" s="11">
         <v>1</v>
       </c>
-      <c r="F107" s="12">
+      <c r="G107" s="12">
         <v>5000</v>
       </c>
-      <c r="G107" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H107" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="10">
         <v>30007</v>
       </c>
       <c r="D108" s="11">
         <v>101</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="11"/>
+      <c r="F108" s="11">
         <v>1</v>
       </c>
-      <c r="F108" s="12">
+      <c r="G108" s="12">
         <v>8000</v>
       </c>
-      <c r="G108" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H108" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="10">
         <v>30008</v>
       </c>
       <c r="D109" s="11">
         <v>101</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11">
         <v>1</v>
       </c>
-      <c r="F109" s="12">
+      <c r="G109" s="12">
         <v>13000</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H109" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="10">
         <v>30009</v>
       </c>
       <c r="D110" s="11">
         <v>101</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="11"/>
+      <c r="F110" s="11">
         <v>1</v>
       </c>
-      <c r="F110" s="12">
+      <c r="G110" s="12">
         <v>20000</v>
       </c>
-      <c r="G110" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H110" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="10">
         <v>30010</v>
       </c>
       <c r="D111" s="11">
         <v>101</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="11"/>
+      <c r="F111" s="11">
         <v>1</v>
       </c>
-      <c r="F111" s="12">
+      <c r="G111" s="12">
         <v>30000</v>
       </c>
-      <c r="G111" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H111" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="10">
         <v>30011</v>
       </c>
       <c r="D112" s="11">
         <v>101</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="11"/>
+      <c r="F112" s="11">
         <v>1</v>
       </c>
-      <c r="F112" s="12">
+      <c r="G112" s="12">
         <v>50000</v>
       </c>
-      <c r="G112" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H112" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="10">
         <v>30012</v>
       </c>
       <c r="D113" s="11">
         <v>101</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11">
         <v>1</v>
       </c>
-      <c r="F113" s="12">
+      <c r="G113" s="12">
         <v>75000</v>
       </c>
-      <c r="G113" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H113" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="10">
         <v>30013</v>
       </c>
       <c r="D114" s="11">
         <v>101</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="11"/>
+      <c r="F114" s="11">
         <v>1</v>
       </c>
-      <c r="F114" s="12">
+      <c r="G114" s="12">
         <v>100000</v>
       </c>
-      <c r="G114" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H114" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I114" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="11">
         <v>31001</v>
       </c>
       <c r="D115" s="11">
         <v>31</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="11"/>
+      <c r="F115" s="11">
         <v>0</v>
       </c>
-      <c r="F115" s="12">
+      <c r="G115" s="12">
         <v>0</v>
       </c>
-      <c r="G115" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H115" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="11">
         <v>31002</v>
       </c>
       <c r="D116" s="11">
         <v>31</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="11"/>
+      <c r="F116" s="11">
         <v>0</v>
       </c>
-      <c r="F116" s="12">
+      <c r="G116" s="12">
         <v>0</v>
       </c>
-      <c r="G116" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H116" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="11">
         <v>31003</v>
       </c>
       <c r="D117" s="11">
         <v>31</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="11"/>
+      <c r="F117" s="11">
         <v>0</v>
       </c>
-      <c r="F117" s="12">
+      <c r="G117" s="12">
         <v>0</v>
       </c>
-      <c r="G117" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H117" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="11">
         <v>31004</v>
       </c>
       <c r="D118" s="11">
         <v>31</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="11"/>
+      <c r="F118" s="11">
         <v>0</v>
       </c>
-      <c r="F118" s="12">
+      <c r="G118" s="12">
         <v>0</v>
       </c>
-      <c r="G118" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H118" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="11">
         <v>31005</v>
       </c>
       <c r="D119" s="11">
         <v>31</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="11"/>
+      <c r="F119" s="11">
         <v>0</v>
       </c>
-      <c r="F119" s="12">
+      <c r="G119" s="12">
         <v>0</v>
       </c>
-      <c r="G119" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H119" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I119" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="11">
         <v>31006</v>
       </c>
       <c r="D120" s="11">
         <v>31</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="11"/>
+      <c r="F120" s="11">
         <v>0</v>
       </c>
-      <c r="F120" s="12">
+      <c r="G120" s="12">
         <v>0</v>
       </c>
-      <c r="G120" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H120" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="11">
         <v>31007</v>
       </c>
       <c r="D121" s="11">
         <v>31</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="11"/>
+      <c r="F121" s="11">
         <v>0</v>
       </c>
-      <c r="F121" s="12">
+      <c r="G121" s="12">
         <v>0</v>
       </c>
-      <c r="G121" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H121" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DE67F-305F-4E1F-831C-D1DF98B36A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABAEB3-F0BD-418B-9387-92E160F29443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -69,28 +69,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_1表示随机权重值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_2表示奖励内容
+Par_1表示随机权重值
+Par_2表示奖励内容
 </t>
         </r>
         <r>
@@ -113,50 +93,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_1表示等级区间
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,2表示钻石),购买价格
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_3表示购买道具列表
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_4表示奖励内容
+Par_1表示等级区间
+Par_2表示购买货币类型(1表示金币,2表示钻石),购买价格
+Par_3表示购买道具列表
+Par_4表示奖励内容
 </t>
         </r>
         <r>
@@ -179,106 +119,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Par_1表示购买等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,3表示钻石),购买价格
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_3表示购买道具列表
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_4表示奖励内容
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">21 战区等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">22 战区战力
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">23 签到    par_1天数 par_2充值奖励 par_3奖励
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">24 令牌
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">31 登录奖励
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>101 冒险家</t>
+          <t>Par_1表示购买等级
+Par_2表示购买货币类型(1表示金币,3表示钻石),购买价格
+Par_3表示购买道具列表
+Par_4表示奖励内容
+21 战区等级
+22 战区战力
+23 签到    par_1天数 par_2充值奖励 par_3奖励
+24 令牌
+31 登录奖励
+32 新年活动
+101 冒险家</t>
         </r>
       </text>
     </comment>
@@ -295,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="182">
   <si>
     <t>Id</t>
   </si>
@@ -986,6 +837,9 @@
   </si>
   <si>
     <t>Activ105</t>
+  </si>
+  <si>
+    <t>3;500@10010041;5@10010042;5@10010083;5@10010088;2</t>
   </si>
 </sst>
 </file>
@@ -2995,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5560,8 +5414,48 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="11">
+        <v>32001</v>
+      </c>
+      <c r="D122" s="11">
+        <v>32</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11">
+        <v>2</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="11">
+        <v>32002</v>
+      </c>
+      <c r="D123" s="11">
+        <v>32</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11">
+        <v>2</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ABAEB3-F0BD-418B-9387-92E160F29443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476A41E8-1223-4643-B993-FE6FF82DAE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
   <si>
     <t>Id</t>
   </si>
@@ -536,9 +536,6 @@
   </si>
   <si>
     <t>9级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;5000@10010041;20@10010083;60@10000135;1@10000143;10@10010026;1</t>
   </si>
   <si>
     <t>10级探险家奖励</t>
@@ -840,6 +837,18 @@
   </si>
   <si>
     <t>3;500@10010041;5@10010042;5@10010083;5@10010088;2</t>
+  </si>
+  <si>
+    <t>3;5000@10010041;20@10010083;60@10000135;1@10000143;10@10010026;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15612001@15612002@15612003@15612004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15612005@15612006@15612007@15612008</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2849,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B118" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2871,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -2894,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -2917,7 +2926,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -2940,13 +2949,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7">
         <v>1999</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -2963,19 +2972,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7">
         <v>1999</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2986,13 +2995,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>16</v>
@@ -3009,13 +3018,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>18</v>
@@ -3032,13 +3041,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -3055,13 +3064,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7">
         <v>1999</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>22</v>
@@ -3078,16 +3087,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>25</v>
@@ -3101,16 +3110,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -3124,16 +3133,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
@@ -3147,16 +3156,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
@@ -3170,16 +3179,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
@@ -3193,13 +3202,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>30</v>
@@ -3216,13 +3225,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>32</v>
@@ -3239,13 +3248,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
@@ -3262,13 +3271,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>34</v>
@@ -3285,13 +3294,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>35</v>
@@ -3308,13 +3317,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>37</v>
@@ -3331,13 +3340,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>39</v>
@@ -3354,13 +3363,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>40</v>
@@ -3377,13 +3386,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -3791,7 +3800,7 @@
         <v>68</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>70</v>
@@ -3812,7 +3821,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>70</v>
@@ -3833,7 +3842,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>70</v>
@@ -3854,7 +3863,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>70</v>
@@ -3896,7 +3905,7 @@
         <v>68</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>70</v>
@@ -3917,7 +3926,7 @@
         <v>68</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>70</v>
@@ -3938,7 +3947,7 @@
         <v>68</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>70</v>
@@ -3980,7 +3989,7 @@
         <v>68</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>70</v>
@@ -4001,7 +4010,7 @@
         <v>68</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>70</v>
@@ -4043,7 +4052,7 @@
         <v>68</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>70</v>
@@ -4064,7 +4073,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>70</v>
@@ -4085,7 +4094,7 @@
         <v>68</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>70</v>
@@ -4127,7 +4136,7 @@
         <v>68</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>70</v>
@@ -4148,7 +4157,7 @@
         <v>68</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>70</v>
@@ -4190,7 +4199,7 @@
         <v>68</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>70</v>
@@ -4211,7 +4220,7 @@
         <v>68</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>70</v>
@@ -4232,7 +4241,7 @@
         <v>68</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>70</v>
@@ -4274,7 +4283,7 @@
         <v>68</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>70</v>
@@ -4295,7 +4304,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>70</v>
@@ -4337,7 +4346,7 @@
         <v>68</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>70</v>
@@ -4358,7 +4367,7 @@
         <v>68</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>70</v>
@@ -4379,7 +4388,7 @@
         <v>68</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>70</v>
@@ -4424,7 +4433,7 @@
         <v>72</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4442,7 +4451,7 @@
         <v>73</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>74</v>
@@ -4463,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>72</v>
@@ -4508,7 +4517,7 @@
         <v>80</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4523,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>74</v>
@@ -5030,7 +5039,7 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>116</v>
@@ -5093,7 +5102,7 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>121</v>
@@ -5198,10 +5207,10 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I111" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="I111" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5219,10 +5228,10 @@
         <v>50000</v>
       </c>
       <c r="H112" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I112" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5240,10 +5249,10 @@
         <v>75000</v>
       </c>
       <c r="H113" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I113" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5261,10 +5270,10 @@
         <v>100000</v>
       </c>
       <c r="H114" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I114" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5282,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I115" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5303,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I116" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5324,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I117" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5345,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I118" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5366,10 +5375,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I119" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5387,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I120" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5408,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I121" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5426,13 +5435,13 @@
         <v>2</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H122" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I122" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5447,13 +5456,13 @@
         <v>2</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H123" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I123" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476A41E8-1223-4643-B993-FE6FF82DAE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D488CB-B1E8-49F4-AE4A-A40A56475CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,9 +589,6 @@
     <t>第五天</t>
   </si>
   <si>
-    <t>10010042;3@10010083;5@10010041;5@10010026;3</t>
-  </si>
-  <si>
     <t>第六天</t>
   </si>
   <si>
@@ -843,11 +840,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>15612001@15612002@15612003@15612004</t>
+    <t>10010042;3@10010083;5@10010041;5@10010026;3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>15612005@15612006@15612007@15612008</t>
+    <t>15612001;1@15612002;1@15612003;1@15612004;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15612005;1@15612006;1@15612007;1@15612008;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2858,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2880,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -2903,7 +2904,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -2926,7 +2927,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -2949,13 +2950,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7">
         <v>1999</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -2972,19 +2973,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7">
         <v>1999</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2995,13 +2996,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>16</v>
@@ -3018,13 +3019,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>18</v>
@@ -3041,13 +3042,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -3064,13 +3065,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7">
         <v>1999</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>22</v>
@@ -3087,16 +3088,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>25</v>
@@ -3110,16 +3111,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -3133,16 +3134,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
@@ -3156,16 +3157,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
@@ -3179,16 +3180,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
@@ -3202,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>30</v>
@@ -3225,13 +3226,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>32</v>
@@ -3248,13 +3249,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
@@ -3271,13 +3272,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>34</v>
@@ -3294,13 +3295,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>35</v>
@@ -3317,13 +3318,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>37</v>
@@ -3340,13 +3341,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>39</v>
@@ -3363,13 +3364,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>40</v>
@@ -3386,13 +3387,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -3800,7 +3801,7 @@
         <v>68</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>70</v>
@@ -3821,7 +3822,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>70</v>
@@ -3842,7 +3843,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>70</v>
@@ -3863,7 +3864,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>70</v>
@@ -3905,7 +3906,7 @@
         <v>68</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>70</v>
@@ -3926,7 +3927,7 @@
         <v>68</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>70</v>
@@ -3947,7 +3948,7 @@
         <v>68</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>70</v>
@@ -3989,7 +3990,7 @@
         <v>68</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>70</v>
@@ -4010,7 +4011,7 @@
         <v>68</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>70</v>
@@ -4052,7 +4053,7 @@
         <v>68</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>70</v>
@@ -4073,7 +4074,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>70</v>
@@ -4094,7 +4095,7 @@
         <v>68</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>70</v>
@@ -4136,7 +4137,7 @@
         <v>68</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>70</v>
@@ -4157,7 +4158,7 @@
         <v>68</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>70</v>
@@ -4199,7 +4200,7 @@
         <v>68</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>70</v>
@@ -4220,7 +4221,7 @@
         <v>68</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>70</v>
@@ -4241,7 +4242,7 @@
         <v>68</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>70</v>
@@ -4283,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>70</v>
@@ -4304,7 +4305,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>70</v>
@@ -4346,7 +4347,7 @@
         <v>68</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>70</v>
@@ -4367,7 +4368,7 @@
         <v>68</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>70</v>
@@ -4388,7 +4389,7 @@
         <v>68</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>70</v>
@@ -4433,7 +4434,7 @@
         <v>72</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4451,7 +4452,7 @@
         <v>73</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>74</v>
@@ -4472,7 +4473,7 @@
         <v>75</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>72</v>
@@ -4517,7 +4518,7 @@
         <v>80</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4532,7 +4533,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>74</v>
@@ -5039,7 +5040,7 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>116</v>
@@ -5102,7 +5103,7 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>121</v>
@@ -5207,7 +5208,7 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>130</v>
@@ -5396,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I120" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5417,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I121" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5438,7 +5439,7 @@
         <v>182</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>138</v>
@@ -5459,7 +5460,7 @@
         <v>183</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I123" s="10" t="s">
         <v>140</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D488CB-B1E8-49F4-AE4A-A40A56475CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FE054-F715-44B2-835E-61491439354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31605" yWindow="990" windowWidth="23730" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="196">
   <si>
     <t>Id</t>
   </si>
@@ -833,9 +833,6 @@
     <t>Activ105</t>
   </si>
   <si>
-    <t>3;500@10010041;5@10010042;5@10010083;5@10010088;2</t>
-  </si>
-  <si>
     <t>3;5000@10010041;20@10010083;60@10000135;1@10000143;10@10010026;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -844,11 +841,63 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>15612001;1@15612002;1@15612003;1@15612004;1</t>
+    <t>10030011;1@10030012;1@10030013;1@10030014;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>15612005;1@15612006;1@15612007;1@15612008;1</t>
+    <t>10030015;1@10030016;1@10030017;1@10030018;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;200@10010083;20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新春活动兑换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030013;1@10030016;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030013;1@10030014;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030015;1@10030016;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030011;1@10030012;1@10030015;1@10030016;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030013;1@10030014;1@10030017;1@10030018;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;200@10000132;20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030011;1@10030012;1@10030013;1@10030014;1@10030015;1@10030016;1@10030017;1@10030018;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;600@10000143;3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;60000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;200000@10010046;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;200000@10000143;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2857,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I129"/>
+  <dimension ref="C1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5208,7 +5257,7 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>130</v>
@@ -5397,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>147</v>
@@ -5433,16 +5482,16 @@
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5454,24 +5503,146 @@
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="11">
+        <v>32003</v>
+      </c>
+      <c r="D124" s="11">
+        <v>32</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11">
+        <v>1</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H124" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H123" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="I124" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="11">
+        <v>32004</v>
+      </c>
+      <c r="D125" s="11">
+        <v>32</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11">
+        <v>1</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="11">
+        <v>32005</v>
+      </c>
+      <c r="D126" s="11">
+        <v>32</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11">
+        <v>1</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="11">
+        <v>32006</v>
+      </c>
+      <c r="D127" s="11">
+        <v>32</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11">
+        <v>1</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="11">
+        <v>32007</v>
+      </c>
+      <c r="D128" s="11">
+        <v>32</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11">
+        <v>1</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="11">
+        <v>32008</v>
+      </c>
+      <c r="D129" s="11">
+        <v>32</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11">
+        <v>1</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FE054-F715-44B2-835E-61491439354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79604CFF-6B30-4E71-90B2-B96D9172FFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="990" windowWidth="23730" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>10022008;1</t>
   </si>
   <si>
-    <t>10022009;1</t>
-  </si>
-  <si>
     <t>10010085;50</t>
   </si>
   <si>
@@ -518,9 +515,6 @@
   </si>
   <si>
     <t>6级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;2500@10010041;15@10010083;50@10000137;3@10000104;5@10000134;1</t>
   </si>
   <si>
     <t>7级探险家奖励</t>
@@ -898,6 +892,14 @@
   </si>
   <si>
     <t>1;200000@10000143;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000202;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000205;1@10010041;15@10010083;50@10000137;3@10000104;5@10000134;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2908,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C115" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2930,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -2953,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -2976,7 +2978,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -2999,13 +3001,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7">
         <v>1999</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -3022,19 +3024,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7">
         <v>1999</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3045,13 +3047,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>16</v>
@@ -3068,13 +3070,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>18</v>
@@ -3091,13 +3093,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -3114,13 +3116,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7">
         <v>1999</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>22</v>
@@ -3137,16 +3139,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>25</v>
@@ -3160,16 +3162,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -3183,16 +3185,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
@@ -3206,16 +3208,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
@@ -3229,16 +3231,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
@@ -3252,13 +3254,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>30</v>
@@ -3275,13 +3277,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>32</v>
@@ -3298,13 +3300,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
@@ -3321,13 +3323,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>34</v>
@@ -3344,13 +3346,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>35</v>
@@ -3367,13 +3369,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>37</v>
@@ -3390,13 +3392,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>39</v>
@@ -3413,13 +3415,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>40</v>
@@ -3436,13 +3438,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -3850,7 +3852,7 @@
         <v>68</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>70</v>
@@ -3871,7 +3873,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>70</v>
@@ -3892,7 +3894,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>70</v>
@@ -3913,7 +3915,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>70</v>
@@ -3955,7 +3957,7 @@
         <v>68</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>70</v>
@@ -3976,7 +3978,7 @@
         <v>68</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>70</v>
@@ -3997,7 +3999,7 @@
         <v>68</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>70</v>
@@ -4039,7 +4041,7 @@
         <v>68</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>70</v>
@@ -4060,7 +4062,7 @@
         <v>68</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>70</v>
@@ -4102,7 +4104,7 @@
         <v>68</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>70</v>
@@ -4123,7 +4125,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>70</v>
@@ -4144,7 +4146,7 @@
         <v>68</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>70</v>
@@ -4186,7 +4188,7 @@
         <v>68</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>70</v>
@@ -4207,7 +4209,7 @@
         <v>68</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>70</v>
@@ -4249,7 +4251,7 @@
         <v>68</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>70</v>
@@ -4270,7 +4272,7 @@
         <v>68</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>70</v>
@@ -4291,7 +4293,7 @@
         <v>68</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>70</v>
@@ -4333,7 +4335,7 @@
         <v>68</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>70</v>
@@ -4354,7 +4356,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>70</v>
@@ -4396,7 +4398,7 @@
         <v>68</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>70</v>
@@ -4417,7 +4419,7 @@
         <v>68</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>70</v>
@@ -4438,7 +4440,7 @@
         <v>68</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>70</v>
@@ -4483,7 +4485,7 @@
         <v>72</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4501,7 +4503,7 @@
         <v>73</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>74</v>
@@ -4522,7 +4524,7 @@
         <v>75</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>72</v>
@@ -4567,7 +4569,7 @@
         <v>80</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,7 +4584,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>74</v>
@@ -4693,7 +4695,7 @@
         <v>87</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4714,7 +4716,7 @@
         <v>72</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4735,7 +4737,7 @@
         <v>81</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4750,13 +4752,13 @@
         <v>31</v>
       </c>
       <c r="G87" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4774,10 +4776,10 @@
         <v>88</v>
       </c>
       <c r="H88" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4795,7 +4797,7 @@
         <v>86</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>85</v>
@@ -4813,13 +4815,13 @@
         <v>37</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4834,10 +4836,10 @@
         <v>39</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>89</v>
@@ -4855,13 +4857,13 @@
         <v>41</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4879,10 +4881,10 @@
         <v>88</v>
       </c>
       <c r="H93" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I93" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4897,13 +4899,13 @@
         <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4918,10 +4920,10 @@
         <v>47</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>85</v>
@@ -4939,13 +4941,13 @@
         <v>49</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4960,13 +4962,13 @@
         <v>51</v>
       </c>
       <c r="G97" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="I97" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4984,10 +4986,10 @@
         <v>88</v>
       </c>
       <c r="H98" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I98" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5002,13 +5004,13 @@
         <v>55</v>
       </c>
       <c r="G99" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I99" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5023,13 +5025,13 @@
         <v>57</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5044,13 +5046,13 @@
         <v>59</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5068,10 +5070,10 @@
         <v>100</v>
       </c>
       <c r="H102" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I102" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5089,10 +5091,10 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5110,10 +5112,10 @@
         <v>700</v>
       </c>
       <c r="H104" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I104" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5131,10 +5133,10 @@
         <v>1500</v>
       </c>
       <c r="H105" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I105" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5152,10 +5154,10 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5173,10 +5175,10 @@
         <v>5000</v>
       </c>
       <c r="H107" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I107" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5194,10 +5196,10 @@
         <v>8000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5215,10 +5217,10 @@
         <v>13000</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5236,10 +5238,10 @@
         <v>20000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5257,10 +5259,10 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5278,10 +5280,10 @@
         <v>50000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5299,10 +5301,10 @@
         <v>75000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5320,10 +5322,10 @@
         <v>100000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5341,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5362,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5383,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5404,10 +5406,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5425,10 +5427,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5446,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5467,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5485,13 +5487,13 @@
         <v>1</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5506,13 +5508,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5527,13 +5529,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5548,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5569,13 +5571,13 @@
         <v>1</v>
       </c>
       <c r="G126" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I126" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="H126" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5590,13 +5592,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5611,13 +5613,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5632,13 +5634,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79604CFF-6B30-4E71-90B2-B96D9172FFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC569078-48B3-4169-944C-006FB2317B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -129,6 +129,7 @@
 24 令牌
 31 登录奖励
 32 新年活动
+33 节日活动
 101 冒险家</t>
         </r>
       </text>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -900,6 +901,14 @@
   </si>
   <si>
     <t>10000205;1@10010041;15@10010083;50@10000137;3@10000104;5@10000134;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;19</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月19雨水节</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2910,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5643,7 +5652,25 @@
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="11">
+        <v>33001</v>
+      </c>
+      <c r="D130" s="11">
+        <v>33</v>
+      </c>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H130" s="12"/>
+      <c r="I130" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC569078-48B3-4169-944C-006FB2317B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925CD91D-7676-4FCE-A89C-52DF00A214C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="236">
   <si>
     <t>Id</t>
   </si>
@@ -904,11 +904,163 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2;19</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月19雨水节</t>
+    <t>3;8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇女节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青年节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;22</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建党节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建军节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;22</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七夕节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;29</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;23</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>万圣节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11;23</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12;25</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;9</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;14</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;24</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵节</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2917,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I131"/>
+  <dimension ref="C1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5661,17 +5813,337 @@
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G130" s="12" t="s">
-        <v>185</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="11">
+        <v>33002</v>
+      </c>
+      <c r="D131" s="11">
+        <v>33</v>
+      </c>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="11">
+        <v>33003</v>
+      </c>
+      <c r="D132" s="11">
+        <v>33</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="11">
+        <v>33004</v>
+      </c>
+      <c r="D133" s="11">
+        <v>33</v>
+      </c>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="11">
+        <v>33005</v>
+      </c>
+      <c r="D134" s="11">
+        <v>33</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="11">
+        <v>33006</v>
+      </c>
+      <c r="D135" s="11">
+        <v>33</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="11">
+        <v>33007</v>
+      </c>
+      <c r="D136" s="11">
+        <v>33</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="11">
+        <v>33008</v>
+      </c>
+      <c r="D137" s="11">
+        <v>33</v>
+      </c>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="11">
+        <v>33009</v>
+      </c>
+      <c r="D138" s="11">
+        <v>33</v>
+      </c>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="11">
+        <v>33010</v>
+      </c>
+      <c r="D139" s="11">
+        <v>33</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="11">
+        <v>33011</v>
+      </c>
+      <c r="D140" s="11">
+        <v>33</v>
+      </c>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="11">
+        <v>33012</v>
+      </c>
+      <c r="D141" s="11">
+        <v>33</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="11">
+        <v>33013</v>
+      </c>
+      <c r="D142" s="11">
+        <v>33</v>
+      </c>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="11">
+        <v>33014</v>
+      </c>
+      <c r="D143" s="11">
+        <v>33</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="11">
+        <v>33015</v>
+      </c>
+      <c r="D144" s="11">
+        <v>33</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="11">
+        <v>33016</v>
+      </c>
+      <c r="D145" s="11">
+        <v>33</v>
+      </c>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="11">
+        <v>33017</v>
+      </c>
+      <c r="D146" s="11">
+        <v>33</v>
+      </c>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="11">
+        <v>33018</v>
+      </c>
+      <c r="D147" s="11">
+        <v>33</v>
+      </c>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="11">
+        <v>33019</v>
+      </c>
+      <c r="D148" s="11">
+        <v>33</v>
+      </c>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="11">
+        <v>33020</v>
+      </c>
+      <c r="D149" s="11">
+        <v>33</v>
+      </c>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925CD91D-7676-4FCE-A89C-52DF00A214C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75358366-4200-4216-8922-D21F14F8C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="237">
   <si>
     <t>Id</t>
   </si>
@@ -389,9 +389,6 @@
     <t>10021008;1</t>
   </si>
   <si>
-    <t>10021009;1</t>
-  </si>
-  <si>
     <t>10010046;1</t>
   </si>
   <si>
@@ -521,9 +518,6 @@
     <t>7级探险家奖励</t>
   </si>
   <si>
-    <t>3;3000@10010041;15@10010083;50@10000136;20@10000143;10@10010026;1</t>
-  </si>
-  <si>
     <t>8级探险家奖励</t>
   </si>
   <si>
@@ -536,9 +530,6 @@
     <t>10级探险家奖励</t>
   </si>
   <si>
-    <t>3;7500@10010041;20@10010083;80@10000136;20@10000143;20@10000134;1</t>
-  </si>
-  <si>
     <t>11级探险家奖励</t>
   </si>
   <si>
@@ -548,9 +539,6 @@
     <t>12级探险家奖励</t>
   </si>
   <si>
-    <t>3;12500@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1</t>
-  </si>
-  <si>
     <t>13级探险家奖励</t>
   </si>
   <si>
@@ -560,9 +548,6 @@
     <t>第一天</t>
   </si>
   <si>
-    <t>10010042;1@10000121;1@10010092;1</t>
-  </si>
-  <si>
     <t>第二天</t>
   </si>
   <si>
@@ -578,16 +563,10 @@
     <t>第四天</t>
   </si>
   <si>
-    <t>10010042;2@10010083;5@10000123;1@10010087;1</t>
-  </si>
-  <si>
     <t>第五天</t>
   </si>
   <si>
     <t>第六天</t>
-  </si>
-  <si>
-    <t>10010042;3@10010083;5@10000103;1@10010093;1</t>
   </si>
   <si>
     <t>第七天</t>
@@ -832,10 +811,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10010042;3@10010083;5@10010041;5@10010026;3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10030011;1@10030012;1@10030013;1@10030014;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1061,6 +1036,42 @@
   </si>
   <si>
     <t>元宵节</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011009;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010087;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;3000@10010041;15@10010083;50@10000136;20@10000143;10@10010026;1@10010087;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;7500@10010041;20@10010083;80@10000136;20@10000143;20@10000134;1@10011014;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;12500@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10011015;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;1@10010041;5@10010092;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;3@10010083;5@10010041;5@10010026;1;1@11200000;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;3@10010083;5@10000103;1@10011016;1@10000143;3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010093;1@10010083;5@10000124;1@10010087;1@10010039;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3071,8 +3082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="C97" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3093,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -3116,7 +3127,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -3139,7 +3150,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -3162,13 +3173,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7">
         <v>1999</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -3185,19 +3196,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7">
         <v>1999</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3208,13 +3219,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>16</v>
@@ -3231,13 +3242,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>18</v>
@@ -3254,13 +3265,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -3277,13 +3288,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F11" s="7">
         <v>1999</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>22</v>
@@ -3300,16 +3311,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>25</v>
@@ -3323,16 +3334,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -3346,16 +3357,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
@@ -3369,16 +3380,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
@@ -3392,16 +3403,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
@@ -3415,13 +3426,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>30</v>
@@ -3438,13 +3449,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>32</v>
@@ -3461,13 +3472,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
@@ -3484,13 +3495,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>34</v>
@@ -3507,13 +3518,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>35</v>
@@ -3530,13 +3541,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>37</v>
@@ -3553,13 +3564,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>39</v>
@@ -3576,13 +3587,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>40</v>
@@ -3599,13 +3610,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -4013,7 +4024,7 @@
         <v>68</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>70</v>
@@ -4034,7 +4045,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>70</v>
@@ -4055,7 +4066,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>70</v>
@@ -4076,7 +4087,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>70</v>
@@ -4118,7 +4129,7 @@
         <v>68</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>70</v>
@@ -4139,7 +4150,7 @@
         <v>68</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>70</v>
@@ -4160,7 +4171,7 @@
         <v>68</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>70</v>
@@ -4202,7 +4213,7 @@
         <v>68</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>70</v>
@@ -4223,7 +4234,7 @@
         <v>68</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>70</v>
@@ -4265,7 +4276,7 @@
         <v>68</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>70</v>
@@ -4286,7 +4297,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>70</v>
@@ -4307,7 +4318,7 @@
         <v>68</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>70</v>
@@ -4349,7 +4360,7 @@
         <v>68</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>70</v>
@@ -4370,7 +4381,7 @@
         <v>68</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>70</v>
@@ -4412,7 +4423,7 @@
         <v>68</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>70</v>
@@ -4433,7 +4444,7 @@
         <v>68</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>70</v>
@@ -4454,7 +4465,7 @@
         <v>68</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>70</v>
@@ -4496,7 +4507,7 @@
         <v>68</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>70</v>
@@ -4517,7 +4528,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>70</v>
@@ -4559,7 +4570,7 @@
         <v>68</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>70</v>
@@ -4580,7 +4591,7 @@
         <v>68</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>70</v>
@@ -4601,7 +4612,7 @@
         <v>68</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>70</v>
@@ -4643,10 +4654,10 @@
         <v>71</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4664,7 +4675,7 @@
         <v>73</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>74</v>
@@ -4685,7 +4696,7 @@
         <v>75</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>72</v>
@@ -4727,10 +4738,10 @@
         <v>79</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4745,7 +4756,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>74</v>
@@ -4766,10 +4777,10 @@
         <v>17</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>72</v>
@@ -4787,13 +4798,13 @@
         <v>19</v>
       </c>
       <c r="G81" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="I81" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4808,13 +4819,13 @@
         <v>21</v>
       </c>
       <c r="G82" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4829,13 +4840,13 @@
         <v>23</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4850,13 +4861,13 @@
         <v>25</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4871,13 +4882,13 @@
         <v>27</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>72</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4895,10 +4906,10 @@
         <v>77</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4913,13 +4924,13 @@
         <v>31</v>
       </c>
       <c r="G87" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4934,13 +4945,13 @@
         <v>33</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H88" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4955,13 +4966,13 @@
         <v>35</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4976,13 +4987,13 @@
         <v>37</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4997,13 +5008,13 @@
         <v>39</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5018,13 +5029,13 @@
         <v>41</v>
       </c>
       <c r="G92" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5039,13 +5050,13 @@
         <v>43</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H93" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I93" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5060,13 +5071,13 @@
         <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5081,13 +5092,13 @@
         <v>47</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5102,13 +5113,13 @@
         <v>49</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5123,13 +5134,13 @@
         <v>51</v>
       </c>
       <c r="G97" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="I97" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5144,13 +5155,13 @@
         <v>53</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H98" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I98" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5165,13 +5176,13 @@
         <v>55</v>
       </c>
       <c r="G99" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I99" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I99" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5186,13 +5197,13 @@
         <v>57</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5207,13 +5218,13 @@
         <v>59</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5231,10 +5242,10 @@
         <v>100</v>
       </c>
       <c r="H102" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I102" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5252,10 +5263,10 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5273,10 +5284,10 @@
         <v>700</v>
       </c>
       <c r="H104" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I104" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5294,10 +5305,10 @@
         <v>1500</v>
       </c>
       <c r="H105" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I105" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5315,10 +5326,10 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5336,10 +5347,10 @@
         <v>5000</v>
       </c>
       <c r="H107" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I107" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5357,10 +5368,10 @@
         <v>8000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5378,10 +5389,10 @@
         <v>13000</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5399,10 +5410,10 @@
         <v>20000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5420,10 +5431,10 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5441,10 +5452,10 @@
         <v>50000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5462,10 +5473,10 @@
         <v>75000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5483,10 +5494,10 @@
         <v>100000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5504,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5525,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5546,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5567,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5588,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5609,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5630,10 +5641,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5648,13 +5659,13 @@
         <v>1</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5669,13 +5680,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5690,13 +5701,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5711,13 +5722,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5732,13 +5743,13 @@
         <v>1</v>
       </c>
       <c r="G126" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H126" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H126" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="I126" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5753,13 +5764,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H127" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="H127" s="12" t="s">
-        <v>191</v>
-      </c>
       <c r="I127" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5774,13 +5785,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5795,13 +5806,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5813,12 +5824,12 @@
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5830,12 +5841,12 @@
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5847,12 +5858,12 @@
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5864,12 +5875,12 @@
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5881,12 +5892,12 @@
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5898,12 +5909,12 @@
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5915,12 +5926,12 @@
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5932,12 +5943,12 @@
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5949,12 +5960,12 @@
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5966,12 +5977,12 @@
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5983,12 +5994,12 @@
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6000,12 +6011,12 @@
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6017,12 +6028,12 @@
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6034,12 +6045,12 @@
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
       <c r="I143" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6051,12 +6062,12 @@
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="I144" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6068,12 +6079,12 @@
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6085,12 +6096,12 @@
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6102,12 +6113,12 @@
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6119,12 +6130,12 @@
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6136,12 +6147,12 @@
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="11" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75358366-4200-4216-8922-D21F14F8C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F49E4-2303-4919-A017-4AE63B709DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -521,9 +521,6 @@
     <t>8级探险家奖励</t>
   </si>
   <si>
-    <t>3;4000@10010041;20@10010083;60@10000138;3@10010046;1@10000134;1</t>
-  </si>
-  <si>
     <t>9级探险家奖励</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
   </si>
   <si>
     <t>11级探险家奖励</t>
-  </si>
-  <si>
-    <t>3;10000@10010041;20@10010083;80@10000136;30@10000143;20@10010026;1</t>
   </si>
   <si>
     <t>12级探险家奖励</t>
@@ -807,10 +801,6 @@
     <t>Activ105</t>
   </si>
   <si>
-    <t>3;5000@10010041;20@10010083;60@10000135;1@10000143;10@10010026;1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10030011;1@10030012;1@10030013;1@10030014;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1047,18 +1037,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3;3000@10010041;15@10010083;50@10000136;20@10000143;10@10010026;1@10010087;1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3;7500@10010041;20@10010083;80@10000136;20@10000143;20@10000134;1@10011014;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3;12500@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10011015;1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10010042;1@10010041;5@10010092;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1072,6 +1054,26 @@
   </si>
   <si>
     <t>10010093;1@10010083;5@10000124;1@10010087;1@10010039;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;4000@10010041;20@10010083;60@10000138;3@10010046;1@10000134;1@10049103;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;5000@10010041;20@10010083;60@10000135;1@10000143;10@10010026;1@10049102;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;12500@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10049101;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;10000@10010041;20@10010083;80@10000136;30@10000143;20@10010026;1@10011015;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;3000@10010041;15@10010083;50@10000136;20@10000143;10@10010026;1@10011011;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3082,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C97" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3091,7 +3093,7 @@
     <col min="3" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="40.375" customWidth="1"/>
-    <col min="8" max="8" width="55.125" customWidth="1"/>
+    <col min="8" max="8" width="73.875" customWidth="1"/>
     <col min="9" max="9" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3104,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -3127,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -3150,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -3173,13 +3175,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7">
         <v>1999</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -3196,19 +3198,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7">
         <v>1999</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3219,13 +3221,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>16</v>
@@ -3242,13 +3244,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>18</v>
@@ -3265,13 +3267,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -3288,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7">
         <v>1999</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>22</v>
@@ -3311,16 +3313,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>143</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>25</v>
@@ -3334,16 +3336,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -3357,16 +3359,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
@@ -3380,16 +3382,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
@@ -3403,16 +3405,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
@@ -3426,13 +3428,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>30</v>
@@ -3449,13 +3451,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>32</v>
@@ -3472,13 +3474,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
@@ -3495,13 +3497,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>34</v>
@@ -3518,13 +3520,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>35</v>
@@ -3541,13 +3543,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>37</v>
@@ -3564,13 +3566,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>39</v>
@@ -3587,13 +3589,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>40</v>
@@ -3610,13 +3612,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -4024,7 +4026,7 @@
         <v>68</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>70</v>
@@ -4045,7 +4047,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>70</v>
@@ -4066,7 +4068,7 @@
         <v>68</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>70</v>
@@ -4087,7 +4089,7 @@
         <v>68</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>70</v>
@@ -4129,7 +4131,7 @@
         <v>68</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>70</v>
@@ -4150,7 +4152,7 @@
         <v>68</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>70</v>
@@ -4171,7 +4173,7 @@
         <v>68</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>70</v>
@@ -4213,7 +4215,7 @@
         <v>68</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>70</v>
@@ -4234,7 +4236,7 @@
         <v>68</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>70</v>
@@ -4276,7 +4278,7 @@
         <v>68</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>70</v>
@@ -4297,7 +4299,7 @@
         <v>68</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>70</v>
@@ -4318,7 +4320,7 @@
         <v>68</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>70</v>
@@ -4360,7 +4362,7 @@
         <v>68</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>70</v>
@@ -4381,7 +4383,7 @@
         <v>68</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>70</v>
@@ -4423,7 +4425,7 @@
         <v>68</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>70</v>
@@ -4444,7 +4446,7 @@
         <v>68</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>70</v>
@@ -4465,7 +4467,7 @@
         <v>68</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>70</v>
@@ -4507,7 +4509,7 @@
         <v>68</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>70</v>
@@ -4528,7 +4530,7 @@
         <v>68</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>70</v>
@@ -4570,7 +4572,7 @@
         <v>68</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>70</v>
@@ -4591,7 +4593,7 @@
         <v>68</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>70</v>
@@ -4612,7 +4614,7 @@
         <v>68</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>70</v>
@@ -4654,10 +4656,10 @@
         <v>71</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4675,7 +4677,7 @@
         <v>73</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>74</v>
@@ -4696,7 +4698,7 @@
         <v>75</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>72</v>
@@ -4738,10 +4740,10 @@
         <v>79</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4756,7 +4758,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>74</v>
@@ -4867,7 +4869,7 @@
         <v>86</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5263,7 +5265,7 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>114</v>
@@ -5326,7 +5328,7 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>119</v>
@@ -5368,7 +5370,7 @@
         <v>8000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>122</v>
@@ -5389,7 +5391,7 @@
         <v>13000</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>123</v>
@@ -5410,10 +5412,10 @@
         <v>20000</v>
       </c>
       <c r="H110" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I110" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5431,10 +5433,10 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5452,10 +5454,10 @@
         <v>50000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5473,10 +5475,10 @@
         <v>75000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5494,10 +5496,10 @@
         <v>100000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5515,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5536,10 +5538,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5557,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5578,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5599,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5620,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5641,10 +5643,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5659,13 +5661,13 @@
         <v>1</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5680,13 +5682,13 @@
         <v>1</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5701,13 +5703,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5722,13 +5724,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I125" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="H125" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5743,13 +5745,13 @@
         <v>1</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5764,13 +5766,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5785,13 +5787,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5806,13 +5808,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5824,12 +5826,12 @@
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5841,12 +5843,12 @@
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5858,12 +5860,12 @@
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5875,12 +5877,12 @@
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5892,12 +5894,12 @@
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5909,12 +5911,12 @@
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5926,12 +5928,12 @@
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5943,12 +5945,12 @@
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5960,12 +5962,12 @@
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5977,12 +5979,12 @@
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5994,12 +5996,12 @@
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6011,12 +6013,12 @@
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6028,12 +6030,12 @@
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6045,12 +6047,12 @@
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
       <c r="I143" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6062,12 +6064,12 @@
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="I144" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6079,12 +6081,12 @@
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6096,12 +6098,12 @@
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6113,12 +6115,12 @@
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6130,12 +6132,12 @@
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6147,12 +6149,12 @@
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F49E4-2303-4919-A017-4AE63B709DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED734D1D-C805-4DBC-A659-40C5310D7BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="239">
   <si>
     <t>Id</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>1;250000@10010083;30@10010085;300@10000143;10@10010046;1</t>
-  </si>
-  <si>
-    <t>10010043;1@5;20@10010044;1</t>
   </si>
   <si>
     <t>10010042;1@10010085;20</t>
@@ -1074,6 +1071,18 @@
   </si>
   <si>
     <t>3;3000@10010041;15@10010083;50@10000136;20@10000143;10@10010026;1@10011011;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14级探险家奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;20000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10049101;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000151;1@5;20@10010044;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3082,10 +3091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I149"/>
+  <dimension ref="C1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3106,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -3129,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -3152,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -3175,13 +3184,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7">
         <v>1999</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -3198,19 +3207,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="7">
         <v>1999</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3221,13 +3230,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>16</v>
@@ -3244,13 +3253,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>18</v>
@@ -3267,13 +3276,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>20</v>
@@ -3290,13 +3299,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7">
         <v>1999</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>22</v>
@@ -3313,16 +3322,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>25</v>
@@ -3336,16 +3345,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>25</v>
@@ -3359,16 +3368,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>25</v>
@@ -3382,16 +3391,16 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>25</v>
@@ -3405,16 +3414,16 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>25</v>
@@ -3428,13 +3437,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>30</v>
@@ -3451,13 +3460,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>32</v>
@@ -3474,13 +3483,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>33</v>
@@ -3497,13 +3506,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>34</v>
@@ -3520,13 +3529,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>35</v>
@@ -3543,13 +3552,13 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>37</v>
@@ -3566,13 +3575,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>39</v>
@@ -3589,13 +3598,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>40</v>
@@ -3612,13 +3621,13 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>41</v>
@@ -4023,13 +4032,13 @@
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4044,13 +4053,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4065,13 +4074,13 @@
         <v>3</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4086,13 +4095,13 @@
         <v>4</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4107,13 +4116,13 @@
         <v>5</v>
       </c>
       <c r="G48" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="I48" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4128,13 +4137,13 @@
         <v>6</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,13 +4158,13 @@
         <v>7</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4170,13 +4179,13 @@
         <v>8</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4191,13 +4200,13 @@
         <v>9</v>
       </c>
       <c r="G52" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="I52" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4212,13 +4221,13 @@
         <v>10</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,13 +4242,13 @@
         <v>11</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4254,13 +4263,13 @@
         <v>12</v>
       </c>
       <c r="G55" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="I55" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4275,13 +4284,13 @@
         <v>13</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4296,13 +4305,13 @@
         <v>14</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4317,13 +4326,13 @@
         <v>15</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4338,13 +4347,13 @@
         <v>16</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="I59" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4359,13 +4368,13 @@
         <v>17</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4380,13 +4389,13 @@
         <v>18</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4401,13 +4410,13 @@
         <v>19</v>
       </c>
       <c r="G62" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4422,13 +4431,13 @@
         <v>20</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4443,13 +4452,13 @@
         <v>21</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4464,13 +4473,13 @@
         <v>22</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4485,13 +4494,13 @@
         <v>23</v>
       </c>
       <c r="G66" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="I66" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4506,13 +4515,13 @@
         <v>24</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4527,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4548,13 +4557,13 @@
         <v>26</v>
       </c>
       <c r="G69" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="I69" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4569,13 +4578,13 @@
         <v>27</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4590,13 +4599,13 @@
         <v>28</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4611,13 +4620,13 @@
         <v>29</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4632,13 +4641,13 @@
         <v>30</v>
       </c>
       <c r="G73" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="I73" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4653,13 +4662,13 @@
         <v>5</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4674,13 +4683,13 @@
         <v>7</v>
       </c>
       <c r="G75" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I75" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4695,13 +4704,13 @@
         <v>9</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4716,13 +4725,13 @@
         <v>11</v>
       </c>
       <c r="G77" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="I77" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4737,13 +4746,13 @@
         <v>13</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4758,13 +4767,13 @@
         <v>15</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4779,13 +4788,13 @@
         <v>17</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4800,13 +4809,13 @@
         <v>19</v>
       </c>
       <c r="G81" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="I81" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4821,13 +4830,13 @@
         <v>21</v>
       </c>
       <c r="G82" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4842,13 +4851,13 @@
         <v>23</v>
       </c>
       <c r="G83" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4863,13 +4872,13 @@
         <v>25</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4884,13 +4893,13 @@
         <v>27</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4905,13 +4914,13 @@
         <v>29</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4926,13 +4935,13 @@
         <v>31</v>
       </c>
       <c r="G87" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4947,13 +4956,13 @@
         <v>33</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H88" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4968,13 +4977,13 @@
         <v>35</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4989,13 +4998,13 @@
         <v>37</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5010,13 +5019,13 @@
         <v>39</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5031,13 +5040,13 @@
         <v>41</v>
       </c>
       <c r="G92" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I92" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,13 +5061,13 @@
         <v>43</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H93" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I93" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5073,13 +5082,13 @@
         <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5094,13 +5103,13 @@
         <v>47</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5115,13 +5124,13 @@
         <v>49</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5136,13 +5145,13 @@
         <v>51</v>
       </c>
       <c r="G97" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="I97" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5157,13 +5166,13 @@
         <v>53</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H98" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I98" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5178,13 +5187,13 @@
         <v>55</v>
       </c>
       <c r="G99" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I99" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I99" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5199,13 +5208,13 @@
         <v>57</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5220,13 +5229,13 @@
         <v>59</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5244,10 +5253,10 @@
         <v>100</v>
       </c>
       <c r="H102" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I102" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5265,10 +5274,10 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5286,10 +5295,10 @@
         <v>700</v>
       </c>
       <c r="H104" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I104" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5307,10 +5316,10 @@
         <v>1500</v>
       </c>
       <c r="H105" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I105" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5328,10 +5337,10 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5349,10 +5358,10 @@
         <v>5000</v>
       </c>
       <c r="H107" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I107" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5370,10 +5379,10 @@
         <v>8000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5391,10 +5400,10 @@
         <v>13000</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5412,10 +5421,10 @@
         <v>20000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5433,10 +5442,10 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5454,10 +5463,10 @@
         <v>50000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5475,10 +5484,10 @@
         <v>75000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5496,36 +5505,36 @@
         <v>100000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="11">
-        <v>31001</v>
+      <c r="C115" s="10">
+        <v>30014</v>
       </c>
       <c r="D115" s="11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="12">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="11">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="D116" s="11">
         <v>31</v>
@@ -5538,15 +5547,15 @@
         <v>0</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="11">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="D117" s="11">
         <v>31</v>
@@ -5559,15 +5568,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="11">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="D118" s="11">
         <v>31</v>
@@ -5580,15 +5589,15 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="11">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="D119" s="11">
         <v>31</v>
@@ -5601,15 +5610,15 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="11">
-        <v>31006</v>
+        <v>31005</v>
       </c>
       <c r="D120" s="11">
         <v>31</v>
@@ -5622,15 +5631,15 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="11">
-        <v>31007</v>
+        <v>31006</v>
       </c>
       <c r="D121" s="11">
         <v>31</v>
@@ -5643,36 +5652,36 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="11">
-        <v>32001</v>
+        <v>31007</v>
       </c>
       <c r="D122" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11">
-        <v>1</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>179</v>
+        <v>0</v>
+      </c>
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="11">
-        <v>32002</v>
+        <v>32001</v>
       </c>
       <c r="D123" s="11">
         <v>32</v>
@@ -5682,18 +5691,18 @@
         <v>1</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="11">
-        <v>32003</v>
+        <v>32002</v>
       </c>
       <c r="D124" s="11">
         <v>32</v>
@@ -5703,18 +5712,18 @@
         <v>1</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H124" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I124" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="11">
-        <v>32004</v>
+        <v>32003</v>
       </c>
       <c r="D125" s="11">
         <v>32</v>
@@ -5724,18 +5733,18 @@
         <v>1</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="11">
-        <v>32005</v>
+        <v>32004</v>
       </c>
       <c r="D126" s="11">
         <v>32</v>
@@ -5745,18 +5754,18 @@
         <v>1</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="11">
-        <v>32006</v>
+        <v>32005</v>
       </c>
       <c r="D127" s="11">
         <v>32</v>
@@ -5766,18 +5775,18 @@
         <v>1</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="11">
-        <v>32007</v>
+        <v>32006</v>
       </c>
       <c r="D128" s="11">
         <v>32</v>
@@ -5787,18 +5796,18 @@
         <v>1</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="11">
-        <v>32008</v>
+        <v>32007</v>
       </c>
       <c r="D129" s="11">
         <v>32</v>
@@ -5808,353 +5817,374 @@
         <v>1</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="11">
-        <v>33001</v>
+        <v>32008</v>
       </c>
       <c r="D130" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E130" s="11"/>
-      <c r="F130" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
+      <c r="F130" s="11">
+        <v>1</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="I130" s="10" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="11">
-        <v>33002</v>
+        <v>33001</v>
       </c>
       <c r="D131" s="11">
         <v>33</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="11">
-        <v>33003</v>
+        <v>33002</v>
       </c>
       <c r="D132" s="11">
         <v>33</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="11">
-        <v>33004</v>
+        <v>33003</v>
       </c>
       <c r="D133" s="11">
         <v>33</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="11">
-        <v>33005</v>
+        <v>33004</v>
       </c>
       <c r="D134" s="11">
         <v>33</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="10" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="11">
-        <v>33006</v>
+        <v>33005</v>
       </c>
       <c r="D135" s="11">
         <v>33</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="11">
-        <v>33007</v>
+        <v>33006</v>
       </c>
       <c r="D136" s="11">
         <v>33</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="11">
-        <v>33008</v>
+        <v>33007</v>
       </c>
       <c r="D137" s="11">
         <v>33</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="11">
-        <v>33009</v>
+        <v>33008</v>
       </c>
       <c r="D138" s="11">
         <v>33</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="11">
-        <v>33010</v>
+        <v>33009</v>
       </c>
       <c r="D139" s="11">
         <v>33</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="11">
-        <v>33011</v>
+        <v>33010</v>
       </c>
       <c r="D140" s="11">
         <v>33</v>
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="11">
-        <v>33012</v>
+        <v>33011</v>
       </c>
       <c r="D141" s="11">
         <v>33</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="11">
-        <v>33013</v>
+        <v>33012</v>
       </c>
       <c r="D142" s="11">
         <v>33</v>
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="11">
-        <v>33014</v>
+        <v>33013</v>
       </c>
       <c r="D143" s="11">
         <v>33</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
       <c r="I143" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="11">
-        <v>33015</v>
+        <v>33014</v>
       </c>
       <c r="D144" s="11">
         <v>33</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="I144" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="11">
-        <v>33016</v>
+        <v>33015</v>
       </c>
       <c r="D145" s="11">
         <v>33</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="11">
-        <v>33017</v>
+        <v>33016</v>
       </c>
       <c r="D146" s="11">
         <v>33</v>
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="11">
-        <v>33018</v>
+        <v>33017</v>
       </c>
       <c r="D147" s="11">
         <v>33</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="11">
-        <v>33019</v>
+        <v>33018</v>
       </c>
       <c r="D148" s="11">
         <v>33</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="11">
-        <v>33020</v>
+        <v>33019</v>
       </c>
       <c r="D149" s="11">
         <v>33</v>
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="11">
+        <v>33020</v>
+      </c>
+      <c r="D150" s="11">
+        <v>33</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED734D1D-C805-4DBC-A659-40C5310D7BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D236E89-634E-4392-B577-C279805D22AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="242">
   <si>
     <t>Id</t>
   </si>
@@ -1078,11 +1078,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3;20000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10049101;1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>10000151;1@5;20@10010044;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级探险家奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;30000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10049101;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;20000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10000143;100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;25000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10000208;1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3091,10 +3103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I150"/>
+  <dimension ref="C1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F30" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4032,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>148</v>
@@ -4053,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>149</v>
@@ -4074,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>150</v>
@@ -4095,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>151</v>
@@ -4116,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>68</v>
@@ -4137,7 +4149,7 @@
         <v>6</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>152</v>
@@ -4158,7 +4170,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>153</v>
@@ -4179,7 +4191,7 @@
         <v>8</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>154</v>
@@ -4200,7 +4212,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>68</v>
@@ -4221,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>150</v>
@@ -4242,7 +4254,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>151</v>
@@ -4263,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>68</v>
@@ -4284,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>152</v>
@@ -4305,7 +4317,7 @@
         <v>14</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>153</v>
@@ -4326,7 +4338,7 @@
         <v>15</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>154</v>
@@ -4347,7 +4359,7 @@
         <v>16</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>68</v>
@@ -4368,7 +4380,7 @@
         <v>17</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>150</v>
@@ -4389,7 +4401,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>151</v>
@@ -4410,7 +4422,7 @@
         <v>19</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>68</v>
@@ -4431,7 +4443,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>152</v>
@@ -4452,7 +4464,7 @@
         <v>21</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>153</v>
@@ -4473,7 +4485,7 @@
         <v>22</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>154</v>
@@ -4494,7 +4506,7 @@
         <v>23</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>68</v>
@@ -4515,7 +4527,7 @@
         <v>24</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>150</v>
@@ -4536,7 +4548,7 @@
         <v>25</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>151</v>
@@ -4557,7 +4569,7 @@
         <v>26</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>68</v>
@@ -4578,7 +4590,7 @@
         <v>27</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>152</v>
@@ -4599,7 +4611,7 @@
         <v>28</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>153</v>
@@ -4620,7 +4632,7 @@
         <v>29</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>154</v>
@@ -4641,7 +4653,7 @@
         <v>30</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>68</v>
@@ -5523,60 +5535,60 @@
         <v>1</v>
       </c>
       <c r="G115" s="12">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="11">
-        <v>31001</v>
+      <c r="C116" s="10">
+        <v>30015</v>
       </c>
       <c r="D116" s="11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="12">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="11">
-        <v>31002</v>
+      <c r="C117" s="10">
+        <v>30016</v>
       </c>
       <c r="D117" s="11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="12">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="11">
-        <v>31003</v>
+        <v>31001</v>
       </c>
       <c r="D118" s="11">
         <v>31</v>
@@ -5589,15 +5601,15 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="11">
-        <v>31004</v>
+        <v>31002</v>
       </c>
       <c r="D119" s="11">
         <v>31</v>
@@ -5610,15 +5622,15 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="11">
-        <v>31005</v>
+        <v>31003</v>
       </c>
       <c r="D120" s="11">
         <v>31</v>
@@ -5631,15 +5643,15 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="11">
-        <v>31006</v>
+        <v>31004</v>
       </c>
       <c r="D121" s="11">
         <v>31</v>
@@ -5652,15 +5664,15 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="11">
-        <v>31007</v>
+        <v>31005</v>
       </c>
       <c r="D122" s="11">
         <v>31</v>
@@ -5673,57 +5685,57 @@
         <v>0</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="11">
-        <v>32001</v>
+        <v>31006</v>
       </c>
       <c r="D123" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11">
-        <v>1</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>178</v>
+        <v>0</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="11">
-        <v>32002</v>
+        <v>31007</v>
       </c>
       <c r="D124" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11">
-        <v>1</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H124" s="12" t="s">
-        <v>181</v>
+        <v>0</v>
+      </c>
+      <c r="G124" s="12">
+        <v>0</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="11">
-        <v>32003</v>
+        <v>32001</v>
       </c>
       <c r="D125" s="11">
         <v>32</v>
@@ -5733,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>170</v>
@@ -5744,7 +5756,7 @@
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="11">
-        <v>32004</v>
+        <v>32002</v>
       </c>
       <c r="D126" s="11">
         <v>32</v>
@@ -5754,10 +5766,10 @@
         <v>1</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>170</v>
@@ -5765,7 +5777,7 @@
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="11">
-        <v>32005</v>
+        <v>32003</v>
       </c>
       <c r="D127" s="11">
         <v>32</v>
@@ -5775,10 +5787,10 @@
         <v>1</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>170</v>
@@ -5786,7 +5798,7 @@
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="11">
-        <v>32006</v>
+        <v>32004</v>
       </c>
       <c r="D128" s="11">
         <v>32</v>
@@ -5796,10 +5808,10 @@
         <v>1</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>170</v>
@@ -5807,7 +5819,7 @@
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="11">
-        <v>32007</v>
+        <v>32005</v>
       </c>
       <c r="D129" s="11">
         <v>32</v>
@@ -5817,10 +5829,10 @@
         <v>1</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>170</v>
@@ -5828,7 +5840,7 @@
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="11">
-        <v>32008</v>
+        <v>32006</v>
       </c>
       <c r="D130" s="11">
         <v>32</v>
@@ -5838,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>179</v>
@@ -5849,341 +5861,383 @@
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="11">
-        <v>33001</v>
+        <v>32007</v>
       </c>
       <c r="D131" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E131" s="11"/>
-      <c r="F131" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
+      <c r="F131" s="11">
+        <v>1</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="I131" s="10" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="11">
-        <v>33002</v>
+        <v>32008</v>
       </c>
       <c r="D132" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E132" s="11"/>
-      <c r="F132" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
+      <c r="F132" s="11">
+        <v>1</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="I132" s="10" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="11">
-        <v>33003</v>
+        <v>33001</v>
       </c>
       <c r="D133" s="11">
         <v>33</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="11">
-        <v>33004</v>
+        <v>33002</v>
       </c>
       <c r="D134" s="11">
         <v>33</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="11">
-        <v>33005</v>
+        <v>33003</v>
       </c>
       <c r="D135" s="11">
         <v>33</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="10" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="11">
-        <v>33006</v>
+        <v>33004</v>
       </c>
       <c r="D136" s="11">
         <v>33</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="10" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="11">
-        <v>33007</v>
+        <v>33005</v>
       </c>
       <c r="D137" s="11">
         <v>33</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="11">
-        <v>33008</v>
+        <v>33006</v>
       </c>
       <c r="D138" s="11">
         <v>33</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="11">
-        <v>33009</v>
+        <v>33007</v>
       </c>
       <c r="D139" s="11">
         <v>33</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="11">
-        <v>33010</v>
+        <v>33008</v>
       </c>
       <c r="D140" s="11">
         <v>33</v>
       </c>
       <c r="E140" s="11"/>
       <c r="F140" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="11">
-        <v>33011</v>
+        <v>33009</v>
       </c>
       <c r="D141" s="11">
         <v>33</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="11">
-        <v>33012</v>
+        <v>33010</v>
       </c>
       <c r="D142" s="11">
         <v>33</v>
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="11">
-        <v>33013</v>
+        <v>33011</v>
       </c>
       <c r="D143" s="11">
         <v>33</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
       <c r="I143" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="11">
-        <v>33014</v>
+        <v>33012</v>
       </c>
       <c r="D144" s="11">
         <v>33</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="I144" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="11">
-        <v>33015</v>
+        <v>33013</v>
       </c>
       <c r="D145" s="11">
         <v>33</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="11">
-        <v>33016</v>
+        <v>33014</v>
       </c>
       <c r="D146" s="11">
         <v>33</v>
       </c>
       <c r="E146" s="11"/>
       <c r="F146" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="11">
-        <v>33017</v>
+        <v>33015</v>
       </c>
       <c r="D147" s="11">
         <v>33</v>
       </c>
       <c r="E147" s="11"/>
       <c r="F147" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="11">
-        <v>33018</v>
+        <v>33016</v>
       </c>
       <c r="D148" s="11">
         <v>33</v>
       </c>
       <c r="E148" s="11"/>
       <c r="F148" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="11">
-        <v>33019</v>
+        <v>33017</v>
       </c>
       <c r="D149" s="11">
         <v>33</v>
       </c>
       <c r="E149" s="11"/>
       <c r="F149" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="11">
-        <v>33020</v>
+        <v>33018</v>
       </c>
       <c r="D150" s="11">
         <v>33</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="I150" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="11">
+        <v>33019</v>
+      </c>
+      <c r="D151" s="11">
+        <v>33</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="11">
+        <v>33020</v>
+      </c>
+      <c r="D152" s="11">
+        <v>33</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="10" t="s">
         <v>215</v>
       </c>
     </row>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB7119-2C9E-4265-AE1B-51BFF19394A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -27,6 +33,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,6 +43,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -47,6 +55,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.签到活动</t>
@@ -56,6 +65,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,6 +76,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示随机权重值
@@ -76,6 +87,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示奖励内容
@@ -87,6 +99,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>2.每日特惠</t>
@@ -96,6 +109,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,6 +120,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示等级区间
@@ -116,6 +131,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,2表示钻石),购买价格
@@ -126,6 +142,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_3表示购买道具列表
@@ -136,6 +153,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_4表示奖励内容
@@ -147,6 +165,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3.等级礼包
@@ -157,6 +176,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示购买等级
@@ -167,6 +187,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,3表示钻石),购买价格
@@ -177,6 +198,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_3表示购买道具列表
@@ -187,6 +209,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_4表示奖励内容
@@ -197,6 +220,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">21 战区等级
@@ -207,6 +231,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">22 战区战力
@@ -217,6 +242,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">23 签到    par_1天数 par_2充值奖励 par_3奖励
@@ -227,6 +253,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">24 令牌
@@ -237,6 +264,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">31 登录奖励
@@ -247,6 +275,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">32 新年活动
@@ -257,6 +286,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">33 节日活动
@@ -267,6 +297,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>101 冒险家</t>
@@ -278,15 +309,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="239">
   <si>
     <t>Id</t>
   </si>
@@ -389,6 +420,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3;9</t>
@@ -398,6 +430,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>80</t>
@@ -409,6 +442,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10021010;500@10021008;10</t>
@@ -418,6 +452,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10021009;</t>
@@ -427,6 +462,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -444,6 +480,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10022010;500@10022008;10</t>
@@ -453,6 +490,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10022009;</t>
@@ -462,6 +500,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -476,6 +515,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10023010;500@10023008;10</t>
@@ -485,6 +525,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10023009;</t>
@@ -494,6 +535,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -508,6 +550,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10024010;500@10024008;10</t>
@@ -517,6 +560,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10024009;</t>
@@ -526,6 +570,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -540,6 +585,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10025010;500@10025008;10</t>
@@ -549,6 +595,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10025009;</t>
@@ -558,6 +605,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -879,15 +927,9 @@
     <t>5级探险家奖励</t>
   </si>
   <si>
-    <t>3;2000@10010041;15@10010083;45@10000136;10@10000143;10@10000133;1</t>
-  </si>
-  <si>
     <t>6级探险家奖励</t>
   </si>
   <si>
-    <t>10000205;1@10010041;15@10010083;50@10000137;3@10000104;5@10000134;1</t>
-  </si>
-  <si>
     <t>7级探险家奖励</t>
   </si>
   <si>
@@ -915,33 +957,18 @@
     <t>11级探险家奖励</t>
   </si>
   <si>
-    <t>3;10000@10010041;20@10010083;80@10000136;30@10000143;20@10010026;1@10011015;1</t>
-  </si>
-  <si>
     <t>12级探险家奖励</t>
   </si>
   <si>
-    <t>3;12500@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10049101;1</t>
-  </si>
-  <si>
     <t>13级探险家奖励</t>
   </si>
   <si>
-    <t>3;20000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10000143;100</t>
-  </si>
-  <si>
     <t>14级探险家奖励</t>
   </si>
   <si>
-    <t>3;25000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10000208;1</t>
-  </si>
-  <si>
     <t>15级探险家奖励</t>
   </si>
   <si>
-    <t>3;30000@10010041;20@10010083;100@10000136;30@10000143;20@10010026;1@10049101;1</t>
-  </si>
-  <si>
     <t>10010042;1@10010099;1</t>
   </si>
   <si>
@@ -1147,19 +1174,44 @@
   </si>
   <si>
     <t>圣诞节</t>
+  </si>
+  <si>
+    <t>3;10000@10010041;20@10010083;80@10000136;20@10000143;20@10010026;1@10011015;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;12500@10010041;20@10010083;100@10000136;20@10000143;20@10010026;1@10049101;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;20000@10010041;20@10010083;100@10000136;20@10000143;20@10010026;1@10032006;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;25000@10010041;20@10010083;100@10000136;20@10000143;20@10010026;1@10000208;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16级探险家奖励</t>
+  </si>
+  <si>
+    <t>3;2000@10010041;15@10010083;45@10000136;10@10000143;10@10000133;1@10032003,1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000205;1@10010041;15@10000136;10@10010083;50@10000137;3@10000104;5@10000134;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;30000@10010041;20@10010083;100@10000136;20@10000143;20@10032015;1@10049101;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,12 +1223,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1184,6 +1238,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1191,161 +1246,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1360,13 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149876400036622"/>
+        <fgColor theme="0" tint="-0.1498458815271462"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,264 +1319,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1732,7 +1487,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399914548173467"/>
+        <color theme="4" tint="0.39988402966399123"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,1019 +1506,792 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2910,7 +2438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2931,9 +2459,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2952,380 +2477,332 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="313">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="20" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="19"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="21" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="22"/>
-    <cellStyle name="标题 4" xfId="23" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="24" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="26"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="29"/>
-    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="31"/>
-    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="33" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="34"/>
-    <cellStyle name="标题 3" xfId="35" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="36"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="39" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="40"/>
-    <cellStyle name="输出" xfId="41" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="42"/>
-    <cellStyle name="计算" xfId="43" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="44"/>
-    <cellStyle name="检查单元格" xfId="45" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="50"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
-    <cellStyle name="汇总" xfId="53" builtinId="25"/>
-    <cellStyle name="好" xfId="54" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="58"/>
-    <cellStyle name="适中" xfId="59" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="61" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="62"/>
-    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="64"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="70" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="72" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="73" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="74" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="80"/>
-    <cellStyle name="强调文字颜色 5" xfId="81" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="89" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="90" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 5" xfId="93"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="95"/>
-    <cellStyle name="常规 2 3 2 6" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
-    <cellStyle name="常规 2 3 2 7" xfId="99"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="101"/>
-    <cellStyle name="常规 2 3 3 3" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
-    <cellStyle name="常规 2 3 3 4" xfId="104"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="106"/>
-    <cellStyle name="常规 2 3 4 3" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="124"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="148"/>
-    <cellStyle name="常规 3" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="159"/>
-    <cellStyle name="常规 4" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="163"/>
-    <cellStyle name="常规 5" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
-    <cellStyle name="注释 2" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="174"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="177"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="206"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="215"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="221"/>
-    <cellStyle name="常规 5 7" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="225"/>
-    <cellStyle name="注释 2 2 3 2" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="244"/>
-    <cellStyle name="注释 2 5 2" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="248"/>
-    <cellStyle name="常规 2 3 2 2" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="254"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="264"/>
-    <cellStyle name="常规 2 3 3 5" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="267"/>
-    <cellStyle name="常规 2 3 3 6" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="293"/>
-    <cellStyle name="注释 2 2" xfId="294"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="297"/>
-    <cellStyle name="常规 5 6" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="311"/>
-    <cellStyle name="常规 2" xfId="312"/>
-    <cellStyle name="常规 2 2" xfId="313"/>
-    <cellStyle name="常规 2 3" xfId="314"/>
-    <cellStyle name="常规 2 3 2" xfId="315"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="320"/>
-    <cellStyle name="注释 2 3 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="323"/>
-    <cellStyle name="常规 2 3 3" xfId="324"/>
-    <cellStyle name="常规 2 3 3 2" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="327"/>
-    <cellStyle name="注释 2 5" xfId="328"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
-    <cellStyle name="常规 2 3 4" xfId="330"/>
-    <cellStyle name="常规 2 3 4 2" xfId="331"/>
-    <cellStyle name="常规 2 3 5" xfId="332"/>
-    <cellStyle name="常规 2 3 5 2" xfId="333"/>
-    <cellStyle name="常规 5 2 2 2" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
-    <cellStyle name="常规 2 3 6 2" xfId="336"/>
-    <cellStyle name="常规 5 2 2 3" xfId="337"/>
-    <cellStyle name="常规 2 3 7" xfId="338"/>
-    <cellStyle name="常规 2 3 8" xfId="339"/>
-    <cellStyle name="常规 5 2 3 2" xfId="340"/>
-    <cellStyle name="常规 5 2 4 2" xfId="341"/>
-    <cellStyle name="常规 5 3" xfId="342"/>
-    <cellStyle name="常规 5 3 2" xfId="343"/>
-    <cellStyle name="常规 5 3 3" xfId="344"/>
-    <cellStyle name="常规 5 4" xfId="345"/>
-    <cellStyle name="常规 5 4 2" xfId="346"/>
-    <cellStyle name="常规 5 5" xfId="347"/>
-    <cellStyle name="常规 5 5 2" xfId="348"/>
-    <cellStyle name="注释 2 2 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 3" xfId="351"/>
-    <cellStyle name="注释 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 4" xfId="353"/>
-    <cellStyle name="注释 2 2 4 2" xfId="354"/>
-    <cellStyle name="注释 2 2 5" xfId="355"/>
-    <cellStyle name="注释 2 2 6" xfId="356"/>
-    <cellStyle name="注释 2 4" xfId="357"/>
-    <cellStyle name="注释 2 4 2" xfId="358"/>
-    <cellStyle name="注释 2 6" xfId="359"/>
-    <cellStyle name="注释 2 7" xfId="360"/>
+    <cellStyle name="常规 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 3" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="常规 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 5" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 5 7" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="注释 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="注释 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 5" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -3345,11 +2822,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3377,19 +2862,19 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="活动类型"/>
-    <tableColumn id="3" name="Icon显示"/>
-    <tableColumn id="4" name="参数_1"/>
-    <tableColumn id="5" name="参数_2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="活动类型"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon显示"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="参数_1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参数_2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3674,19 +3159,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
@@ -3695,8 +3180,8 @@
     <col min="9" max="9" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25"/>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="1" spans="3:9" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="5" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3765,7 +3250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>2001</v>
       </c>
@@ -3778,17 +3263,17 @@
       <c r="F6" s="7">
         <v>1999</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>2002</v>
       </c>
@@ -3801,17 +3286,17 @@
       <c r="F7" s="7">
         <v>1999</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>2003</v>
       </c>
@@ -3824,17 +3309,17 @@
       <c r="F8" s="7">
         <v>1999</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>2004</v>
       </c>
@@ -3847,17 +3332,17 @@
       <c r="F9" s="7">
         <v>1999</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>2005</v>
       </c>
@@ -3870,17 +3355,17 @@
       <c r="F10" s="7">
         <v>1999</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>2006</v>
       </c>
@@ -3893,17 +3378,17 @@
       <c r="F11" s="7">
         <v>1999</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>2007</v>
       </c>
@@ -3913,20 +3398,20 @@
       <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>2008</v>
       </c>
@@ -3936,20 +3421,20 @@
       <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>2009</v>
       </c>
@@ -3959,20 +3444,20 @@
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>2010</v>
       </c>
@@ -3982,20 +3467,20 @@
       <c r="E15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>2011</v>
       </c>
@@ -4005,20 +3490,20 @@
       <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="17" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>2012</v>
       </c>
@@ -4028,20 +3513,20 @@
       <c r="E17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>2013</v>
       </c>
@@ -4051,20 +3536,20 @@
       <c r="E18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>2014</v>
       </c>
@@ -4074,20 +3559,20 @@
       <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="20" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>2015</v>
       </c>
@@ -4097,20 +3582,20 @@
       <c r="E20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>2016</v>
       </c>
@@ -4120,20 +3605,20 @@
       <c r="E21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="22" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>2017</v>
       </c>
@@ -4143,20 +3628,20 @@
       <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>2018</v>
       </c>
@@ -4166,20 +3651,20 @@
       <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>2019</v>
       </c>
@@ -4189,20 +3674,20 @@
       <c r="E24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="25" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>2020</v>
       </c>
@@ -4212,2619 +3697,2619 @@
       <c r="E25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C26" s="10">
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="9">
         <v>10001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>3</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
         <v>5</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I26" s="9" t="str">
         <f>F26&amp;"级礼包"</f>
         <v>5级礼包</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C27" s="10">
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="9">
         <v>10002</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
         <v>10</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="9" t="str">
         <f t="shared" ref="I27:I31" si="0">F27&amp;"级礼包"</f>
         <v>10级礼包</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C28" s="10">
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="9">
         <v>10003</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
         <v>15</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>15级礼包</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C29" s="10">
+    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="9">
         <v>10004</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>3</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
         <v>20</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="10" t="str">
+      <c r="I29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>20级礼包</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C30" s="10">
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="9">
         <v>10005</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>3</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
         <v>25</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="10" t="str">
+      <c r="I30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>25级礼包</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C31" s="10">
+    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="9">
         <v>10006</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>3</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
         <v>30</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="10" t="str">
+      <c r="I31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>30级礼包</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C32" s="10">
+    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="9">
         <v>21001</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>21</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
         <v>15</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>100</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C33" s="10">
+    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="9">
         <v>21002</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>21</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
         <v>20</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>50</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C34" s="10">
+    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="9">
         <v>21003</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>21</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
         <v>25</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>30</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C35" s="10">
+    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="9">
         <v>21004</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>21</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
         <v>30</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>20</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C36" s="10">
+    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="9">
         <v>21005</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>21</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9">
         <v>35</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>10</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C37" s="10">
+    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="9">
         <v>21006</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>21</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
         <v>40</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>5</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C38" s="10">
+    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="9">
         <v>22001</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>22</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
         <v>8000</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>100</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C39" s="10">
+    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="9">
         <v>22002</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>22</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
         <v>12000</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>50</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C40" s="10">
+    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="9">
         <v>22003</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>22</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9">
         <v>16000</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>30</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C41" s="10">
+    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="9">
         <v>22004</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>22</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10">
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
         <v>20000</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>20</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C42" s="10">
+    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="9">
         <v>22005</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>22</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9">
         <v>25000</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>10</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C43" s="10">
+    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="9">
         <v>22006</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>22</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
         <v>30000</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>5</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C44" s="10">
+    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="9">
         <v>23001</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>23</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
         <v>1</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C45" s="10">
+    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="9">
         <v>23002</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>23</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
         <v>2</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C46" s="10">
+    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="9">
         <v>23003</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>23</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9">
         <v>3</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C47" s="10">
+    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="9">
         <v>23004</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>23</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
         <v>4</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C48" s="10">
+    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="9">
         <v>23005</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>23</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10">
+      <c r="E48" s="9"/>
+      <c r="F48" s="9">
         <v>5</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C49" s="10">
+    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="9">
         <v>23006</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>23</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
         <v>6</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C50" s="10">
+    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="9">
         <v>23007</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>23</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9">
         <v>7</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C51" s="10">
+    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="9">
         <v>23008</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>23</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9">
         <v>8</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C52" s="10">
+    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="9">
         <v>23009</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>23</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9">
         <v>9</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C53" s="10">
+    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="9">
         <v>23010</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>23</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10">
+      <c r="E53" s="9"/>
+      <c r="F53" s="9">
         <v>10</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C54" s="10">
+    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="9">
         <v>23011</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>23</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9">
         <v>11</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C55" s="10">
+    <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="9">
         <v>23012</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>23</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9">
         <v>12</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C56" s="10">
+    <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="9">
         <v>23013</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>23</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10">
+      <c r="E56" s="9"/>
+      <c r="F56" s="9">
         <v>13</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C57" s="10">
+    <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="9">
         <v>23014</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>23</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9">
         <v>14</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C58" s="10">
+    <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="9">
         <v>23015</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>23</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9">
         <v>15</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C59" s="10">
+    <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="9">
         <v>23016</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>23</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9">
         <v>16</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C60" s="10">
+    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="9">
         <v>23017</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>23</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10">
+      <c r="E60" s="9"/>
+      <c r="F60" s="9">
         <v>17</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C61" s="10">
+    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="9">
         <v>23018</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>23</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9">
         <v>18</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C62" s="10">
+    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="9">
         <v>23019</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>23</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10">
+      <c r="E62" s="9"/>
+      <c r="F62" s="9">
         <v>19</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C63" s="10">
+    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="9">
         <v>23020</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>23</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9">
         <v>20</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C64" s="10">
+    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="9">
         <v>23021</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>23</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9">
         <v>21</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C65" s="10">
+    <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="9">
         <v>23022</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>23</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10">
+      <c r="E65" s="9"/>
+      <c r="F65" s="9">
         <v>22</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C66" s="10">
+    <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="9">
         <v>23023</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>23</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10">
+      <c r="E66" s="9"/>
+      <c r="F66" s="9">
         <v>23</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C67" s="10">
+    <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="9">
         <v>23024</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>23</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9">
         <v>24</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C68" s="10">
+    <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="9">
         <v>23025</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>23</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10">
+      <c r="E68" s="9"/>
+      <c r="F68" s="9">
         <v>25</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C69" s="10">
+    <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="9">
         <v>23026</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>23</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9">
         <v>26</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C70" s="10">
+    <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="9">
         <v>23027</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>23</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9">
         <v>27</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C71" s="10">
+    <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="9">
         <v>23028</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>23</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9">
         <v>28</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C72" s="10">
+    <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="9">
         <v>23029</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>23</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10">
+      <c r="E72" s="9"/>
+      <c r="F72" s="9">
         <v>29</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C73" s="10">
+    <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="9">
         <v>23030</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>23</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10">
+      <c r="E73" s="9"/>
+      <c r="F73" s="9">
         <v>30</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C74" s="10">
+    <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="9">
         <v>24001</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>24</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11">
+      <c r="E74" s="11"/>
+      <c r="F74" s="10">
         <v>5</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C75" s="10">
+    <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="9">
         <v>24002</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>24</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="11">
+      <c r="E75" s="11"/>
+      <c r="F75" s="10">
         <v>7</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C76" s="10">
+    <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="9">
         <v>24003</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>24</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="11">
+      <c r="E76" s="11"/>
+      <c r="F76" s="10">
         <v>9</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C77" s="10">
+    <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="9">
         <v>24004</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>24</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="11">
+      <c r="E77" s="11"/>
+      <c r="F77" s="10">
         <v>11</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H77" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C78" s="10">
+    <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="9">
         <v>24005</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>24</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="11">
+      <c r="E78" s="11"/>
+      <c r="F78" s="10">
         <v>13</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C79" s="10">
+    <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="9">
         <v>24006</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>24</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="11">
+      <c r="E79" s="11"/>
+      <c r="F79" s="10">
         <v>15</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C80" s="10">
+    <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="9">
         <v>24007</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>24</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="11">
+      <c r="E80" s="11"/>
+      <c r="F80" s="10">
         <v>17</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C81" s="10">
+    <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="9">
         <v>24008</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>24</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="11">
+      <c r="E81" s="11"/>
+      <c r="F81" s="10">
         <v>19</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C82" s="10">
+    <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="9">
         <v>24009</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>24</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="11">
+      <c r="E82" s="11"/>
+      <c r="F82" s="10">
         <v>21</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C83" s="10">
+    <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="9">
         <v>24010</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>24</v>
       </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="11">
+      <c r="E83" s="11"/>
+      <c r="F83" s="10">
         <v>23</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C84" s="10">
+    <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="9">
         <v>24011</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>24</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="11">
+      <c r="E84" s="11"/>
+      <c r="F84" s="10">
         <v>25</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C85" s="10">
+    <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="9">
         <v>24012</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>24</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11">
+      <c r="E85" s="11"/>
+      <c r="F85" s="10">
         <v>27</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C86" s="10">
+    <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="9">
         <v>24013</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>24</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11">
+      <c r="E86" s="11"/>
+      <c r="F86" s="10">
         <v>29</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C87" s="10">
+    <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="9">
         <v>24014</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>24</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="11">
+      <c r="E87" s="11"/>
+      <c r="F87" s="10">
         <v>31</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C88" s="10">
+    <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="9">
         <v>24015</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>24</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="11">
+      <c r="E88" s="11"/>
+      <c r="F88" s="10">
         <v>33</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C89" s="10">
+    <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="9">
         <v>24016</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>24</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="11">
+      <c r="E89" s="11"/>
+      <c r="F89" s="10">
         <v>35</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C90" s="10">
+    <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="9">
         <v>24017</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>24</v>
       </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="11">
+      <c r="E90" s="11"/>
+      <c r="F90" s="10">
         <v>37</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C91" s="10">
+    <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="9">
         <v>24018</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>24</v>
       </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="11">
+      <c r="E91" s="11"/>
+      <c r="F91" s="10">
         <v>39</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C92" s="10">
+    <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="9">
         <v>24019</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>24</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="11">
+      <c r="E92" s="11"/>
+      <c r="F92" s="10">
         <v>41</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C93" s="10">
+    <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="9">
         <v>24020</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>24</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="11">
+      <c r="E93" s="11"/>
+      <c r="F93" s="10">
         <v>43</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C94" s="10">
+    <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="9">
         <v>24021</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>24</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="11">
+      <c r="E94" s="11"/>
+      <c r="F94" s="10">
         <v>45</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C95" s="10">
+    <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="9">
         <v>24022</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>24</v>
       </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="11">
+      <c r="E95" s="11"/>
+      <c r="F95" s="10">
         <v>47</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C96" s="10">
+    <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="9">
         <v>24023</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>24</v>
       </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="11">
+      <c r="E96" s="11"/>
+      <c r="F96" s="10">
         <v>49</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C97" s="10">
+    <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="9">
         <v>24024</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>24</v>
       </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="11">
+      <c r="E97" s="11"/>
+      <c r="F97" s="10">
         <v>51</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C98" s="10">
+    <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="9">
         <v>24025</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>24</v>
       </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="11">
+      <c r="E98" s="11"/>
+      <c r="F98" s="10">
         <v>53</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C99" s="10">
+    <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="9">
         <v>24026</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>24</v>
       </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="11">
+      <c r="E99" s="11"/>
+      <c r="F99" s="10">
         <v>55</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C100" s="10">
+    <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="9">
         <v>24027</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>24</v>
       </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="11">
+      <c r="E100" s="11"/>
+      <c r="F100" s="10">
         <v>57</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C101" s="10">
+    <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="9">
         <v>24028</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>24</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="11">
+      <c r="E101" s="11"/>
+      <c r="F101" s="10">
         <v>59</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H101" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C102" s="10">
+    <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="9">
         <v>30001</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="12">
         <v>101</v>
       </c>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13">
+      <c r="E102" s="12"/>
+      <c r="F102" s="12">
         <v>1</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="11">
         <v>100</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I102" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C103" s="10">
+    <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="9">
         <v>30002</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="12">
         <v>101</v>
       </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13">
+      <c r="E103" s="12"/>
+      <c r="F103" s="12">
         <v>1</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="11">
         <v>300</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C104" s="10">
+    <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="9">
         <v>30003</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="12">
         <v>101</v>
       </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13">
+      <c r="E104" s="12"/>
+      <c r="F104" s="12">
         <v>1</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="11">
         <v>700</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C105" s="10">
+    <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="9">
         <v>30004</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="12">
         <v>101</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13">
+      <c r="E105" s="12"/>
+      <c r="F105" s="12">
         <v>1</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="11">
         <v>1500</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C106" s="10">
+    <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="9">
         <v>30005</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="12">
         <v>101</v>
       </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13">
+      <c r="E106" s="12"/>
+      <c r="F106" s="12">
         <v>1</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="11">
         <v>3000</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C107" s="10">
+    <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="9">
         <v>30006</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="12">
         <v>101</v>
       </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13">
+      <c r="E107" s="12"/>
+      <c r="F107" s="12">
         <v>1</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="11">
         <v>5000</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I107" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I107" s="10" t="s">
+    </row>
+    <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="9">
+        <v>30007</v>
+      </c>
+      <c r="D108" s="12">
+        <v>101</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12">
+        <v>1</v>
+      </c>
+      <c r="G108" s="11">
+        <v>8000</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I108" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C108" s="10">
-        <v>30007</v>
-      </c>
-      <c r="D108" s="13">
+    <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="9">
+        <v>30008</v>
+      </c>
+      <c r="D109" s="12">
         <v>101</v>
       </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13">
+      <c r="E109" s="12"/>
+      <c r="F109" s="12">
         <v>1</v>
       </c>
-      <c r="G108" s="12">
-        <v>8000</v>
-      </c>
-      <c r="H108" s="14" t="s">
+      <c r="G109" s="11">
+        <v>13000</v>
+      </c>
+      <c r="H109" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I109" s="9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C109" s="10">
-        <v>30008</v>
-      </c>
-      <c r="D109" s="13">
+    <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="9">
+        <v>30009</v>
+      </c>
+      <c r="D110" s="12">
         <v>101</v>
       </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13">
+      <c r="E110" s="12"/>
+      <c r="F110" s="12">
         <v>1</v>
       </c>
-      <c r="G109" s="12">
-        <v>13000</v>
-      </c>
-      <c r="H109" s="14" t="s">
+      <c r="G110" s="11">
+        <v>20000</v>
+      </c>
+      <c r="H110" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I109" s="10" t="s">
+      <c r="I110" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C110" s="10">
-        <v>30009</v>
-      </c>
-      <c r="D110" s="13">
+    <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="9">
+        <v>30010</v>
+      </c>
+      <c r="D111" s="12">
         <v>101</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13">
+      <c r="E111" s="12"/>
+      <c r="F111" s="12">
         <v>1</v>
       </c>
-      <c r="G110" s="12">
-        <v>20000</v>
-      </c>
-      <c r="H110" s="14" t="s">
+      <c r="G111" s="11">
+        <v>30000</v>
+      </c>
+      <c r="H111" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="I111" s="9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C111" s="10">
-        <v>30010</v>
-      </c>
-      <c r="D111" s="13">
+    <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="9">
+        <v>30011</v>
+      </c>
+      <c r="D112" s="12">
         <v>101</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13">
+      <c r="E112" s="12"/>
+      <c r="F112" s="12">
         <v>1</v>
       </c>
-      <c r="G111" s="12">
-        <v>30000</v>
-      </c>
-      <c r="H111" s="14" t="s">
+      <c r="G112" s="11">
+        <v>50000</v>
+      </c>
+      <c r="H112" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I112" s="9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C112" s="10">
-        <v>30011</v>
-      </c>
-      <c r="D112" s="13">
+    <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="9">
+        <v>30012</v>
+      </c>
+      <c r="D113" s="12">
         <v>101</v>
       </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13">
+      <c r="E113" s="12"/>
+      <c r="F113" s="12">
         <v>1</v>
       </c>
-      <c r="G112" s="12">
-        <v>50000</v>
-      </c>
-      <c r="H112" s="14" t="s">
+      <c r="G113" s="11">
+        <v>75000</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="I113" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I112" s="10" t="s">
+    </row>
+    <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="9">
+        <v>30013</v>
+      </c>
+      <c r="D114" s="12">
+        <v>101</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12">
+        <v>1</v>
+      </c>
+      <c r="G114" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I114" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C113" s="10">
-        <v>30012</v>
-      </c>
-      <c r="D113" s="13">
+    <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="9">
+        <v>30014</v>
+      </c>
+      <c r="D115" s="12">
         <v>101</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13">
+      <c r="E115" s="12"/>
+      <c r="F115" s="12">
         <v>1</v>
       </c>
-      <c r="G113" s="12">
-        <v>75000</v>
-      </c>
-      <c r="H113" s="14" t="s">
+      <c r="G115" s="11">
+        <v>150000</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I115" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I113" s="10" t="s">
+    </row>
+    <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="9">
+        <v>30015</v>
+      </c>
+      <c r="D116" s="12">
+        <v>101</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12">
+        <v>1</v>
+      </c>
+      <c r="G116" s="11">
+        <v>200000</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I116" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C114" s="10">
-        <v>30013</v>
-      </c>
-      <c r="D114" s="13">
+    <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="9">
+        <v>30016</v>
+      </c>
+      <c r="D117" s="12">
         <v>101</v>
       </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13">
+      <c r="E117" s="12"/>
+      <c r="F117" s="12">
         <v>1</v>
       </c>
-      <c r="G114" s="12">
-        <v>100000</v>
-      </c>
-      <c r="H114" s="14" t="s">
+      <c r="G117" s="11">
+        <v>300000</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="12">
+        <v>31001</v>
+      </c>
+      <c r="D118" s="12">
+        <v>31</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11">
+        <v>0</v>
+      </c>
+      <c r="H118" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I118" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C115" s="10">
-        <v>30014</v>
-      </c>
-      <c r="D115" s="13">
-        <v>101</v>
-      </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13">
+    <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="12">
+        <v>31002</v>
+      </c>
+      <c r="D119" s="12">
+        <v>31</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11">
+        <v>0</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="12">
+        <v>31003</v>
+      </c>
+      <c r="D120" s="12">
+        <v>31</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12">
+        <v>0</v>
+      </c>
+      <c r="G120" s="11">
+        <v>0</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="12">
+        <v>31004</v>
+      </c>
+      <c r="D121" s="12">
+        <v>31</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12">
+        <v>0</v>
+      </c>
+      <c r="G121" s="11">
+        <v>0</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="12">
+        <v>31005</v>
+      </c>
+      <c r="D122" s="12">
+        <v>31</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12">
+        <v>0</v>
+      </c>
+      <c r="G122" s="11">
+        <v>0</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="12">
+        <v>31006</v>
+      </c>
+      <c r="D123" s="12">
+        <v>31</v>
+      </c>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12">
+        <v>0</v>
+      </c>
+      <c r="G123" s="11">
+        <v>0</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="12">
+        <v>31007</v>
+      </c>
+      <c r="D124" s="12">
+        <v>31</v>
+      </c>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12">
+        <v>0</v>
+      </c>
+      <c r="G124" s="11">
+        <v>0</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="12">
+        <v>32001</v>
+      </c>
+      <c r="D125" s="12">
+        <v>32</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12">
         <v>1</v>
       </c>
-      <c r="G115" s="12">
-        <v>150000</v>
-      </c>
-      <c r="H115" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C116" s="10">
-        <v>30015</v>
-      </c>
-      <c r="D116" s="13">
-        <v>101</v>
-      </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13">
+      <c r="G125" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="12">
+        <v>32002</v>
+      </c>
+      <c r="D126" s="12">
+        <v>32</v>
+      </c>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12">
         <v>1</v>
       </c>
-      <c r="G116" s="12">
-        <v>200000</v>
-      </c>
-      <c r="H116" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C117" s="10">
-        <v>30016</v>
-      </c>
-      <c r="D117" s="13">
-        <v>101</v>
-      </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13">
+      <c r="G126" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="12">
+        <v>32003</v>
+      </c>
+      <c r="D127" s="12">
+        <v>32</v>
+      </c>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12">
         <v>1</v>
       </c>
-      <c r="G117" s="12">
-        <v>300000</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C118" s="13">
-        <v>31001</v>
-      </c>
-      <c r="D118" s="13">
-        <v>31</v>
-      </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13">
-        <v>0</v>
-      </c>
-      <c r="G118" s="12">
-        <v>0</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C119" s="13">
-        <v>31002</v>
-      </c>
-      <c r="D119" s="13">
-        <v>31</v>
-      </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13">
-        <v>0</v>
-      </c>
-      <c r="G119" s="12">
-        <v>0</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C120" s="13">
-        <v>31003</v>
-      </c>
-      <c r="D120" s="13">
-        <v>31</v>
-      </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13">
-        <v>0</v>
-      </c>
-      <c r="G120" s="12">
-        <v>0</v>
-      </c>
-      <c r="H120" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C121" s="13">
-        <v>31004</v>
-      </c>
-      <c r="D121" s="13">
-        <v>31</v>
-      </c>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13">
-        <v>0</v>
-      </c>
-      <c r="G121" s="12">
-        <v>0</v>
-      </c>
-      <c r="H121" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C122" s="13">
-        <v>31005</v>
-      </c>
-      <c r="D122" s="13">
-        <v>31</v>
-      </c>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13">
-        <v>0</v>
-      </c>
-      <c r="G122" s="12">
-        <v>0</v>
-      </c>
-      <c r="H122" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I122" s="10" t="s">
+      <c r="G127" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="I127" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C123" s="13">
-        <v>31006</v>
-      </c>
-      <c r="D123" s="13">
-        <v>31</v>
-      </c>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13">
-        <v>0</v>
-      </c>
-      <c r="G123" s="12">
-        <v>0</v>
-      </c>
-      <c r="H123" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C124" s="13">
-        <v>31007</v>
-      </c>
-      <c r="D124" s="13">
-        <v>31</v>
-      </c>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13">
-        <v>0</v>
-      </c>
-      <c r="G124" s="12">
-        <v>0</v>
-      </c>
-      <c r="H124" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I124" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C125" s="13">
-        <v>32001</v>
-      </c>
-      <c r="D125" s="13">
+    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="12">
+        <v>32004</v>
+      </c>
+      <c r="D128" s="12">
         <v>32</v>
       </c>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12">
         <v>1</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G128" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H125" s="12" t="s">
+      <c r="H128" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I125" s="10" t="s">
+      <c r="I128" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="12">
+        <v>32005</v>
+      </c>
+      <c r="D129" s="12">
+        <v>32</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12">
+        <v>1</v>
+      </c>
+      <c r="G129" s="11" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C126" s="13">
-        <v>32002</v>
-      </c>
-      <c r="D126" s="13">
+      <c r="H129" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="12">
+        <v>32006</v>
+      </c>
+      <c r="D130" s="12">
         <v>32</v>
       </c>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13">
+      <c r="E130" s="12"/>
+      <c r="F130" s="12">
         <v>1</v>
       </c>
-      <c r="G126" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H126" s="12" t="s">
+      <c r="G130" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I126" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C127" s="13">
-        <v>32003</v>
-      </c>
-      <c r="D127" s="13">
+      <c r="H130" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="12">
+        <v>32007</v>
+      </c>
+      <c r="D131" s="12">
         <v>32</v>
       </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13">
+      <c r="E131" s="12"/>
+      <c r="F131" s="12">
         <v>1</v>
       </c>
-      <c r="G127" s="12" t="s">
+      <c r="G131" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H131" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H127" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C128" s="13">
-        <v>32004</v>
-      </c>
-      <c r="D128" s="13">
+      <c r="I131" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="12">
+        <v>32008</v>
+      </c>
+      <c r="D132" s="12">
         <v>32</v>
       </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13">
+      <c r="E132" s="12"/>
+      <c r="F132" s="12">
         <v>1</v>
       </c>
-      <c r="G128" s="12" t="s">
+      <c r="G132" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H128" s="12" t="s">
+      <c r="H132" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="12">
+        <v>33001</v>
+      </c>
+      <c r="D133" s="12">
+        <v>33</v>
+      </c>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I128" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C129" s="13">
-        <v>32005</v>
-      </c>
-      <c r="D129" s="13">
-        <v>32</v>
-      </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13">
-        <v>1</v>
-      </c>
-      <c r="G129" s="12" t="s">
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H129" s="12" t="s">
+    </row>
+    <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="12">
+        <v>33002</v>
+      </c>
+      <c r="D134" s="12">
+        <v>33</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I129" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C130" s="13">
-        <v>32006</v>
-      </c>
-      <c r="D130" s="13">
-        <v>32</v>
-      </c>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13">
-        <v>1</v>
-      </c>
-      <c r="G130" s="12" t="s">
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H130" s="12" t="s">
+    </row>
+    <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="12">
+        <v>33003</v>
+      </c>
+      <c r="D135" s="12">
+        <v>33</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I130" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="131" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C131" s="13">
-        <v>32007</v>
-      </c>
-      <c r="D131" s="13">
-        <v>32</v>
-      </c>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13">
-        <v>1</v>
-      </c>
-      <c r="G131" s="12" t="s">
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H131" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I131" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="132" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C132" s="13">
-        <v>32008</v>
-      </c>
-      <c r="D132" s="13">
-        <v>32</v>
-      </c>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13">
-        <v>1</v>
-      </c>
-      <c r="G132" s="12" t="s">
+    </row>
+    <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="12">
+        <v>33004</v>
+      </c>
+      <c r="D136" s="12">
+        <v>33</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="H132" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C133" s="13">
-        <v>33001</v>
-      </c>
-      <c r="D133" s="13">
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="12">
+        <v>33005</v>
+      </c>
+      <c r="D137" s="12">
         <v>33</v>
       </c>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="10" t="s">
+      <c r="E137" s="12"/>
+      <c r="F137" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="134" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C134" s="13">
-        <v>33002</v>
-      </c>
-      <c r="D134" s="13">
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="12">
+        <v>33006</v>
+      </c>
+      <c r="D138" s="12">
         <v>33</v>
       </c>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="10" t="s">
+      <c r="E138" s="12"/>
+      <c r="F138" s="12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="135" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C135" s="13">
-        <v>33003</v>
-      </c>
-      <c r="D135" s="13">
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="12">
+        <v>33007</v>
+      </c>
+      <c r="D139" s="12">
         <v>33</v>
       </c>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="10" t="s">
+      <c r="E139" s="12"/>
+      <c r="F139" s="12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="136" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C136" s="13">
-        <v>33004</v>
-      </c>
-      <c r="D136" s="13">
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="12">
+        <v>33008</v>
+      </c>
+      <c r="D140" s="12">
         <v>33</v>
       </c>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="10" t="s">
+      <c r="E140" s="12"/>
+      <c r="F140" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="137" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C137" s="13">
-        <v>33005</v>
-      </c>
-      <c r="D137" s="13">
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="12">
+        <v>33009</v>
+      </c>
+      <c r="D141" s="12">
         <v>33</v>
       </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="10" t="s">
+      <c r="E141" s="12"/>
+      <c r="F141" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="138" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C138" s="13">
-        <v>33006</v>
-      </c>
-      <c r="D138" s="13">
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="12">
+        <v>33010</v>
+      </c>
+      <c r="D142" s="12">
         <v>33</v>
       </c>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="10" t="s">
+      <c r="E142" s="12"/>
+      <c r="F142" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="139" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C139" s="13">
-        <v>33007</v>
-      </c>
-      <c r="D139" s="13">
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="12">
+        <v>33011</v>
+      </c>
+      <c r="D143" s="12">
         <v>33</v>
       </c>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="10" t="s">
+      <c r="E143" s="12"/>
+      <c r="F143" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="140" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C140" s="13">
-        <v>33008</v>
-      </c>
-      <c r="D140" s="13">
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="12">
+        <v>33012</v>
+      </c>
+      <c r="D144" s="12">
         <v>33</v>
       </c>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="10" t="s">
+      <c r="E144" s="12"/>
+      <c r="F144" s="12" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="141" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C141" s="13">
-        <v>33009</v>
-      </c>
-      <c r="D141" s="13">
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="12">
+        <v>33013</v>
+      </c>
+      <c r="D145" s="12">
         <v>33</v>
       </c>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="10" t="s">
+      <c r="E145" s="12"/>
+      <c r="F145" s="12" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="142" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C142" s="13">
-        <v>33010</v>
-      </c>
-      <c r="D142" s="13">
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="12">
+        <v>33014</v>
+      </c>
+      <c r="D146" s="12">
         <v>33</v>
       </c>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="10" t="s">
+      <c r="E146" s="12"/>
+      <c r="F146" s="12" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="143" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C143" s="13">
-        <v>33011</v>
-      </c>
-      <c r="D143" s="13">
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="12">
+        <v>33015</v>
+      </c>
+      <c r="D147" s="12">
         <v>33</v>
       </c>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="10" t="s">
+      <c r="E147" s="12"/>
+      <c r="F147" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="144" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C144" s="13">
-        <v>33012</v>
-      </c>
-      <c r="D144" s="13">
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="12">
+        <v>33016</v>
+      </c>
+      <c r="D148" s="12">
         <v>33</v>
       </c>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="10" t="s">
+      <c r="E148" s="12"/>
+      <c r="F148" s="12" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="145" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C145" s="13">
-        <v>33013</v>
-      </c>
-      <c r="D145" s="13">
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="12">
+        <v>33017</v>
+      </c>
+      <c r="D149" s="12">
         <v>33</v>
       </c>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="10" t="s">
+      <c r="E149" s="12"/>
+      <c r="F149" s="12" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="146" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C146" s="13">
-        <v>33014</v>
-      </c>
-      <c r="D146" s="13">
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="12">
+        <v>33018</v>
+      </c>
+      <c r="D150" s="12">
         <v>33</v>
       </c>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="10" t="s">
+      <c r="E150" s="12"/>
+      <c r="F150" s="12" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="147" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C147" s="13">
-        <v>33015</v>
-      </c>
-      <c r="D147" s="13">
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="12">
+        <v>33019</v>
+      </c>
+      <c r="D151" s="12">
         <v>33</v>
       </c>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="10" t="s">
+      <c r="E151" s="12"/>
+      <c r="F151" s="12" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="148" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C148" s="13">
-        <v>33016</v>
-      </c>
-      <c r="D148" s="13">
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="12">
+        <v>33020</v>
+      </c>
+      <c r="D152" s="12">
         <v>33</v>
       </c>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="10" t="s">
+      <c r="E152" s="12"/>
+      <c r="F152" s="12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="149" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C149" s="13">
-        <v>33017</v>
-      </c>
-      <c r="D149" s="13">
-        <v>33</v>
-      </c>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13" t="s">
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="150" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C150" s="13">
-        <v>33018</v>
-      </c>
-      <c r="D150" s="13">
-        <v>33</v>
-      </c>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C151" s="13">
-        <v>33019</v>
-      </c>
-      <c r="D151" s="13">
-        <v>33</v>
-      </c>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="152" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C152" s="13">
-        <v>33020</v>
-      </c>
-      <c r="D152" s="13">
-        <v>33</v>
-      </c>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="10" t="s">
-        <v>237</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB7119-2C9E-4265-AE1B-51BFF19394A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778E2965-0751-4EF9-A55B-EB4B93E6A45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="G40" s="9">
         <v>30</v>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="G41" s="9">
         <v>20</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="G42" s="9">
         <v>10</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="G43" s="9">
         <v>5</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778E2965-0751-4EF9-A55B-EB4B93E6A45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9B567A-2CB7-4369-9AEC-CC8028665756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="2040" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -1195,15 +1195,15 @@
     <t>16级探险家奖励</t>
   </si>
   <si>
-    <t>3;2000@10010041;15@10010083;45@10000136;10@10000143;10@10000133;1@10032003,1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>10000205;1@10010041;15@10000136;10@10010083;50@10000137;3@10000104;5@10000134;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3;30000@10010041;20@10010083;100@10000136;20@10000143;20@10032015;1@10049101;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;2000@10010041;15@10010083;45@10000136;10@10000143;10@10000133;1@10032003;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5432,7 +5432,7 @@
         <v>5000</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>148</v>
@@ -5453,7 +5453,7 @@
         <v>8000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>149</v>
@@ -5642,7 +5642,7 @@
         <v>300000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I117" s="9" t="s">
         <v>235</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9B567A-2CB7-4369-9AEC-CC8028665756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18288E46-FD45-4F89-9D22-81FE3D58A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2040" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -903,27 +903,15 @@
     <t>1级探险家奖励</t>
   </si>
   <si>
-    <t>3;750@10010041;5@10010083;25@10010033;3@10000131;100@10010093;1</t>
-  </si>
-  <si>
     <t>2级探险家奖励</t>
   </si>
   <si>
-    <t>3;1000@10010041;10@10010083;30@10010099;1@10010046;1@10000133;1</t>
-  </si>
-  <si>
     <t>3级探险家奖励</t>
   </si>
   <si>
-    <t>3;1250@10010041;10@10010083;35@10010026;1@10000143;5@10000134;1</t>
-  </si>
-  <si>
     <t>4级探险家奖励</t>
   </si>
   <si>
-    <t>3;1500@10010041;10@10010083;40@10000136;10@10010045;1@10000133;1</t>
-  </si>
-  <si>
     <t>5级探险家奖励</t>
   </si>
   <si>
@@ -969,15 +957,9 @@
     <t>15级探险家奖励</t>
   </si>
   <si>
-    <t>10010042;1@10010099;1</t>
-  </si>
-  <si>
     <t>第一天</t>
   </si>
   <si>
-    <t>10010042;1@10010041;5@10010092;1</t>
-  </si>
-  <si>
     <t>第二天</t>
   </si>
   <si>
@@ -985,9 +967,6 @@
   </si>
   <si>
     <t>第三天</t>
-  </si>
-  <si>
-    <t>10010042;2@10010083;5@10010085;30@10010086;1</t>
   </si>
   <si>
     <t>第四天</t>
@@ -1204,6 +1183,34 @@
   </si>
   <si>
     <t>3;2000@10010041;15@10010083;45@10000136;10@10000143;10@10000133;1@10032003;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;750@10000156;1@10010083;25@10010033;3@10000131;100@10010093;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;1000@10010041;10@10010083;30@10010099;1@10000156;1@10000133;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;1500@10010041;10@10010083;40@10000136;10@10010045;1@10000133;1@10000156;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;1250@10010041;10@10010083;35@10010026;1@10000143;5@10000134;1@10000156;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;2@10010083;5@10000156;1@10010086;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000122;1@10010041;5@10010093;1@10010039,1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;1@10010099;1@10010048;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3167,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5348,10 +5355,10 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I103" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5369,10 +5376,10 @@
         <v>700</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5390,10 +5397,10 @@
         <v>1500</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5411,10 +5418,10 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5432,10 +5439,10 @@
         <v>5000</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5453,10 +5460,10 @@
         <v>8000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5474,10 +5481,10 @@
         <v>13000</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5495,10 +5502,10 @@
         <v>20000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5516,10 +5523,10 @@
         <v>30000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5537,10 +5544,10 @@
         <v>50000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5558,10 +5565,10 @@
         <v>75000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5579,10 +5586,10 @@
         <v>100000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5600,10 +5607,10 @@
         <v>150000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5621,10 +5628,10 @@
         <v>200000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5642,10 +5649,10 @@
         <v>300000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5663,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5684,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5705,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5726,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5747,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5768,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5789,10 +5796,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5807,13 +5814,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5828,13 +5835,13 @@
         <v>1</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5849,13 +5856,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5870,13 +5877,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5891,13 +5898,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5912,13 +5919,13 @@
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5933,13 +5940,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5954,13 +5961,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5972,12 +5979,12 @@
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5989,12 +5996,12 @@
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6006,12 +6013,12 @@
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6023,12 +6030,12 @@
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6040,12 +6047,12 @@
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6057,12 +6064,12 @@
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6074,12 +6081,12 @@
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6091,12 +6098,12 @@
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6108,12 +6115,12 @@
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6125,12 +6132,12 @@
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6142,12 +6149,12 @@
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6159,12 +6166,12 @@
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6176,12 +6183,12 @@
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6193,12 +6200,12 @@
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6210,12 +6217,12 @@
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="9" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6227,12 +6234,12 @@
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="9" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6244,12 +6251,12 @@
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="9" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6261,12 +6268,12 @@
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6278,12 +6285,12 @@
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6295,12 +6302,12 @@
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18288E46-FD45-4F89-9D22-81FE3D58A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4073DEC-0227-4374-95C6-F82B0D223BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,9 +978,6 @@
     <t>第五天</t>
   </si>
   <si>
-    <t>10010042;3@10010083;5@10010041;5@10010026;1;1@11200000;1</t>
-  </si>
-  <si>
     <t>第六天</t>
   </si>
   <si>
@@ -1206,11 +1203,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10000122;1@10010041;5@10010093;1@10010039,1</t>
+    <t>10010042;1@10010099;1@10010048;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10010042;1@10010099;1@10010048;1</t>
+    <t>10000122;1@10010041;5@10010093;1@10010039;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;3@10010083;5@10010041;5@10010026;1@11200000;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3174,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5355,7 +5356,7 @@
         <v>300</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I103" s="9" t="s">
         <v>140</v>
@@ -5376,7 +5377,7 @@
         <v>700</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I104" s="9" t="s">
         <v>141</v>
@@ -5397,7 +5398,7 @@
         <v>1500</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>142</v>
@@ -5418,7 +5419,7 @@
         <v>3000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>143</v>
@@ -5439,7 +5440,7 @@
         <v>5000</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>144</v>
@@ -5460,7 +5461,7 @@
         <v>8000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>145</v>
@@ -5565,7 +5566,7 @@
         <v>75000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I113" s="9" t="s">
         <v>154</v>
@@ -5586,7 +5587,7 @@
         <v>100000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I114" s="9" t="s">
         <v>155</v>
@@ -5607,7 +5608,7 @@
         <v>150000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I115" s="9" t="s">
         <v>156</v>
@@ -5628,7 +5629,7 @@
         <v>200000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>157</v>
@@ -5649,10 +5650,10 @@
         <v>300000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5670,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>158</v>
@@ -5733,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I121" s="9" t="s">
         <v>162</v>
@@ -5775,10 +5776,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I123" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5796,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I124" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5814,13 +5815,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H125" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H125" s="11" t="s">
+      <c r="I125" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5835,13 +5836,13 @@
         <v>1</v>
       </c>
       <c r="G126" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H126" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="I126" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5856,13 +5857,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H127" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H127" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="I127" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5877,13 +5878,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H128" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H128" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="I128" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5898,13 +5899,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H129" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H129" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="I129" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5919,13 +5920,13 @@
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H130" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H130" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="I130" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5940,13 +5941,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5961,13 +5962,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5979,12 +5980,12 @@
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5996,12 +5997,12 @@
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6013,12 +6014,12 @@
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6030,12 +6031,12 @@
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6047,12 +6048,12 @@
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6064,12 +6065,12 @@
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6081,12 +6082,12 @@
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6098,12 +6099,12 @@
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6115,12 +6116,12 @@
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6132,12 +6133,12 @@
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6149,12 +6150,12 @@
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6166,12 +6167,12 @@
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6183,12 +6184,12 @@
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6200,12 +6201,12 @@
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6217,12 +6218,12 @@
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6234,12 +6235,12 @@
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6251,12 +6252,12 @@
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6268,12 +6269,12 @@
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6285,12 +6286,12 @@
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6302,12 +6303,12 @@
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4073DEC-0227-4374-95C6-F82B0D223BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26861F39-DE1A-4F5A-AA45-EDCEA71F84AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -69,28 +69,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_1表示随机权重值
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_2表示奖励内容
+Par_1表示随机权重值
+Par_2表示奖励内容
 </t>
         </r>
         <r>
@@ -113,50 +93,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_1表示等级区间
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,2表示钻石),购买价格
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_3表示购买道具列表
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_4表示奖励内容
+Par_1表示等级区间
+Par_2表示购买货币类型(1表示金币,2表示钻石),购买价格
+Par_3表示购买道具列表
+Par_4表示奖励内容
 </t>
         </r>
         <r>
@@ -179,128 +119,19 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Par_1表示购买等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,3表示钻石),购买价格
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_3表示购买道具列表
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Par_4表示奖励内容
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">21 战区等级
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">22 战区战力
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">23 签到    par_1天数 par_2充值奖励 par_3奖励
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">24 令牌
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">31 登录奖励
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">32 新年活动
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">33 节日活动
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>101 冒险家</t>
+          <t>Par_1表示购买等级
+Par_2表示购买货币类型(1表示金币,3表示钻石),购买价格
+Par_3表示购买道具列表
+Par_4表示奖励内容
+21 战区等级
+22 战区战力
+23 签到    par_1天数 par_2充值奖励 par_3奖励
+24 令牌
+31 登录奖励
+32 新年活动
+33 节日活动
+34 公共序列号
+101 冒险家</t>
         </r>
       </text>
     </comment>
@@ -317,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="241">
   <si>
     <t>Id</t>
   </si>
@@ -1212,6 +1043,14 @@
   </si>
   <si>
     <t>10010042;3@10010083;5@10010041;5@10010026;1@11200000;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>weijing666</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共序列号weijing666</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3173,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I152"/>
+  <dimension ref="C1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6311,6 +6150,27 @@
         <v>222</v>
       </c>
     </row>
+    <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="12">
+        <v>34001</v>
+      </c>
+      <c r="D153" s="12">
+        <v>34</v>
+      </c>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12">
+        <v>12</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26861F39-DE1A-4F5A-AA45-EDCEA71F84AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4AF2C9-0EA0-46B6-AA9A-9B3B462F5A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="242">
   <si>
     <t>Id</t>
   </si>
@@ -1051,6 +1051,10 @@
   </si>
   <si>
     <t>公共序列号weijing666</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010091;1@10010041;2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3012,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I153"/>
+  <dimension ref="C1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="D146" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6165,12 +6169,39 @@
         <v>239</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>240</v>
       </c>
     </row>
+    <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256C4719-EE96-4863-9CD1-130CA0B13F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567E2C6E-BB65-44F1-A0FF-F28F14B7D2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="26475" yWindow="2400" windowWidth="26295" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3183,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="F43" sqref="F38:H43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,44 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567E2C6E-BB65-44F1-A0FF-F28F14B7D2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="26475" yWindow="2400" windowWidth="26295" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +27,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -56,7 +36,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,7 +47,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.签到活动</t>
@@ -78,7 +56,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -89,7 +66,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示随机权重值
@@ -100,7 +76,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示奖励内容
@@ -112,7 +87,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>2.每日特惠</t>
@@ -122,7 +96,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -133,7 +106,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示等级区间
@@ -144,7 +116,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,2表示钻石),购买价格
@@ -155,7 +126,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_3表示购买道具列表
@@ -166,7 +136,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_4表示奖励内容
@@ -178,7 +147,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3.等级礼包
@@ -189,7 +157,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示购买等级
@@ -200,7 +167,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,3表示钻石),购买价格
@@ -211,7 +177,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_3表示购买道具列表
@@ -222,7 +187,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_4表示奖励内容
@@ -233,7 +197,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">21 战区等级
@@ -244,7 +207,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">22 战区战力
@@ -255,7 +217,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">23 签到    par_1天数 par_2充值奖励 par_3奖励
@@ -266,7 +227,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">24 令牌
@@ -277,7 +237,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">31 登录奖励
@@ -288,7 +247,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">32 新年活动
@@ -299,7 +257,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">33 节日活动
@@ -310,7 +267,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">34 公共序列号
@@ -321,7 +277,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>101 冒险家</t>
@@ -333,15 +288,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
   <si>
     <t>Id</t>
   </si>
@@ -444,7 +399,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3;9</t>
@@ -454,7 +408,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>80</t>
@@ -466,7 +419,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10021010;500@10021008;10</t>
@@ -476,7 +428,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10021009;</t>
@@ -486,7 +437,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -504,7 +454,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10022010;500@10022008;10</t>
@@ -514,7 +463,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10022009;</t>
@@ -524,7 +472,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -539,7 +486,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10023010;500@10023008;10</t>
@@ -549,7 +495,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10023009;</t>
@@ -559,7 +504,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -574,7 +518,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10024010;500@10024008;10</t>
@@ -584,7 +527,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10024009;</t>
@@ -594,7 +536,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -609,7 +550,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10025010;500@10025008;10</t>
@@ -619,7 +559,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10025009;</t>
@@ -629,7 +568,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -924,7 +862,7 @@
     <t>10010099;1</t>
   </si>
   <si>
-    <t>3;500@10010041;5@10010083;20@10010087;3@10010046;1</t>
+    <t>3;500@10010041;10@10010083;20@10010087;3@10010046;1</t>
   </si>
   <si>
     <t>1级探险家奖励</t>
@@ -942,79 +880,79 @@
     <t>3级探险家奖励</t>
   </si>
   <si>
-    <t>3;1250@10010041;10@10010083;35@10010026;1@10000143;5@10000134;1@10000156;1</t>
+    <t>3;1250@10010041;20@10010083;35@10010026;1@10000143;5@10000134;1@10000156;1</t>
   </si>
   <si>
     <t>4级探险家奖励</t>
   </si>
   <si>
-    <t>3;1500@10010041;10@10010083;40@10000136;10@10010045;1@10000133;1@10000156;1</t>
+    <t>3;1500@10010041;20@10010083;40@10000136;10@10010045;1@10000133;1@10000156;1</t>
   </si>
   <si>
     <t>5级探险家奖励</t>
   </si>
   <si>
-    <t>3;2000@10010041;15@10010083;45@10000136;10@10000143;10@10000133;1@10032003;1</t>
+    <t>3;2000@10010041;20@10010083;45@10000136;10@10000143;10@10000133;1@10032003;1</t>
   </si>
   <si>
     <t>6级探险家奖励</t>
   </si>
   <si>
-    <t>10000205;1@10010041;15@10000136;10@10010083;50@10000137;3@10000104;5@10000134;1</t>
+    <t>10000205;1@10010041;30@10000136;10@10010083;50@10000137;3@10000104;5@10000134;1</t>
   </si>
   <si>
     <t>7级探险家奖励</t>
   </si>
   <si>
-    <t>3;3000@10010041;15@10010083;50@10000136;20@10000143;10@10010026;1@10011011;1</t>
+    <t>3;3000@10010041;30@10010083;50@10000136;10@10000143;10@10010026;1@10011011;1</t>
   </si>
   <si>
     <t>8级探险家奖励</t>
   </si>
   <si>
-    <t>3;4000@10010041;20@10010083;60@10000138;3@10010046;1@10000134;1@10049103;1</t>
+    <t>3;4000@10010041;30@10010083;60@10000138;3@10000136;10@10000134;1@10049103;1</t>
   </si>
   <si>
     <t>9级探险家奖励</t>
   </si>
   <si>
-    <t>3;5000@10010041;20@10010083;60@10000135;1@10000143;10@10010026;1@10049102;1</t>
+    <t>3;5000@10010041;40@10010083;60@10000136;10@10000143;10@10010026;1@10049102;1</t>
   </si>
   <si>
     <t>10级探险家奖励</t>
   </si>
   <si>
-    <t>3;7500@10010041;20@10010083;80@10000136;20@10000143;20@10000134;1@10011014;1</t>
+    <t>3;7500@10010041;40@10010083;80@10000136;20@10000143;20@10000134;1@10011014;1</t>
   </si>
   <si>
     <t>11级探险家奖励</t>
   </si>
   <si>
-    <t>3;10000@10010041;20@10010083;80@10000136;20@10000143;20@10010026;1@10011015;1</t>
+    <t>3;10000@10010041;50@10010083;80@10000136;20@10000143;20@10010026;1@10011015;1</t>
   </si>
   <si>
     <t>12级探险家奖励</t>
   </si>
   <si>
-    <t>3;12500@10010041;20@10010083;100@10000136;20@10000143;20@10010026;1@10049101;1</t>
+    <t>3;12500@10010041;50@10010083;100@10000136;20@10000143;20@10010026;1@10049101;1</t>
   </si>
   <si>
     <t>13级探险家奖励</t>
   </si>
   <si>
-    <t>3;20000@10010041;20@10010083;100@10000136;20@10000143;20@10010026;1@10032006;1</t>
+    <t>3;20000@10010041;50@10010083;100@10000136;20@10000143;20@10010026;1@10032006;1</t>
   </si>
   <si>
     <t>14级探险家奖励</t>
   </si>
   <si>
-    <t>3;25000@10010041;20@10010083;100@10000136;20@10000143;20@10010026;1@10000208;1</t>
+    <t>3;25000@10010041;50@10010083;100@10000136;20@10000143;20@10010026;1@10000208;1</t>
   </si>
   <si>
     <t>15级探险家奖励</t>
   </si>
   <si>
-    <t>3;30000@10010041;20@10010083;100@10000136;20@10000143;20@10032015;1@10049101;1</t>
+    <t>3;30000@10010041;50@10010083;100@10000136;20@10000143;20@10032015;1@10049101;1</t>
   </si>
   <si>
     <t>16级探险家奖励</t>
@@ -1239,8 +1177,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,14 +1196,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1267,7 +1209,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1275,47 +1216,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,43 +1391,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767021"/>
+        <fgColor theme="0" tint="-0.14981536301767"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498458815271462"/>
+        <fgColor theme="0" tint="-0.149845881527146"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79982909634693444"/>
+        <fgColor theme="5" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79982909634693444"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79982909634693444"/>
+        <fgColor theme="8" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79982909634693444"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79982909634693444"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,48 +1499,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79982909634693444"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1516,7 +1763,31 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1535,626 +1806,967 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2182,145 +2794,7 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2346,7 +2820,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2367,7 +2841,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2430,44 +2904,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2488,6 +2962,9 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2506,332 +2983,380 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="313">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="20" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+  <cellStyles count="361">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="常规 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 3" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="常规 2 3 5" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="常规 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="常规 5" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="常规 5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="常规 5 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="常规 5 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="常规 5 7" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="注释 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="注释 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="注释 2 2 4" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="注释 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 5" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="常规 5 2 5" xfId="11"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8"/>
+    <cellStyle name="百分比" xfId="16" builtinId="5"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="19"/>
+    <cellStyle name="注释" xfId="20" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="21" builtinId="36"/>
+    <cellStyle name="常规 5 2 4" xfId="22"/>
+    <cellStyle name="标题 4" xfId="23" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="24" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="26"/>
+    <cellStyle name="标题" xfId="27" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="29"/>
+    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="31"/>
+    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="33" builtinId="32"/>
+    <cellStyle name="常规 5 2 3" xfId="34"/>
+    <cellStyle name="标题 3" xfId="35" builtinId="18"/>
+    <cellStyle name="常规 5 2 6" xfId="36"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="39" builtinId="44"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="40"/>
+    <cellStyle name="输出" xfId="41" builtinId="21"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="42"/>
+    <cellStyle name="计算" xfId="43" builtinId="22"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="44"/>
+    <cellStyle name="检查单元格" xfId="45" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="50"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
+    <cellStyle name="汇总" xfId="53" builtinId="25"/>
+    <cellStyle name="好" xfId="54" builtinId="26"/>
+    <cellStyle name="常规 2 3 2 4" xfId="55"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="58"/>
+    <cellStyle name="适中" xfId="59" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="61" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="62"/>
+    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
+    <cellStyle name="注释 2 3 3" xfId="64"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="70" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="71"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="72" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="73" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="74" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="75"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="79"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="80"/>
+    <cellStyle name="强调文字颜色 5" xfId="81" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="89" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="90" builtinId="52"/>
+    <cellStyle name="常规 2 3 2 3" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
+    <cellStyle name="常规 2 3 2 5" xfId="93"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="95"/>
+    <cellStyle name="常规 2 3 2 6" xfId="96"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
+    <cellStyle name="常规 2 3 2 7" xfId="99"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="101"/>
+    <cellStyle name="常规 2 3 3 3" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
+    <cellStyle name="常规 2 3 3 4" xfId="104"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="106"/>
+    <cellStyle name="常规 2 3 4 3" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="124"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="148"/>
+    <cellStyle name="常规 3" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="159"/>
+    <cellStyle name="常规 4" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="162"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="163"/>
+    <cellStyle name="常规 5" xfId="164"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
+    <cellStyle name="注释 2" xfId="166"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="168"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="169"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="170"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="171"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="173"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="174"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="175"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="177"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="178"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="179"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="180"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="181"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="182"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="183"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="184"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="185"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="186"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="187"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="188"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="189"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="190"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="194"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="197"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="199"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="201"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="203"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="206"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="211"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="213"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="215"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="217"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="219"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="221"/>
+    <cellStyle name="常规 5 7" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="225"/>
+    <cellStyle name="注释 2 2 3 2" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="244"/>
+    <cellStyle name="注释 2 5 2" xfId="245"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="248"/>
+    <cellStyle name="常规 2 3 2 2" xfId="249"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="254"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="255"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="264"/>
+    <cellStyle name="常规 2 3 3 5" xfId="265"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="267"/>
+    <cellStyle name="常规 2 3 3 6" xfId="268"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="276"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="277"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="278"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="279"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="280"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="281"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="282"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="284"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="285"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="286"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="287"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="288"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="289"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="290"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="291"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="292"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="293"/>
+    <cellStyle name="注释 2 2" xfId="294"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="296"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="297"/>
+    <cellStyle name="常规 5 6" xfId="298"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="300"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="301"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="302"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="303"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="304"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="305"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="306"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="307"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="308"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="309"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="310"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="311"/>
+    <cellStyle name="常规 2" xfId="312"/>
+    <cellStyle name="常规 2 2" xfId="313"/>
+    <cellStyle name="常规 2 3" xfId="314"/>
+    <cellStyle name="常规 2 3 2" xfId="315"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="316"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="317"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="318"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="319"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="320"/>
+    <cellStyle name="注释 2 3 2" xfId="321"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="323"/>
+    <cellStyle name="常规 2 3 3" xfId="324"/>
+    <cellStyle name="常规 2 3 3 2" xfId="325"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="326"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="327"/>
+    <cellStyle name="注释 2 5" xfId="328"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
+    <cellStyle name="常规 2 3 4" xfId="330"/>
+    <cellStyle name="常规 2 3 4 2" xfId="331"/>
+    <cellStyle name="常规 2 3 5" xfId="332"/>
+    <cellStyle name="常规 2 3 5 2" xfId="333"/>
+    <cellStyle name="常规 5 2 2 2" xfId="334"/>
+    <cellStyle name="常规 2 3 6" xfId="335"/>
+    <cellStyle name="常规 2 3 6 2" xfId="336"/>
+    <cellStyle name="常规 5 2 2 3" xfId="337"/>
+    <cellStyle name="常规 2 3 7" xfId="338"/>
+    <cellStyle name="常规 2 3 8" xfId="339"/>
+    <cellStyle name="常规 5 2 3 2" xfId="340"/>
+    <cellStyle name="常规 5 2 4 2" xfId="341"/>
+    <cellStyle name="常规 5 3" xfId="342"/>
+    <cellStyle name="常规 5 3 2" xfId="343"/>
+    <cellStyle name="常规 5 3 3" xfId="344"/>
+    <cellStyle name="常规 5 4" xfId="345"/>
+    <cellStyle name="常规 5 4 2" xfId="346"/>
+    <cellStyle name="常规 5 5" xfId="347"/>
+    <cellStyle name="常规 5 5 2" xfId="348"/>
+    <cellStyle name="注释 2 2 2" xfId="349"/>
+    <cellStyle name="注释 2 2 2 2" xfId="350"/>
+    <cellStyle name="注释 2 2 2 3" xfId="351"/>
+    <cellStyle name="注释 2 2 3" xfId="352"/>
+    <cellStyle name="注释 2 2 4" xfId="353"/>
+    <cellStyle name="注释 2 2 4 2" xfId="354"/>
+    <cellStyle name="注释 2 2 5" xfId="355"/>
+    <cellStyle name="注释 2 2 6" xfId="356"/>
+    <cellStyle name="注释 2 4" xfId="357"/>
+    <cellStyle name="注释 2 4 2" xfId="358"/>
+    <cellStyle name="注释 2 6" xfId="359"/>
+    <cellStyle name="注释 2 7" xfId="360"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -2851,19 +3376,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2891,19 +3408,19 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="活动类型"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon显示"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="参数_1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参数_2"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="活动类型"/>
+    <tableColumn id="3" name="Icon显示"/>
+    <tableColumn id="4" name="参数_1"/>
+    <tableColumn id="5" name="参数_2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3188,19 +3705,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
@@ -3209,8 +3726,8 @@
     <col min="9" max="9" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="14.25"/>
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3279,7 +3796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C6" s="6">
         <v>2001</v>
       </c>
@@ -3292,17 +3809,17 @@
       <c r="F6" s="7">
         <v>1999</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C7" s="6">
         <v>2002</v>
       </c>
@@ -3315,17 +3832,17 @@
       <c r="F7" s="7">
         <v>1999</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C8" s="6">
         <v>2003</v>
       </c>
@@ -3338,17 +3855,17 @@
       <c r="F8" s="7">
         <v>1999</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C9" s="6">
         <v>2004</v>
       </c>
@@ -3361,17 +3878,17 @@
       <c r="F9" s="7">
         <v>1999</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C10" s="6">
         <v>2005</v>
       </c>
@@ -3384,17 +3901,17 @@
       <c r="F10" s="7">
         <v>1999</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C11" s="6">
         <v>2006</v>
       </c>
@@ -3407,17 +3924,17 @@
       <c r="F11" s="7">
         <v>1999</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C12" s="6">
         <v>2007</v>
       </c>
@@ -3427,20 +3944,20 @@
       <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C13" s="6">
         <v>2008</v>
       </c>
@@ -3450,20 +3967,20 @@
       <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C14" s="6">
         <v>2009</v>
       </c>
@@ -3473,20 +3990,20 @@
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C15" s="6">
         <v>2010</v>
       </c>
@@ -3496,20 +4013,20 @@
       <c r="E15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C16" s="6">
         <v>2011</v>
       </c>
@@ -3519,20 +4036,20 @@
       <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C17" s="6">
         <v>2012</v>
       </c>
@@ -3542,20 +4059,20 @@
       <c r="E17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C18" s="6">
         <v>2013</v>
       </c>
@@ -3565,20 +4082,20 @@
       <c r="E18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C19" s="6">
         <v>2014</v>
       </c>
@@ -3588,20 +4105,20 @@
       <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C20" s="6">
         <v>2015</v>
       </c>
@@ -3611,20 +4128,20 @@
       <c r="E20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C21" s="6">
         <v>2016</v>
       </c>
@@ -3634,20 +4151,20 @@
       <c r="E21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C22" s="6">
         <v>2017</v>
       </c>
@@ -3657,20 +4174,20 @@
       <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C23" s="6">
         <v>2018</v>
       </c>
@@ -3680,20 +4197,20 @@
       <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C24" s="6">
         <v>2019</v>
       </c>
@@ -3703,20 +4220,20 @@
       <c r="E24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C25" s="6">
         <v>2020</v>
       </c>
@@ -3726,2667 +4243,2667 @@
       <c r="E25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="9">
+    <row r="26" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C26" s="10">
         <v>10001</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>3</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
         <v>5</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="9" t="str">
+      <c r="I26" s="10" t="str">
         <f>F26&amp;"级礼包"</f>
         <v>5级礼包</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="9">
+    <row r="27" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C27" s="10">
         <v>10002</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="10">
         <v>3</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
         <v>10</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="9" t="str">
+      <c r="I27" s="10" t="str">
         <f t="shared" ref="I27:I31" si="0">F27&amp;"级礼包"</f>
         <v>10级礼包</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="9">
+    <row r="28" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C28" s="10">
         <v>10003</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="10">
         <v>3</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
         <v>15</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="9" t="str">
+      <c r="I28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>15级礼包</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="9">
+    <row r="29" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C29" s="10">
         <v>10004</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="10">
         <v>3</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
         <v>20</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="9" t="str">
+      <c r="I29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>20级礼包</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="9">
+    <row r="30" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C30" s="10">
         <v>10005</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="10">
         <v>3</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
         <v>25</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="9" t="str">
+      <c r="I30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>25级礼包</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="9">
+    <row r="31" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C31" s="10">
         <v>10006</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="10">
         <v>3</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10">
         <v>30</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="9" t="str">
+      <c r="I31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>30级礼包</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="9">
+    <row r="32" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C32" s="10">
         <v>21001</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="10">
         <v>21</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
         <v>15</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="10">
         <v>100</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="9">
+    <row r="33" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C33" s="10">
         <v>21002</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>21</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10">
         <v>20</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="10">
         <v>50</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="9">
+    <row r="34" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C34" s="10">
         <v>21003</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <v>21</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
         <v>25</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="10">
         <v>30</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="9">
+    <row r="35" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C35" s="10">
         <v>21004</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>21</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10">
         <v>30</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <v>20</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="9">
+    <row r="36" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C36" s="10">
         <v>21005</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <v>21</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
         <v>35</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="10">
         <v>10</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="9">
+    <row r="37" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C37" s="10">
         <v>21006</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="10">
         <v>21</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10">
         <v>40</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="10">
         <v>5</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="9">
+    <row r="38" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C38" s="10">
         <v>22001</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <v>22</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10">
         <v>9000</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="10">
         <v>100</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="9">
+    <row r="39" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C39" s="10">
         <v>22002</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="10">
         <v>22</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10">
         <v>14000</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="10">
         <v>50</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="9">
+    <row r="40" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C40" s="10">
         <v>22003</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>22</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
         <v>20000</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="10">
         <v>30</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="9">
+    <row r="41" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C41" s="10">
         <v>22004</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="10">
         <v>22</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10">
         <v>28000</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="10">
         <v>20</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="9">
+    <row r="42" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C42" s="10">
         <v>22005</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="10">
         <v>22</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9">
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
         <v>36000</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="10">
         <v>10</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="9">
+    <row r="43" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C43" s="10">
         <v>22006</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="10">
         <v>22</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10">
         <v>45000</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="10">
         <v>5</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="9">
+    <row r="44" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C44" s="10">
         <v>23001</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="10">
         <v>23</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10">
         <v>1</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="9">
+    <row r="45" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C45" s="10">
         <v>23002</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="10">
         <v>23</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10">
         <v>2</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="9">
+    <row r="46" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C46" s="10">
         <v>23003</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="10">
         <v>23</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
         <v>3</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="9">
+    <row r="47" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C47" s="10">
         <v>23004</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>23</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9">
+      <c r="E47" s="10"/>
+      <c r="F47" s="10">
         <v>4</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="9">
+    <row r="48" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C48" s="10">
         <v>23005</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="10">
         <v>23</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10">
         <v>5</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="9">
+    <row r="49" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C49" s="10">
         <v>23006</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="10">
         <v>23</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10">
         <v>6</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="9">
+    <row r="50" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C50" s="10">
         <v>23007</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="10">
         <v>23</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10">
         <v>7</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="9">
+    <row r="51" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C51" s="10">
         <v>23008</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="10">
         <v>23</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10">
         <v>8</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="9">
+    <row r="52" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C52" s="10">
         <v>23009</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="10">
         <v>23</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10">
         <v>9</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="9">
+    <row r="53" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C53" s="10">
         <v>23010</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="10">
         <v>23</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10">
         <v>10</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="9">
+    <row r="54" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C54" s="10">
         <v>23011</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="10">
         <v>23</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10">
         <v>11</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="9">
+    <row r="55" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C55" s="10">
         <v>23012</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="10">
         <v>23</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
         <v>12</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="9">
+    <row r="56" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C56" s="10">
         <v>23013</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="10">
         <v>23</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10">
         <v>13</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="9">
+    <row r="57" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C57" s="10">
         <v>23014</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="10">
         <v>23</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10">
         <v>14</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="I57" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="9">
+    <row r="58" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C58" s="10">
         <v>23015</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="10">
         <v>23</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10">
         <v>15</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="I58" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="9">
+    <row r="59" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C59" s="10">
         <v>23016</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="10">
         <v>23</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10">
         <v>16</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="9">
+    <row r="60" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C60" s="10">
         <v>23017</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="10">
         <v>23</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10">
         <v>17</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I60" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="9">
+    <row r="61" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C61" s="10">
         <v>23018</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="10">
         <v>23</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10">
         <v>18</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I61" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="9">
+    <row r="62" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C62" s="10">
         <v>23019</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="10">
         <v>23</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10">
         <v>19</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I62" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="9">
+    <row r="63" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C63" s="10">
         <v>23020</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="10">
         <v>23</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10">
         <v>20</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="9">
+    <row r="64" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C64" s="10">
         <v>23021</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="10">
         <v>23</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10">
         <v>21</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="I64" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="9">
+    <row r="65" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C65" s="10">
         <v>23022</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="10">
         <v>23</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10">
         <v>22</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="9">
+    <row r="66" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C66" s="10">
         <v>23023</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="10">
         <v>23</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10">
         <v>23</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I66" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="9">
+    <row r="67" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C67" s="10">
         <v>23024</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="10">
         <v>23</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10">
         <v>24</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I67" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="9">
+    <row r="68" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C68" s="10">
         <v>23025</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="10">
         <v>23</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10">
         <v>25</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I68" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="9">
+    <row r="69" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C69" s="10">
         <v>23026</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="10">
         <v>23</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10">
         <v>26</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="I69" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="9">
+    <row r="70" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C70" s="10">
         <v>23027</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="10">
         <v>23</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10">
         <v>27</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I70" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="9">
+    <row r="71" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C71" s="10">
         <v>23028</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="10">
         <v>23</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9">
+      <c r="E71" s="10"/>
+      <c r="F71" s="10">
         <v>28</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I71" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="9">
+    <row r="72" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C72" s="10">
         <v>23029</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="10">
         <v>23</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10">
         <v>29</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="I72" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="9">
+    <row r="73" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C73" s="10">
         <v>23030</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="10">
         <v>23</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9">
+      <c r="E73" s="10"/>
+      <c r="F73" s="10">
         <v>30</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="9">
+    <row r="74" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C74" s="10">
         <v>24001</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <v>24</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="10">
+      <c r="E74" s="12"/>
+      <c r="F74" s="11">
         <v>5</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="9">
+    <row r="75" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C75" s="10">
         <v>24002</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="10">
         <v>24</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="10">
+      <c r="E75" s="12"/>
+      <c r="F75" s="11">
         <v>7</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="9">
+    <row r="76" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C76" s="10">
         <v>24003</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="10">
         <v>24</v>
       </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="10">
+      <c r="E76" s="12"/>
+      <c r="F76" s="11">
         <v>9</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="9">
+    <row r="77" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C77" s="10">
         <v>24004</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="10">
         <v>24</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="10">
+      <c r="E77" s="12"/>
+      <c r="F77" s="11">
         <v>11</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="9">
+    <row r="78" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C78" s="10">
         <v>24005</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="10">
         <v>24</v>
       </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="10">
+      <c r="E78" s="12"/>
+      <c r="F78" s="11">
         <v>13</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="9">
+    <row r="79" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C79" s="10">
         <v>24006</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="10">
         <v>24</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="10">
+      <c r="E79" s="12"/>
+      <c r="F79" s="11">
         <v>15</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="9">
+    <row r="80" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C80" s="10">
         <v>24007</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="10">
         <v>24</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="10">
+      <c r="E80" s="12"/>
+      <c r="F80" s="11">
         <v>17</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="9">
+    <row r="81" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C81" s="10">
         <v>24008</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="10">
         <v>24</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="10">
+      <c r="E81" s="12"/>
+      <c r="F81" s="11">
         <v>19</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="9">
+    <row r="82" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C82" s="10">
         <v>24009</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="10">
         <v>24</v>
       </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="10">
+      <c r="E82" s="12"/>
+      <c r="F82" s="11">
         <v>21</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="9">
+    <row r="83" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C83" s="10">
         <v>24010</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="10">
         <v>24</v>
       </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="10">
+      <c r="E83" s="12"/>
+      <c r="F83" s="11">
         <v>23</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="I83" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="9">
+    <row r="84" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C84" s="10">
         <v>24011</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="10">
         <v>24</v>
       </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="10">
+      <c r="E84" s="12"/>
+      <c r="F84" s="11">
         <v>25</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="I84" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="9">
+    <row r="85" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C85" s="10">
         <v>24012</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="10">
         <v>24</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="10">
+      <c r="E85" s="12"/>
+      <c r="F85" s="11">
         <v>27</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="I85" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="9">
+    <row r="86" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C86" s="10">
         <v>24013</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="10">
         <v>24</v>
       </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="10">
+      <c r="E86" s="12"/>
+      <c r="F86" s="11">
         <v>29</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="I86" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="9">
+    <row r="87" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C87" s="10">
         <v>24014</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="10">
         <v>24</v>
       </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="10">
+      <c r="E87" s="12"/>
+      <c r="F87" s="11">
         <v>31</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I87" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="9">
+    <row r="88" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C88" s="10">
         <v>24015</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="10">
         <v>24</v>
       </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="10">
+      <c r="E88" s="12"/>
+      <c r="F88" s="11">
         <v>33</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="I88" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="9">
+    <row r="89" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C89" s="10">
         <v>24016</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="10">
         <v>24</v>
       </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="10">
+      <c r="E89" s="12"/>
+      <c r="F89" s="11">
         <v>35</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I89" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="9">
+    <row r="90" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C90" s="10">
         <v>24017</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="10">
         <v>24</v>
       </c>
-      <c r="E90" s="11"/>
-      <c r="F90" s="10">
+      <c r="E90" s="12"/>
+      <c r="F90" s="11">
         <v>37</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="I90" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="9">
+    <row r="91" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C91" s="10">
         <v>24018</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="10">
         <v>24</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="10">
+      <c r="E91" s="12"/>
+      <c r="F91" s="11">
         <v>39</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="I91" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="9">
+    <row r="92" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C92" s="10">
         <v>24019</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="10">
         <v>24</v>
       </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="10">
+      <c r="E92" s="12"/>
+      <c r="F92" s="11">
         <v>41</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="9">
+    <row r="93" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C93" s="10">
         <v>24020</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="10">
         <v>24</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="10">
+      <c r="E93" s="12"/>
+      <c r="F93" s="11">
         <v>43</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="9">
+    <row r="94" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C94" s="10">
         <v>24021</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="10">
         <v>24</v>
       </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="10">
+      <c r="E94" s="12"/>
+      <c r="F94" s="11">
         <v>45</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="I94" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="9">
+    <row r="95" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C95" s="10">
         <v>24022</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="10">
         <v>24</v>
       </c>
-      <c r="E95" s="11"/>
-      <c r="F95" s="10">
+      <c r="E95" s="12"/>
+      <c r="F95" s="11">
         <v>47</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="9">
+    <row r="96" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C96" s="10">
         <v>24023</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="10">
         <v>24</v>
       </c>
-      <c r="E96" s="11"/>
-      <c r="F96" s="10">
+      <c r="E96" s="12"/>
+      <c r="F96" s="11">
         <v>49</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I96" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="9">
+    <row r="97" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C97" s="10">
         <v>24024</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="10">
         <v>24</v>
       </c>
-      <c r="E97" s="11"/>
-      <c r="F97" s="10">
+      <c r="E97" s="12"/>
+      <c r="F97" s="11">
         <v>51</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I97" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="9">
+    <row r="98" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C98" s="10">
         <v>24025</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="10">
         <v>24</v>
       </c>
-      <c r="E98" s="11"/>
-      <c r="F98" s="10">
+      <c r="E98" s="12"/>
+      <c r="F98" s="11">
         <v>53</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="I98" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="9">
+    <row r="99" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C99" s="10">
         <v>24026</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="10">
         <v>24</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="10">
+      <c r="E99" s="12"/>
+      <c r="F99" s="11">
         <v>55</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="I99" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="9">
+    <row r="100" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C100" s="10">
         <v>24027</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="10">
         <v>24</v>
       </c>
-      <c r="E100" s="11"/>
-      <c r="F100" s="10">
+      <c r="E100" s="12"/>
+      <c r="F100" s="11">
         <v>57</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="9">
+    <row r="101" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C101" s="10">
         <v>24028</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="10">
         <v>24</v>
       </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="10">
+      <c r="E101" s="12"/>
+      <c r="F101" s="11">
         <v>59</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="9">
+    <row r="102" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C102" s="10">
         <v>30001</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="13">
         <v>101</v>
       </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12">
+      <c r="E102" s="13"/>
+      <c r="F102" s="13">
         <v>1</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="12">
         <v>100</v>
       </c>
-      <c r="H102" s="13" t="s">
+      <c r="H102" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="I102" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="9">
+    <row r="103" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C103" s="10">
         <v>30002</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="13">
         <v>101</v>
       </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12">
+      <c r="E103" s="13"/>
+      <c r="F103" s="13">
         <v>1</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="12">
         <v>300</v>
       </c>
-      <c r="H103" s="13" t="s">
+      <c r="H103" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I103" s="9" t="s">
+      <c r="I103" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="9">
+    <row r="104" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C104" s="10">
         <v>30003</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="13">
         <v>101</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12">
+      <c r="E104" s="13"/>
+      <c r="F104" s="13">
         <v>1</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G104" s="12">
         <v>700</v>
       </c>
-      <c r="H104" s="13" t="s">
+      <c r="H104" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I104" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="9">
+    <row r="105" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C105" s="10">
         <v>30004</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="13">
         <v>101</v>
       </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12">
+      <c r="E105" s="13"/>
+      <c r="F105" s="13">
         <v>1</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="12">
         <v>1500</v>
       </c>
-      <c r="H105" s="13" t="s">
+      <c r="H105" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="9">
+    <row r="106" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C106" s="10">
         <v>30005</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="13">
         <v>101</v>
       </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12">
+      <c r="E106" s="13"/>
+      <c r="F106" s="13">
         <v>1</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="12">
         <v>3000</v>
       </c>
-      <c r="H106" s="13" t="s">
+      <c r="H106" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I106" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="9">
+    <row r="107" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C107" s="10">
         <v>30006</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="13">
         <v>101</v>
       </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12">
+      <c r="E107" s="13"/>
+      <c r="F107" s="13">
         <v>1</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="12">
         <v>5000</v>
       </c>
-      <c r="H107" s="13" t="s">
+      <c r="H107" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="9">
+    <row r="108" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C108" s="10">
         <v>30007</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="13">
         <v>101</v>
       </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12">
+      <c r="E108" s="13"/>
+      <c r="F108" s="13">
         <v>1</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="12">
         <v>8000</v>
       </c>
-      <c r="H108" s="13" t="s">
+      <c r="H108" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I108" s="9" t="s">
+      <c r="I108" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="9">
+    <row r="109" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C109" s="10">
         <v>30008</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="13">
         <v>101</v>
       </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12">
+      <c r="E109" s="13"/>
+      <c r="F109" s="13">
         <v>1</v>
       </c>
-      <c r="G109" s="11">
+      <c r="G109" s="12">
         <v>13000</v>
       </c>
-      <c r="H109" s="13" t="s">
+      <c r="H109" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I109" s="9" t="s">
+      <c r="I109" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="9">
+    <row r="110" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C110" s="10">
         <v>30009</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="13">
         <v>101</v>
       </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12">
+      <c r="E110" s="13"/>
+      <c r="F110" s="13">
         <v>1</v>
       </c>
-      <c r="G110" s="11">
+      <c r="G110" s="12">
         <v>20000</v>
       </c>
-      <c r="H110" s="13" t="s">
+      <c r="H110" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I110" s="9" t="s">
+      <c r="I110" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="9">
+    <row r="111" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C111" s="10">
         <v>30010</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="13">
         <v>101</v>
       </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12">
+      <c r="E111" s="13"/>
+      <c r="F111" s="13">
         <v>1</v>
       </c>
-      <c r="G111" s="11">
+      <c r="G111" s="12">
         <v>30000</v>
       </c>
-      <c r="H111" s="13" t="s">
+      <c r="H111" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I111" s="9" t="s">
+      <c r="I111" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="9">
+    <row r="112" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C112" s="10">
         <v>30011</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="13">
         <v>101</v>
       </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12">
+      <c r="E112" s="13"/>
+      <c r="F112" s="13">
         <v>1</v>
       </c>
-      <c r="G112" s="11">
+      <c r="G112" s="12">
         <v>50000</v>
       </c>
-      <c r="H112" s="13" t="s">
+      <c r="H112" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="I112" s="9" t="s">
+      <c r="I112" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="9">
+    <row r="113" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C113" s="10">
         <v>30012</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="13">
         <v>101</v>
       </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12">
+      <c r="E113" s="13"/>
+      <c r="F113" s="13">
         <v>1</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="12">
         <v>75000</v>
       </c>
-      <c r="H113" s="13" t="s">
+      <c r="H113" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="I113" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="9">
+    <row r="114" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C114" s="10">
         <v>30013</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="13">
         <v>101</v>
       </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12">
+      <c r="E114" s="13"/>
+      <c r="F114" s="13">
         <v>1</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="12">
         <v>100000</v>
       </c>
-      <c r="H114" s="13" t="s">
+      <c r="H114" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I114" s="9" t="s">
+      <c r="I114" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="9">
+    <row r="115" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C115" s="10">
         <v>30014</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="13">
         <v>101</v>
       </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12">
+      <c r="E115" s="13"/>
+      <c r="F115" s="13">
         <v>1</v>
       </c>
-      <c r="G115" s="11">
+      <c r="G115" s="12">
         <v>150000</v>
       </c>
-      <c r="H115" s="13" t="s">
+      <c r="H115" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I115" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="9">
+    <row r="116" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C116" s="10">
         <v>30015</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="13">
         <v>101</v>
       </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12">
+      <c r="E116" s="13"/>
+      <c r="F116" s="13">
         <v>1</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="12">
         <v>200000</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="H116" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I116" s="9" t="s">
+      <c r="I116" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="9">
+    <row r="117" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C117" s="10">
         <v>30016</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="13">
         <v>101</v>
       </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12">
+      <c r="E117" s="13"/>
+      <c r="F117" s="13">
         <v>1</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="12">
         <v>300000</v>
       </c>
-      <c r="H117" s="13" t="s">
+      <c r="H117" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="I117" s="9" t="s">
+      <c r="I117" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="12">
+    <row r="118" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C118" s="13">
         <v>31001</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="13">
         <v>31</v>
       </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12">
+      <c r="E118" s="13"/>
+      <c r="F118" s="13">
         <v>0</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="12">
         <v>0</v>
       </c>
-      <c r="H118" s="13" t="s">
+      <c r="H118" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I118" s="9" t="s">
+      <c r="I118" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="12">
+    <row r="119" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C119" s="13">
         <v>31002</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="13">
         <v>31</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12">
+      <c r="E119" s="13"/>
+      <c r="F119" s="13">
         <v>0</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="12">
         <v>0</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H119" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="I119" s="9" t="s">
+      <c r="I119" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="12">
+    <row r="120" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C120" s="13">
         <v>31003</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="13">
         <v>31</v>
       </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12">
+      <c r="E120" s="13"/>
+      <c r="F120" s="13">
         <v>0</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="12">
         <v>0</v>
       </c>
-      <c r="H120" s="13" t="s">
+      <c r="H120" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I120" s="9" t="s">
+      <c r="I120" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="12">
+    <row r="121" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C121" s="13">
         <v>31004</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="13">
         <v>31</v>
       </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12">
+      <c r="E121" s="13"/>
+      <c r="F121" s="13">
         <v>0</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="12">
         <v>0</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="H121" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="I121" s="9" t="s">
+      <c r="I121" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="12">
+    <row r="122" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C122" s="13">
         <v>31005</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="13">
         <v>31</v>
       </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12">
+      <c r="E122" s="13"/>
+      <c r="F122" s="13">
         <v>0</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="12">
         <v>0</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H122" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="I122" s="9" t="s">
+      <c r="I122" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="12">
+    <row r="123" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C123" s="13">
         <v>31006</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="13">
         <v>31</v>
       </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12">
+      <c r="E123" s="13"/>
+      <c r="F123" s="13">
         <v>0</v>
       </c>
-      <c r="G123" s="11">
+      <c r="G123" s="12">
         <v>0</v>
       </c>
-      <c r="H123" s="13" t="s">
+      <c r="H123" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I123" s="9" t="s">
+      <c r="I123" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="12">
+    <row r="124" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C124" s="13">
         <v>31007</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="13">
         <v>31</v>
       </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12">
+      <c r="E124" s="13"/>
+      <c r="F124" s="13">
         <v>0</v>
       </c>
-      <c r="G124" s="11">
+      <c r="G124" s="12">
         <v>0</v>
       </c>
-      <c r="H124" s="13" t="s">
+      <c r="H124" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I124" s="9" t="s">
+      <c r="I124" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="12">
+    <row r="125" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C125" s="13">
         <v>32001</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="13">
         <v>32</v>
       </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12">
+      <c r="E125" s="13"/>
+      <c r="F125" s="13">
         <v>1</v>
       </c>
-      <c r="G125" s="11" t="s">
+      <c r="G125" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H125" s="11" t="s">
+      <c r="H125" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="I125" s="9" t="s">
+      <c r="I125" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="12">
+    <row r="126" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C126" s="13">
         <v>32002</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="13">
         <v>32</v>
       </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12">
+      <c r="E126" s="13"/>
+      <c r="F126" s="13">
         <v>1</v>
       </c>
-      <c r="G126" s="11" t="s">
+      <c r="G126" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H126" s="11" t="s">
+      <c r="H126" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I126" s="9" t="s">
+      <c r="I126" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="12">
+    <row r="127" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C127" s="13">
         <v>32003</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D127" s="13">
         <v>32</v>
       </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12">
+      <c r="E127" s="13"/>
+      <c r="F127" s="13">
         <v>1</v>
       </c>
-      <c r="G127" s="11" t="s">
+      <c r="G127" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I127" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="12">
+    <row r="128" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C128" s="13">
         <v>32004</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="13">
         <v>32</v>
       </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12">
+      <c r="E128" s="13"/>
+      <c r="F128" s="13">
         <v>1</v>
       </c>
-      <c r="G128" s="11" t="s">
+      <c r="G128" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H128" s="11" t="s">
+      <c r="H128" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="I128" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="12">
+    <row r="129" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C129" s="13">
         <v>32005</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="13">
         <v>32</v>
       </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12">
+      <c r="E129" s="13"/>
+      <c r="F129" s="13">
         <v>1</v>
       </c>
-      <c r="G129" s="11" t="s">
+      <c r="G129" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H129" s="11" t="s">
+      <c r="H129" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="I129" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="12">
+    <row r="130" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C130" s="13">
         <v>32006</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="13">
         <v>32</v>
       </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12">
+      <c r="E130" s="13"/>
+      <c r="F130" s="13">
         <v>1</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H130" s="11" t="s">
+      <c r="H130" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I130" s="9" t="s">
+      <c r="I130" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="12">
+    <row r="131" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C131" s="13">
         <v>32007</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="13">
         <v>32</v>
       </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12">
+      <c r="E131" s="13"/>
+      <c r="F131" s="13">
         <v>1</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="H131" s="11" t="s">
+      <c r="H131" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I131" s="9" t="s">
+      <c r="I131" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="12">
+    <row r="132" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C132" s="13">
         <v>32008</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="13">
         <v>32</v>
       </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12">
+      <c r="E132" s="13"/>
+      <c r="F132" s="13">
         <v>1</v>
       </c>
-      <c r="G132" s="11" t="s">
+      <c r="G132" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="H132" s="11" t="s">
+      <c r="H132" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="I132" s="9" t="s">
+      <c r="I132" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="12">
+    <row r="133" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C133" s="13">
         <v>33001</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="13">
         <v>33</v>
       </c>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12" t="s">
+      <c r="E133" s="13"/>
+      <c r="F133" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="9" t="s">
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="10" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="12">
+    <row r="134" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C134" s="13">
         <v>33002</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="13">
         <v>33</v>
       </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12" t="s">
+      <c r="E134" s="13"/>
+      <c r="F134" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="9" t="s">
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="12">
+    <row r="135" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C135" s="13">
         <v>33003</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="13">
         <v>33</v>
       </c>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12" t="s">
+      <c r="E135" s="13"/>
+      <c r="F135" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="9" t="s">
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="12">
+    <row r="136" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C136" s="13">
         <v>33004</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D136" s="13">
         <v>33</v>
       </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12" t="s">
+      <c r="E136" s="13"/>
+      <c r="F136" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="9" t="s">
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="12">
+    <row r="137" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C137" s="13">
         <v>33005</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="13">
         <v>33</v>
       </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12" t="s">
+      <c r="E137" s="13"/>
+      <c r="F137" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="9" t="s">
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="12">
+    <row r="138" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C138" s="13">
         <v>33006</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D138" s="13">
         <v>33</v>
       </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12" t="s">
+      <c r="E138" s="13"/>
+      <c r="F138" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="9" t="s">
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="12">
+    <row r="139" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C139" s="13">
         <v>33007</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D139" s="13">
         <v>33</v>
       </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12" t="s">
+      <c r="E139" s="13"/>
+      <c r="F139" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="9" t="s">
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="12">
+    <row r="140" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C140" s="13">
         <v>33008</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="13">
         <v>33</v>
       </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12" t="s">
+      <c r="E140" s="13"/>
+      <c r="F140" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="9" t="s">
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="12">
+    <row r="141" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C141" s="13">
         <v>33009</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="13">
         <v>33</v>
       </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12" t="s">
+      <c r="E141" s="13"/>
+      <c r="F141" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="9" t="s">
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="12">
+    <row r="142" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C142" s="13">
         <v>33010</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D142" s="13">
         <v>33</v>
       </c>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12" t="s">
+      <c r="E142" s="13"/>
+      <c r="F142" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="9" t="s">
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="12">
+    <row r="143" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C143" s="13">
         <v>33011</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D143" s="13">
         <v>33</v>
       </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12" t="s">
+      <c r="E143" s="13"/>
+      <c r="F143" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="9" t="s">
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="12">
+    <row r="144" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C144" s="13">
         <v>33012</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D144" s="13">
         <v>33</v>
       </c>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12" t="s">
+      <c r="E144" s="13"/>
+      <c r="F144" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="9" t="s">
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="12">
+    <row r="145" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C145" s="13">
         <v>33013</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="13">
         <v>33</v>
       </c>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12" t="s">
+      <c r="E145" s="13"/>
+      <c r="F145" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="9" t="s">
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="12">
+    <row r="146" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C146" s="13">
         <v>33014</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D146" s="13">
         <v>33</v>
       </c>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12" t="s">
+      <c r="E146" s="13"/>
+      <c r="F146" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="9" t="s">
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="12">
+    <row r="147" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C147" s="13">
         <v>33015</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="13">
         <v>33</v>
       </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12" t="s">
+      <c r="E147" s="13"/>
+      <c r="F147" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="9" t="s">
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="12">
+    <row r="148" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C148" s="13">
         <v>33016</v>
       </c>
-      <c r="D148" s="12">
+      <c r="D148" s="13">
         <v>33</v>
       </c>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12" t="s">
+      <c r="E148" s="13"/>
+      <c r="F148" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="9" t="s">
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="12">
+    <row r="149" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C149" s="13">
         <v>33017</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="13">
         <v>33</v>
       </c>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12" t="s">
+      <c r="E149" s="13"/>
+      <c r="F149" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="9" t="s">
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="12">
+    <row r="150" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C150" s="13">
         <v>33018</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="13">
         <v>33</v>
       </c>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12" t="s">
+      <c r="E150" s="13"/>
+      <c r="F150" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="9" t="s">
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="12">
+    <row r="151" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C151" s="13">
         <v>33019</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="13">
         <v>33</v>
       </c>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12" t="s">
+      <c r="E151" s="13"/>
+      <c r="F151" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="9" t="s">
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="12">
+    <row r="152" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C152" s="13">
         <v>33020</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="13">
         <v>33</v>
       </c>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12" t="s">
+      <c r="E152" s="13"/>
+      <c r="F152" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="9" t="s">
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="12">
+    <row r="153" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C153" s="13">
         <v>34001</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="13">
         <v>34</v>
       </c>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12">
+      <c r="E153" s="13"/>
+      <c r="F153" s="13">
         <v>12</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="H153" s="11" t="s">
+      <c r="H153" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I153" s="9" t="s">
+      <c r="I153" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="20.1" customHeight="1"/>
+    <row r="155" ht="20.1" customHeight="1"/>
+    <row r="156" ht="20.1" customHeight="1"/>
+    <row r="157" ht="20.1" customHeight="1"/>
+    <row r="158" ht="20.1" customHeight="1"/>
+    <row r="159" ht="20.1" customHeight="1"/>
+    <row r="160" ht="20.1" customHeight="1"/>
+    <row r="161" ht="20.1" customHeight="1"/>
+    <row r="162" ht="20.1" customHeight="1"/>
+    <row r="163" ht="20.1" customHeight="1"/>
+    <row r="164" ht="20.1" customHeight="1"/>
+    <row r="165" ht="20.1" customHeight="1"/>
+    <row r="166" ht="20.1" customHeight="1"/>
+    <row r="167" ht="20.1" customHeight="1"/>
+    <row r="168" ht="20.1" customHeight="1"/>
+    <row r="169" ht="20.1" customHeight="1"/>
+    <row r="170" ht="20.1" customHeight="1"/>
+    <row r="171" ht="20.1" customHeight="1"/>
+    <row r="172" ht="20.1" customHeight="1"/>
+    <row r="173" ht="20.1" customHeight="1"/>
+    <row r="174" ht="20.1" customHeight="1"/>
+    <row r="175" ht="20.1" customHeight="1"/>
+    <row r="176" ht="20.1" customHeight="1"/>
+    <row r="177" ht="20.1" customHeight="1"/>
+    <row r="178" ht="20.1" customHeight="1"/>
+    <row r="179" ht="20.1" customHeight="1"/>
+    <row r="180" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6740E014-7C7C-476D-82EC-78F6819286BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -27,6 +33,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,6 +43,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -47,6 +55,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.签到活动</t>
@@ -56,6 +65,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,6 +76,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示随机权重值
@@ -76,6 +87,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示奖励内容
@@ -87,6 +99,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>2.每日特惠</t>
@@ -96,6 +109,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,6 +120,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示等级区间
@@ -116,6 +131,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,2表示钻石),购买价格
@@ -126,6 +142,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_3表示购买道具列表
@@ -136,6 +153,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_4表示奖励内容
@@ -147,6 +165,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3.等级礼包
@@ -157,6 +176,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_1表示购买等级
@@ -167,6 +187,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_2表示购买货币类型(1表示金币,3表示钻石),购买价格
@@ -177,6 +198,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_3表示购买道具列表
@@ -187,6 +209,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Par_4表示奖励内容
@@ -197,6 +220,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">21 战区等级
@@ -207,6 +231,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">22 战区战力
@@ -217,6 +242,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">23 签到    par_1天数 par_2充值奖励 par_3奖励
@@ -227,6 +253,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">24 令牌
@@ -237,6 +264,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">31 登录奖励
@@ -247,6 +275,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">32 新年活动
@@ -257,6 +286,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">33 节日活动
@@ -267,6 +297,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">34 公共序列号
@@ -277,6 +308,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>101 冒险家</t>
@@ -288,15 +320,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="244">
   <si>
     <t>Id</t>
   </si>
@@ -399,6 +431,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3;9</t>
@@ -408,6 +441,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>80</t>
@@ -419,6 +453,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10021010;500@10021008;10</t>
@@ -428,6 +463,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10021009;</t>
@@ -437,6 +473,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -454,6 +491,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10022010;500@10022008;10</t>
@@ -463,6 +501,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10022009;</t>
@@ -472,6 +511,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -486,6 +526,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10023010;500@10023008;10</t>
@@ -495,6 +536,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10023009;</t>
@@ -504,6 +546,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -518,6 +561,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10024010;500@10024008;10</t>
@@ -527,6 +571,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10024009;</t>
@@ -536,6 +581,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -550,6 +596,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>10025010;500@10025008;10</t>
@@ -559,6 +606,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>@10025009;</t>
@@ -568,6 +616,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -1173,18 +1222,16 @@
   <si>
     <t>公共序列号weijing666</t>
   </si>
+  <si>
+    <t>3;50000@10010041;50@10000152;50@10000136;20@10000143;50@10049102;1@10049101;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,12 +1243,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1209,6 +1258,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1216,167 +1266,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,103 +1321,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14981536301767"/>
+        <fgColor theme="0" tint="-0.14978484450819421"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149845881527146"/>
+        <fgColor theme="0" tint="-0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
+        <fgColor theme="5" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1499,174 +1399,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1763,31 +1507,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399853511154515"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.39982299264503923"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1806,995 +1526,792 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2820,7 +2337,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2841,7 +2358,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2904,44 +2421,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2962,9 +2479,6 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2983,380 +2497,332 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="313">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="20" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="22" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="5"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="常规 5 2 5" xfId="11"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8"/>
-    <cellStyle name="百分比" xfId="16" builtinId="5"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="17"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="19"/>
-    <cellStyle name="注释" xfId="20" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="21" builtinId="36"/>
-    <cellStyle name="常规 5 2 4" xfId="22"/>
-    <cellStyle name="标题 4" xfId="23" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="24" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="25"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="26"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="29"/>
-    <cellStyle name="标题 1" xfId="30" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="31"/>
-    <cellStyle name="标题 2" xfId="32" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="33" builtinId="32"/>
-    <cellStyle name="常规 5 2 3" xfId="34"/>
-    <cellStyle name="标题 3" xfId="35" builtinId="18"/>
-    <cellStyle name="常规 5 2 6" xfId="36"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="38"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="39" builtinId="44"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="40"/>
-    <cellStyle name="输出" xfId="41" builtinId="21"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="42"/>
-    <cellStyle name="计算" xfId="43" builtinId="22"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="44"/>
-    <cellStyle name="检查单元格" xfId="45" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="47" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="48" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="50"/>
-    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="52"/>
-    <cellStyle name="汇总" xfId="53" builtinId="25"/>
-    <cellStyle name="好" xfId="54" builtinId="26"/>
-    <cellStyle name="常规 2 3 2 4" xfId="55"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="56"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="57"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="58"/>
-    <cellStyle name="适中" xfId="59" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="60"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="61" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="62"/>
-    <cellStyle name="强调文字颜色 1" xfId="63" builtinId="29"/>
-    <cellStyle name="注释 2 3 3" xfId="64"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="66" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="67"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="68" builtinId="31"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="70" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="71"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="72" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="73" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="74" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="75"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="76" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="77" builtinId="43"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="79"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="80"/>
-    <cellStyle name="强调文字颜色 5" xfId="81" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="82" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="83" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="84" builtinId="49"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="86"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="87"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="89" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="90" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="91"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="92"/>
-    <cellStyle name="常规 2 3 2 5" xfId="93"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="94"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="95"/>
-    <cellStyle name="常规 2 3 2 6" xfId="96"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="97"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="98"/>
-    <cellStyle name="常规 2 3 2 7" xfId="99"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="100"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="101"/>
-    <cellStyle name="常规 2 3 3 3" xfId="102"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="103"/>
-    <cellStyle name="常规 2 3 3 4" xfId="104"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="105"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="106"/>
-    <cellStyle name="常规 2 3 4 3" xfId="107"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="109"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="111"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="112"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="113"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="116"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="117"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="120"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="121"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="123"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="124"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="125"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="127"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="128"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="129"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="131"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="132"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="133"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="135"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="136"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="137"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="138"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="139"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="140"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="141"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="142"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="143"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="144"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="145"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="146"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="147"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="148"/>
-    <cellStyle name="常规 3" xfId="149"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="150"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="151"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="152"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="153"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="154"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="155"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="156"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="157"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="158"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="159"/>
-    <cellStyle name="常规 4" xfId="160"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="161"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="162"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="163"/>
-    <cellStyle name="常规 5" xfId="164"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="165"/>
-    <cellStyle name="注释 2" xfId="166"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="167"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="168"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="169"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="171"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="172"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="173"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="174"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="175"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="176"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="177"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="178"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="179"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="180"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="181"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="182"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="183"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="184"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="185"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="186"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="187"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="188"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="189"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="190"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="191"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="192"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="193"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="194"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="195"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="196"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="197"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="198"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="199"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="200"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="201"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="202"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="203"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="204"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="205"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="206"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="207"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="208"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="209"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="210"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="211"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="212"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="213"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="214"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="215"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="216"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="217"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="218"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="219"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="220"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="221"/>
-    <cellStyle name="常规 5 7" xfId="222"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="223"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="224"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="225"/>
-    <cellStyle name="注释 2 2 3 2" xfId="226"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="227"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="228"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="229"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="230"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="231"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="232"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="233"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="234"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="235"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="236"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="237"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="238"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="239"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="240"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="241"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="242"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="243"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="244"/>
-    <cellStyle name="注释 2 5 2" xfId="245"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="246"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="247"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="248"/>
-    <cellStyle name="常规 2 3 2 2" xfId="249"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="250"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="251"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="252"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="253"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="254"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="255"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="256"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="257"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="258"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="259"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="260"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="261"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="262"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="263"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="264"/>
-    <cellStyle name="常规 2 3 3 5" xfId="265"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="266"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="267"/>
-    <cellStyle name="常规 2 3 3 6" xfId="268"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="269"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="270"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="271"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="272"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="273"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="274"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="275"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="276"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="277"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="278"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="279"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="280"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="281"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="282"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="283"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="284"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="285"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="286"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="287"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="288"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="289"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="290"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="291"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="292"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="293"/>
-    <cellStyle name="注释 2 2" xfId="294"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="295"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="296"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="297"/>
-    <cellStyle name="常规 5 6" xfId="298"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="299"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="300"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="301"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="302"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="303"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="304"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="305"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="306"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="307"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="308"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="309"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="310"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="311"/>
-    <cellStyle name="常规 2" xfId="312"/>
-    <cellStyle name="常规 2 2" xfId="313"/>
-    <cellStyle name="常规 2 3" xfId="314"/>
-    <cellStyle name="常规 2 3 2" xfId="315"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="316"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="317"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="318"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="319"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="320"/>
-    <cellStyle name="注释 2 3 2" xfId="321"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="322"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="323"/>
-    <cellStyle name="常规 2 3 3" xfId="324"/>
-    <cellStyle name="常规 2 3 3 2" xfId="325"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="326"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="327"/>
-    <cellStyle name="注释 2 5" xfId="328"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="329"/>
-    <cellStyle name="常规 2 3 4" xfId="330"/>
-    <cellStyle name="常规 2 3 4 2" xfId="331"/>
-    <cellStyle name="常规 2 3 5" xfId="332"/>
-    <cellStyle name="常规 2 3 5 2" xfId="333"/>
-    <cellStyle name="常规 5 2 2 2" xfId="334"/>
-    <cellStyle name="常规 2 3 6" xfId="335"/>
-    <cellStyle name="常规 2 3 6 2" xfId="336"/>
-    <cellStyle name="常规 5 2 2 3" xfId="337"/>
-    <cellStyle name="常规 2 3 7" xfId="338"/>
-    <cellStyle name="常规 2 3 8" xfId="339"/>
-    <cellStyle name="常规 5 2 3 2" xfId="340"/>
-    <cellStyle name="常规 5 2 4 2" xfId="341"/>
-    <cellStyle name="常规 5 3" xfId="342"/>
-    <cellStyle name="常规 5 3 2" xfId="343"/>
-    <cellStyle name="常规 5 3 3" xfId="344"/>
-    <cellStyle name="常规 5 4" xfId="345"/>
-    <cellStyle name="常规 5 4 2" xfId="346"/>
-    <cellStyle name="常规 5 5" xfId="347"/>
-    <cellStyle name="常规 5 5 2" xfId="348"/>
-    <cellStyle name="注释 2 2 2" xfId="349"/>
-    <cellStyle name="注释 2 2 2 2" xfId="350"/>
-    <cellStyle name="注释 2 2 2 3" xfId="351"/>
-    <cellStyle name="注释 2 2 3" xfId="352"/>
-    <cellStyle name="注释 2 2 4" xfId="353"/>
-    <cellStyle name="注释 2 2 4 2" xfId="354"/>
-    <cellStyle name="注释 2 2 5" xfId="355"/>
-    <cellStyle name="注释 2 2 6" xfId="356"/>
-    <cellStyle name="注释 2 4" xfId="357"/>
-    <cellStyle name="注释 2 4 2" xfId="358"/>
-    <cellStyle name="注释 2 6" xfId="359"/>
-    <cellStyle name="注释 2 7" xfId="360"/>
+    <cellStyle name="常规 2" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="常规 2 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="常规 2 3" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="常规 2 3 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 3 2 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 2 3 2 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 2 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 7" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="常规 2 3 3 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="常规 2 3 3 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="常规 2 3 3 5" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="常规 2 3 3 6" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="常规 2 3 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="常规 2 3 4 2" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="常规 2 3 4 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="常规 2 3 5 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="常规 2 3 6" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="常规 2 3 6 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="常规 2 3 7" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="常规 2 3 8" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="常规 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="常规 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="常规 5" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="常规 5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="常规 5 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="常规 5 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 5 2 4 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="常规 5 2 5" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 5 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 5 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="常规 5 3 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="常规 5 3 3" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="常规 5 4" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="常规 5 4 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="常规 5 5" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="常规 5 5 2" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="常规 5 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="常规 5 7" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="注释 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="注释 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="注释 2 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="注释 2 2 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="注释 2 2 2 3" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="注释 2 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="注释 2 2 3 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="注释 2 2 4" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="注释 2 2 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="注释 2 2 5" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="注释 2 2 6" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="注释 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="注释 2 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="注释 2 3 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="注释 2 4" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="注释 2 4 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="注释 2 5" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="注释 2 5 2" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -3376,11 +2842,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3408,19 +2882,19 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="活动类型"/>
-    <tableColumn id="3" name="Icon显示"/>
-    <tableColumn id="4" name="参数_1"/>
-    <tableColumn id="5" name="参数_2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="活动类型"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon显示"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="参数_1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参数_2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3705,19 +3179,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:I180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
@@ -3726,8 +3200,8 @@
     <col min="9" max="9" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25"/>
-    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="1" spans="3:9" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="5" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -3796,7 +3270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>2001</v>
       </c>
@@ -3809,17 +3283,17 @@
       <c r="F6" s="7">
         <v>1999</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
         <v>2002</v>
       </c>
@@ -3832,17 +3306,17 @@
       <c r="F7" s="7">
         <v>1999</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>2003</v>
       </c>
@@ -3855,17 +3329,17 @@
       <c r="F8" s="7">
         <v>1999</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
         <v>2004</v>
       </c>
@@ -3878,17 +3352,17 @@
       <c r="F9" s="7">
         <v>1999</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
         <v>2005</v>
       </c>
@@ -3901,17 +3375,17 @@
       <c r="F10" s="7">
         <v>1999</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
         <v>2006</v>
       </c>
@@ -3924,17 +3398,17 @@
       <c r="F11" s="7">
         <v>1999</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
         <v>2007</v>
       </c>
@@ -3944,20 +3418,20 @@
       <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
         <v>2008</v>
       </c>
@@ -3967,20 +3441,20 @@
       <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
         <v>2009</v>
       </c>
@@ -3990,20 +3464,20 @@
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
         <v>2010</v>
       </c>
@@ -4013,20 +3487,20 @@
       <c r="E15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
         <v>2011</v>
       </c>
@@ -4036,20 +3510,20 @@
       <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="17" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
         <v>2012</v>
       </c>
@@ -4059,20 +3533,20 @@
       <c r="E17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
         <v>2013</v>
       </c>
@@ -4082,20 +3556,20 @@
       <c r="E18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
         <v>2014</v>
       </c>
@@ -4105,20 +3579,20 @@
       <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="20" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
         <v>2015</v>
       </c>
@@ -4128,20 +3602,20 @@
       <c r="E20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="6">
         <v>2016</v>
       </c>
@@ -4151,20 +3625,20 @@
       <c r="E21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="22" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="6">
         <v>2017</v>
       </c>
@@ -4174,20 +3648,20 @@
       <c r="E22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="6">
         <v>2018</v>
       </c>
@@ -4197,20 +3671,20 @@
       <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="6">
         <v>2019</v>
       </c>
@@ -4220,20 +3694,20 @@
       <c r="E24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="25" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="6">
         <v>2020</v>
       </c>
@@ -4243,2667 +3717,2688 @@
       <c r="E25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C26" s="10">
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="9">
         <v>10001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>3</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
         <v>5</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="10" t="str">
+      <c r="I26" s="9" t="str">
         <f>F26&amp;"级礼包"</f>
         <v>5级礼包</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C27" s="10">
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="9">
         <v>10002</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9">
         <v>10</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="10" t="str">
+      <c r="I27" s="9" t="str">
         <f t="shared" ref="I27:I31" si="0">F27&amp;"级礼包"</f>
         <v>10级礼包</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C28" s="10">
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="9">
         <v>10003</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
         <v>15</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="10" t="str">
+      <c r="I28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>15级礼包</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C29" s="10">
+    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="9">
         <v>10004</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>3</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
         <v>20</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="10" t="str">
+      <c r="I29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>20级礼包</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C30" s="10">
+    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="9">
         <v>10005</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>3</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9">
         <v>25</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="10" t="str">
+      <c r="I30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>25级礼包</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C31" s="10">
+    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="9">
         <v>10006</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>3</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
         <v>30</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="10" t="str">
+      <c r="I31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>30级礼包</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C32" s="10">
+    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="9">
         <v>21001</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>21</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
         <v>15</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>100</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C33" s="10">
+    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="9">
         <v>21002</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>21</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9">
         <v>20</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>50</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C34" s="10">
+    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="9">
         <v>21003</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>21</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
         <v>25</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>30</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C35" s="10">
+    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="9">
         <v>21004</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>21</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
         <v>30</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>20</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C36" s="10">
+    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="9">
         <v>21005</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>21</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9">
         <v>35</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>10</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C37" s="10">
+    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="9">
         <v>21006</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>21</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10">
+      <c r="E37" s="9"/>
+      <c r="F37" s="9">
         <v>40</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>5</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C38" s="10">
+    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="9">
         <v>22001</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>22</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
         <v>9000</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>100</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C39" s="10">
+    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="9">
         <v>22002</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>22</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
         <v>14000</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>50</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C40" s="10">
+    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="9">
         <v>22003</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>22</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9">
         <v>20000</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>30</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C41" s="10">
+    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="9">
         <v>22004</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>22</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10">
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
         <v>28000</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>20</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C42" s="10">
+    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="9">
         <v>22005</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>22</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9">
         <v>36000</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>10</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C43" s="10">
+    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="9">
         <v>22006</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>22</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
         <v>45000</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>5</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C44" s="10">
+    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="9">
         <v>23001</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>23</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
         <v>1</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C45" s="10">
+    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="9">
         <v>23002</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>23</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10">
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
         <v>2</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C46" s="10">
+    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="9">
         <v>23003</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>23</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9">
         <v>3</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C47" s="10">
+    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="9">
         <v>23004</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>23</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
         <v>4</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C48" s="10">
+    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="9">
         <v>23005</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>23</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10">
+      <c r="E48" s="9"/>
+      <c r="F48" s="9">
         <v>5</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C49" s="10">
+    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="9">
         <v>23006</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>23</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
         <v>6</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C50" s="10">
+    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="9">
         <v>23007</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>23</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9">
         <v>7</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C51" s="10">
+    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="9">
         <v>23008</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>23</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9">
         <v>8</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C52" s="10">
+    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="9">
         <v>23009</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>23</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10">
+      <c r="E52" s="9"/>
+      <c r="F52" s="9">
         <v>9</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C53" s="10">
+    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="9">
         <v>23010</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>23</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10">
+      <c r="E53" s="9"/>
+      <c r="F53" s="9">
         <v>10</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C54" s="10">
+    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="9">
         <v>23011</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>23</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9">
         <v>11</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C55" s="10">
+    <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="9">
         <v>23012</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>23</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9">
         <v>12</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C56" s="10">
+    <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="9">
         <v>23013</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>23</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10">
+      <c r="E56" s="9"/>
+      <c r="F56" s="9">
         <v>13</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C57" s="10">
+    <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="9">
         <v>23014</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>23</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9">
         <v>14</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="G57" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C58" s="10">
+    <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="9">
         <v>23015</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>23</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9">
         <v>15</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C59" s="10">
+    <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="9">
         <v>23016</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>23</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9">
         <v>16</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C60" s="10">
+    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="9">
         <v>23017</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>23</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10">
+      <c r="E60" s="9"/>
+      <c r="F60" s="9">
         <v>17</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C61" s="10">
+    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="9">
         <v>23018</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>23</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9">
         <v>18</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C62" s="10">
+    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="9">
         <v>23019</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>23</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10">
+      <c r="E62" s="9"/>
+      <c r="F62" s="9">
         <v>19</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C63" s="10">
+    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="9">
         <v>23020</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>23</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9">
         <v>20</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C64" s="10">
+    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="9">
         <v>23021</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>23</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9">
         <v>21</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C65" s="10">
+    <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="9">
         <v>23022</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>23</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10">
+      <c r="E65" s="9"/>
+      <c r="F65" s="9">
         <v>22</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C66" s="10">
+    <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="9">
         <v>23023</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>23</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10">
+      <c r="E66" s="9"/>
+      <c r="F66" s="9">
         <v>23</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C67" s="10">
+    <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="9">
         <v>23024</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>23</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9">
         <v>24</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C68" s="10">
+    <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="9">
         <v>23025</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>23</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10">
+      <c r="E68" s="9"/>
+      <c r="F68" s="9">
         <v>25</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I68" s="10" t="s">
+      <c r="I68" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C69" s="10">
+    <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="9">
         <v>23026</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>23</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9">
         <v>26</v>
       </c>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C70" s="10">
+    <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="9">
         <v>23027</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>23</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9">
         <v>27</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C71" s="10">
+    <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="9">
         <v>23028</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>23</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9">
         <v>28</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G71" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C72" s="10">
+    <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="9">
         <v>23029</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>23</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10">
+      <c r="E72" s="9"/>
+      <c r="F72" s="9">
         <v>29</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C73" s="10">
+    <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="9">
         <v>23030</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>23</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10">
+      <c r="E73" s="9"/>
+      <c r="F73" s="9">
         <v>30</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G73" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C74" s="10">
+    <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="9">
         <v>24001</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>24</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11">
+      <c r="E74" s="11"/>
+      <c r="F74" s="10">
         <v>5</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I74" s="10" t="s">
+      <c r="I74" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C75" s="10">
+    <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="9">
         <v>24002</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>24</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="11">
+      <c r="E75" s="11"/>
+      <c r="F75" s="10">
         <v>7</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="G75" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H75" s="10" t="s">
+      <c r="H75" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C76" s="10">
+    <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="9">
         <v>24003</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>24</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="11">
+      <c r="E76" s="11"/>
+      <c r="F76" s="10">
         <v>9</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="G76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C77" s="10">
+    <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="9">
         <v>24004</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>24</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="11">
+      <c r="E77" s="11"/>
+      <c r="F77" s="10">
         <v>11</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="H77" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="I77" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C78" s="10">
+    <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="9">
         <v>24005</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>24</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="11">
+      <c r="E78" s="11"/>
+      <c r="F78" s="10">
         <v>13</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I78" s="10" t="s">
+      <c r="I78" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C79" s="10">
+    <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="9">
         <v>24006</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>24</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="11">
+      <c r="E79" s="11"/>
+      <c r="F79" s="10">
         <v>15</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I79" s="10" t="s">
+      <c r="I79" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C80" s="10">
+    <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="9">
         <v>24007</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>24</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="11">
+      <c r="E80" s="11"/>
+      <c r="F80" s="10">
         <v>17</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I80" s="10" t="s">
+      <c r="I80" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C81" s="10">
+    <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="9">
         <v>24008</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>24</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="11">
+      <c r="E81" s="11"/>
+      <c r="F81" s="10">
         <v>19</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="G81" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I81" s="10" t="s">
+      <c r="I81" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C82" s="10">
+    <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="9">
         <v>24009</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>24</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="11">
+      <c r="E82" s="11"/>
+      <c r="F82" s="10">
         <v>21</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C83" s="10">
+    <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="9">
         <v>24010</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>24</v>
       </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="11">
+      <c r="E83" s="11"/>
+      <c r="F83" s="10">
         <v>23</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G83" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I83" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C84" s="10">
+    <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="9">
         <v>24011</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>24</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="11">
+      <c r="E84" s="11"/>
+      <c r="F84" s="10">
         <v>25</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C85" s="10">
+    <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="9">
         <v>24012</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>24</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11">
+      <c r="E85" s="11"/>
+      <c r="F85" s="10">
         <v>27</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G85" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C86" s="10">
+    <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="9">
         <v>24013</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>24</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11">
+      <c r="E86" s="11"/>
+      <c r="F86" s="10">
         <v>29</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C87" s="10">
+    <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="9">
         <v>24014</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>24</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="11">
+      <c r="E87" s="11"/>
+      <c r="F87" s="10">
         <v>31</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="G87" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="10" t="s">
+      <c r="I87" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C88" s="10">
+    <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="9">
         <v>24015</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>24</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="11">
+      <c r="E88" s="11"/>
+      <c r="F88" s="10">
         <v>33</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="I88" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C89" s="10">
+    <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="9">
         <v>24016</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>24</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="11">
+      <c r="E89" s="11"/>
+      <c r="F89" s="10">
         <v>35</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C90" s="10">
+    <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="9">
         <v>24017</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>24</v>
       </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="11">
+      <c r="E90" s="11"/>
+      <c r="F90" s="10">
         <v>37</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G90" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I90" s="10" t="s">
+      <c r="I90" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C91" s="10">
+    <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="9">
         <v>24018</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>24</v>
       </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="11">
+      <c r="E91" s="11"/>
+      <c r="F91" s="10">
         <v>39</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C92" s="10">
+    <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="9">
         <v>24019</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>24</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="11">
+      <c r="E92" s="11"/>
+      <c r="F92" s="10">
         <v>41</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C93" s="10">
+    <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="9">
         <v>24020</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>24</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="11">
+      <c r="E93" s="11"/>
+      <c r="F93" s="10">
         <v>43</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C94" s="10">
+    <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="9">
         <v>24021</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>24</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="11">
+      <c r="E94" s="11"/>
+      <c r="F94" s="10">
         <v>45</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G94" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C95" s="10">
+    <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="9">
         <v>24022</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>24</v>
       </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="11">
+      <c r="E95" s="11"/>
+      <c r="F95" s="10">
         <v>47</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C96" s="10">
+    <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="9">
         <v>24023</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>24</v>
       </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="11">
+      <c r="E96" s="11"/>
+      <c r="F96" s="10">
         <v>49</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G96" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C97" s="10">
+    <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="9">
         <v>24024</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>24</v>
       </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="11">
+      <c r="E97" s="11"/>
+      <c r="F97" s="10">
         <v>51</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="G97" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C98" s="10">
+    <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="9">
         <v>24025</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>24</v>
       </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="11">
+      <c r="E98" s="11"/>
+      <c r="F98" s="10">
         <v>53</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G98" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C99" s="10">
+    <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="9">
         <v>24026</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>24</v>
       </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="11">
+      <c r="E99" s="11"/>
+      <c r="F99" s="10">
         <v>55</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C100" s="10">
+    <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="9">
         <v>24027</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>24</v>
       </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="11">
+      <c r="E100" s="11"/>
+      <c r="F100" s="10">
         <v>57</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G100" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C101" s="10">
+    <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="9">
         <v>24028</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>24</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="11">
+      <c r="E101" s="11"/>
+      <c r="F101" s="10">
         <v>59</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H101" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I101" s="10" t="s">
+      <c r="I101" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C102" s="10">
+    <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="9">
         <v>30001</v>
       </c>
-      <c r="D102" s="13">
+      <c r="D102" s="12">
         <v>101</v>
       </c>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13">
+      <c r="E102" s="12"/>
+      <c r="F102" s="12">
         <v>1</v>
       </c>
-      <c r="G102" s="12">
+      <c r="G102" s="11">
         <v>100</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I102" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C103" s="10">
+    <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="9">
         <v>30002</v>
       </c>
-      <c r="D103" s="13">
+      <c r="D103" s="12">
         <v>101</v>
       </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13">
+      <c r="E103" s="12"/>
+      <c r="F103" s="12">
         <v>1</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="11">
         <v>300</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C104" s="10">
+    <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="9">
         <v>30003</v>
       </c>
-      <c r="D104" s="13">
+      <c r="D104" s="12">
         <v>101</v>
       </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13">
+      <c r="E104" s="12"/>
+      <c r="F104" s="12">
         <v>1</v>
       </c>
-      <c r="G104" s="12">
+      <c r="G104" s="11">
         <v>700</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C105" s="10">
+    <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="9">
         <v>30004</v>
       </c>
-      <c r="D105" s="13">
+      <c r="D105" s="12">
         <v>101</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13">
+      <c r="E105" s="12"/>
+      <c r="F105" s="12">
         <v>1</v>
       </c>
-      <c r="G105" s="12">
+      <c r="G105" s="11">
         <v>1500</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I105" s="10" t="s">
+      <c r="I105" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C106" s="10">
+    <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="9">
         <v>30005</v>
       </c>
-      <c r="D106" s="13">
+      <c r="D106" s="12">
         <v>101</v>
       </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13">
+      <c r="E106" s="12"/>
+      <c r="F106" s="12">
         <v>1</v>
       </c>
-      <c r="G106" s="12">
+      <c r="G106" s="11">
         <v>3000</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C107" s="10">
+    <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="9">
         <v>30006</v>
       </c>
-      <c r="D107" s="13">
+      <c r="D107" s="12">
         <v>101</v>
       </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13">
+      <c r="E107" s="12"/>
+      <c r="F107" s="12">
         <v>1</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="11">
         <v>5000</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C108" s="10">
+    <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="9">
         <v>30007</v>
       </c>
-      <c r="D108" s="13">
+      <c r="D108" s="12">
         <v>101</v>
       </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13">
+      <c r="E108" s="12"/>
+      <c r="F108" s="12">
         <v>1</v>
       </c>
-      <c r="G108" s="12">
+      <c r="G108" s="11">
         <v>8000</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I108" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C109" s="10">
+    <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="9">
         <v>30008</v>
       </c>
-      <c r="D109" s="13">
+      <c r="D109" s="12">
         <v>101</v>
       </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13">
+      <c r="E109" s="12"/>
+      <c r="F109" s="12">
         <v>1</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <v>13000</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I109" s="10" t="s">
+      <c r="I109" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C110" s="10">
+    <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="9">
         <v>30009</v>
       </c>
-      <c r="D110" s="13">
+      <c r="D110" s="12">
         <v>101</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13">
+      <c r="E110" s="12"/>
+      <c r="F110" s="12">
         <v>1</v>
       </c>
-      <c r="G110" s="12">
+      <c r="G110" s="11">
         <v>20000</v>
       </c>
-      <c r="H110" s="14" t="s">
+      <c r="H110" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="I110" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C111" s="10">
+    <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="9">
         <v>30010</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="12">
         <v>101</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13">
+      <c r="E111" s="12"/>
+      <c r="F111" s="12">
         <v>1</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <v>30000</v>
       </c>
-      <c r="H111" s="14" t="s">
+      <c r="H111" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I111" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C112" s="10">
+    <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="9">
         <v>30011</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="12">
         <v>101</v>
       </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13">
+      <c r="E112" s="12"/>
+      <c r="F112" s="12">
         <v>1</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="11">
         <v>50000</v>
       </c>
-      <c r="H112" s="14" t="s">
+      <c r="H112" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I112" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C113" s="10">
+    <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="9">
         <v>30012</v>
       </c>
-      <c r="D113" s="13">
+      <c r="D113" s="12">
         <v>101</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13">
+      <c r="E113" s="12"/>
+      <c r="F113" s="12">
         <v>1</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <v>75000</v>
       </c>
-      <c r="H113" s="14" t="s">
+      <c r="H113" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I113" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C114" s="10">
+    <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="9">
         <v>30013</v>
       </c>
-      <c r="D114" s="13">
+      <c r="D114" s="12">
         <v>101</v>
       </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13">
+      <c r="E114" s="12"/>
+      <c r="F114" s="12">
         <v>1</v>
       </c>
-      <c r="G114" s="12">
+      <c r="G114" s="11">
         <v>100000</v>
       </c>
-      <c r="H114" s="14" t="s">
+      <c r="H114" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I114" s="10" t="s">
+      <c r="I114" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C115" s="10">
+    <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="9">
         <v>30014</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="12">
         <v>101</v>
       </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13">
+      <c r="E115" s="12"/>
+      <c r="F115" s="12">
         <v>1</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <v>150000</v>
       </c>
-      <c r="H115" s="14" t="s">
+      <c r="H115" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I115" s="10" t="s">
+      <c r="I115" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C116" s="10">
+    <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="9">
         <v>30015</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="12">
         <v>101</v>
       </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13">
+      <c r="E116" s="12"/>
+      <c r="F116" s="12">
         <v>1</v>
       </c>
-      <c r="G116" s="12">
+      <c r="G116" s="11">
         <v>200000</v>
       </c>
-      <c r="H116" s="14" t="s">
+      <c r="H116" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I116" s="10" t="s">
+      <c r="I116" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C117" s="10">
+    <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="9">
         <v>30016</v>
       </c>
-      <c r="D117" s="13">
+      <c r="D117" s="12">
         <v>101</v>
       </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13">
+      <c r="E117" s="12"/>
+      <c r="F117" s="12">
         <v>1</v>
       </c>
-      <c r="G117" s="12">
+      <c r="G117" s="11">
         <v>300000</v>
       </c>
-      <c r="H117" s="14" t="s">
+      <c r="H117" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="I117" s="10" t="s">
+      <c r="I117" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C118" s="13">
+    <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="9">
+        <v>30017</v>
+      </c>
+      <c r="D118" s="12">
+        <v>101</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12">
+        <v>1</v>
+      </c>
+      <c r="G118" s="11">
+        <v>500000</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="12">
         <v>31001</v>
       </c>
-      <c r="D118" s="13">
+      <c r="D119" s="12">
         <v>31</v>
       </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13">
+      <c r="E119" s="12"/>
+      <c r="F119" s="12">
         <v>0</v>
       </c>
-      <c r="G118" s="12">
+      <c r="G119" s="11">
         <v>0</v>
       </c>
-      <c r="H118" s="14" t="s">
+      <c r="H119" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I118" s="10" t="s">
+      <c r="I119" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C119" s="13">
+    <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="12">
         <v>31002</v>
       </c>
-      <c r="D119" s="13">
+      <c r="D120" s="12">
         <v>31</v>
       </c>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13">
+      <c r="E120" s="12"/>
+      <c r="F120" s="12">
         <v>0</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G120" s="11">
         <v>0</v>
       </c>
-      <c r="H119" s="14" t="s">
+      <c r="H120" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="I120" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C120" s="13">
+    <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="12">
         <v>31003</v>
       </c>
-      <c r="D120" s="13">
+      <c r="D121" s="12">
         <v>31</v>
       </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13">
+      <c r="E121" s="12"/>
+      <c r="F121" s="12">
         <v>0</v>
       </c>
-      <c r="G120" s="12">
+      <c r="G121" s="11">
         <v>0</v>
       </c>
-      <c r="H120" s="14" t="s">
+      <c r="H121" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I120" s="10" t="s">
+      <c r="I121" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C121" s="13">
+    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="12">
         <v>31004</v>
       </c>
-      <c r="D121" s="13">
+      <c r="D122" s="12">
         <v>31</v>
       </c>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12">
         <v>0</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G122" s="11">
         <v>0</v>
       </c>
-      <c r="H121" s="14" t="s">
+      <c r="H122" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I121" s="10" t="s">
+      <c r="I122" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C122" s="13">
+    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="12">
         <v>31005</v>
       </c>
-      <c r="D122" s="13">
+      <c r="D123" s="12">
         <v>31</v>
       </c>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13">
+      <c r="E123" s="12"/>
+      <c r="F123" s="12">
         <v>0</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G123" s="11">
         <v>0</v>
       </c>
-      <c r="H122" s="14" t="s">
+      <c r="H123" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="I123" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C123" s="13">
+    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="12">
         <v>31006</v>
       </c>
-      <c r="D123" s="13">
+      <c r="D124" s="12">
         <v>31</v>
       </c>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13">
+      <c r="E124" s="12"/>
+      <c r="F124" s="12">
         <v>0</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G124" s="11">
         <v>0</v>
       </c>
-      <c r="H123" s="14" t="s">
+      <c r="H124" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="I123" s="10" t="s">
+      <c r="I124" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C124" s="13">
+    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="12">
         <v>31007</v>
       </c>
-      <c r="D124" s="13">
+      <c r="D125" s="12">
         <v>31</v>
       </c>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12">
         <v>0</v>
       </c>
-      <c r="G124" s="12">
+      <c r="G125" s="11">
         <v>0</v>
       </c>
-      <c r="H124" s="14" t="s">
+      <c r="H125" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I124" s="10" t="s">
+      <c r="I125" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C125" s="13">
+    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="12">
         <v>32001</v>
       </c>
-      <c r="D125" s="13">
+      <c r="D126" s="12">
         <v>32</v>
       </c>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13">
+      <c r="E126" s="12"/>
+      <c r="F126" s="12">
         <v>1</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="G126" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H125" s="12" t="s">
+      <c r="H126" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I125" s="10" t="s">
+      <c r="I126" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C126" s="13">
+    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="12">
         <v>32002</v>
       </c>
-      <c r="D126" s="13">
+      <c r="D127" s="12">
         <v>32</v>
       </c>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13">
+      <c r="E127" s="12"/>
+      <c r="F127" s="12">
         <v>1</v>
       </c>
-      <c r="G126" s="12" t="s">
+      <c r="G127" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H126" s="12" t="s">
+      <c r="H127" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I126" s="10" t="s">
+      <c r="I127" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C127" s="13">
+    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="12">
         <v>32003</v>
       </c>
-      <c r="D127" s="13">
+      <c r="D128" s="12">
         <v>32</v>
       </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12">
         <v>1</v>
       </c>
-      <c r="G127" s="12" t="s">
+      <c r="G128" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H127" s="12" t="s">
+      <c r="H128" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I127" s="10" t="s">
+      <c r="I128" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="128" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C128" s="13">
+    <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="12">
         <v>32004</v>
       </c>
-      <c r="D128" s="13">
+      <c r="D129" s="12">
         <v>32</v>
       </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13">
+      <c r="E129" s="12"/>
+      <c r="F129" s="12">
         <v>1</v>
       </c>
-      <c r="G128" s="12" t="s">
+      <c r="G129" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H128" s="12" t="s">
+      <c r="H129" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I128" s="10" t="s">
+      <c r="I129" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="129" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C129" s="13">
+    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="12">
         <v>32005</v>
       </c>
-      <c r="D129" s="13">
+      <c r="D130" s="12">
         <v>32</v>
       </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13">
+      <c r="E130" s="12"/>
+      <c r="F130" s="12">
         <v>1</v>
       </c>
-      <c r="G129" s="12" t="s">
+      <c r="G130" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H129" s="12" t="s">
+      <c r="H130" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I129" s="10" t="s">
+      <c r="I130" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="130" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C130" s="13">
+    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="12">
         <v>32006</v>
       </c>
-      <c r="D130" s="13">
+      <c r="D131" s="12">
         <v>32</v>
       </c>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13">
+      <c r="E131" s="12"/>
+      <c r="F131" s="12">
         <v>1</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="G131" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H130" s="12" t="s">
+      <c r="H131" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="I130" s="10" t="s">
+      <c r="I131" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C131" s="13">
+    <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="12">
         <v>32007</v>
       </c>
-      <c r="D131" s="13">
+      <c r="D132" s="12">
         <v>32</v>
       </c>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13">
+      <c r="E132" s="12"/>
+      <c r="F132" s="12">
         <v>1</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G132" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="H131" s="12" t="s">
+      <c r="H132" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="I131" s="10" t="s">
+      <c r="I132" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="132" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C132" s="13">
+    <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="12">
         <v>32008</v>
       </c>
-      <c r="D132" s="13">
+      <c r="D133" s="12">
         <v>32</v>
       </c>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13">
+      <c r="E133" s="12"/>
+      <c r="F133" s="12">
         <v>1</v>
       </c>
-      <c r="G132" s="12" t="s">
+      <c r="G133" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H132" s="12" t="s">
+      <c r="H133" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="I132" s="10" t="s">
+      <c r="I133" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C133" s="13">
+    <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="12">
         <v>33001</v>
       </c>
-      <c r="D133" s="13">
+      <c r="D134" s="12">
         <v>33</v>
       </c>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13" t="s">
+      <c r="E134" s="12"/>
+      <c r="F134" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="10" t="s">
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="134" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C134" s="13">
+    <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="12">
         <v>33002</v>
       </c>
-      <c r="D134" s="13">
+      <c r="D135" s="12">
         <v>33</v>
       </c>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13" t="s">
+      <c r="E135" s="12"/>
+      <c r="F135" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="10" t="s">
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C135" s="13">
+    <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="12">
         <v>33003</v>
       </c>
-      <c r="D135" s="13">
+      <c r="D136" s="12">
         <v>33</v>
       </c>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13" t="s">
+      <c r="E136" s="12"/>
+      <c r="F136" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="10" t="s">
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="136" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C136" s="13">
+    <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="12">
         <v>33004</v>
       </c>
-      <c r="D136" s="13">
+      <c r="D137" s="12">
         <v>33</v>
       </c>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13" t="s">
+      <c r="E137" s="12"/>
+      <c r="F137" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="10" t="s">
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="137" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C137" s="13">
+    <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="12">
         <v>33005</v>
       </c>
-      <c r="D137" s="13">
+      <c r="D138" s="12">
         <v>33</v>
       </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13" t="s">
+      <c r="E138" s="12"/>
+      <c r="F138" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="10" t="s">
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="138" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C138" s="13">
+    <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="12">
         <v>33006</v>
       </c>
-      <c r="D138" s="13">
+      <c r="D139" s="12">
         <v>33</v>
       </c>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13" t="s">
+      <c r="E139" s="12"/>
+      <c r="F139" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="10" t="s">
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="139" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C139" s="13">
+    <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="12">
         <v>33007</v>
       </c>
-      <c r="D139" s="13">
+      <c r="D140" s="12">
         <v>33</v>
       </c>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13" t="s">
+      <c r="E140" s="12"/>
+      <c r="F140" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="10" t="s">
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="140" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C140" s="13">
+    <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="12">
         <v>33008</v>
       </c>
-      <c r="D140" s="13">
+      <c r="D141" s="12">
         <v>33</v>
       </c>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13" t="s">
+      <c r="E141" s="12"/>
+      <c r="F141" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="10" t="s">
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="141" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C141" s="13">
+    <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="12">
         <v>33009</v>
       </c>
-      <c r="D141" s="13">
+      <c r="D142" s="12">
         <v>33</v>
       </c>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13" t="s">
+      <c r="E142" s="12"/>
+      <c r="F142" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="10" t="s">
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="142" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C142" s="13">
+    <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="12">
         <v>33010</v>
       </c>
-      <c r="D142" s="13">
+      <c r="D143" s="12">
         <v>33</v>
       </c>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13" t="s">
+      <c r="E143" s="12"/>
+      <c r="F143" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="10" t="s">
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="143" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C143" s="13">
+    <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="12">
         <v>33011</v>
       </c>
-      <c r="D143" s="13">
+      <c r="D144" s="12">
         <v>33</v>
       </c>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13" t="s">
+      <c r="E144" s="12"/>
+      <c r="F144" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="10" t="s">
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="144" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C144" s="13">
+    <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="12">
         <v>33012</v>
       </c>
-      <c r="D144" s="13">
+      <c r="D145" s="12">
         <v>33</v>
       </c>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13" t="s">
+      <c r="E145" s="12"/>
+      <c r="F145" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="10" t="s">
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="145" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C145" s="13">
+    <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="12">
         <v>33013</v>
       </c>
-      <c r="D145" s="13">
+      <c r="D146" s="12">
         <v>33</v>
       </c>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13" t="s">
+      <c r="E146" s="12"/>
+      <c r="F146" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="10" t="s">
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="146" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C146" s="13">
+    <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="12">
         <v>33014</v>
       </c>
-      <c r="D146" s="13">
+      <c r="D147" s="12">
         <v>33</v>
       </c>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13" t="s">
+      <c r="E147" s="12"/>
+      <c r="F147" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="10" t="s">
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="147" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C147" s="13">
+    <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="12">
         <v>33015</v>
       </c>
-      <c r="D147" s="13">
+      <c r="D148" s="12">
         <v>33</v>
       </c>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13" t="s">
+      <c r="E148" s="12"/>
+      <c r="F148" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="10" t="s">
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="148" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C148" s="13">
+    <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="12">
         <v>33016</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D149" s="12">
         <v>33</v>
       </c>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13" t="s">
+      <c r="E149" s="12"/>
+      <c r="F149" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="10" t="s">
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="149" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C149" s="13">
+    <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="12">
         <v>33017</v>
       </c>
-      <c r="D149" s="13">
+      <c r="D150" s="12">
         <v>33</v>
       </c>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13" t="s">
+      <c r="E150" s="12"/>
+      <c r="F150" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="10" t="s">
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="150" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C150" s="13">
+    <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="12">
         <v>33018</v>
       </c>
-      <c r="D150" s="13">
+      <c r="D151" s="12">
         <v>33</v>
       </c>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13" t="s">
+      <c r="E151" s="12"/>
+      <c r="F151" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="10" t="s">
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="151" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C151" s="13">
+    <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="12">
         <v>33019</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D152" s="12">
         <v>33</v>
       </c>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13" t="s">
+      <c r="E152" s="12"/>
+      <c r="F152" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="10" t="s">
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="152" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C152" s="13">
+    <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="12">
         <v>33020</v>
       </c>
-      <c r="D152" s="13">
+      <c r="D153" s="12">
         <v>33</v>
       </c>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13" t="s">
+      <c r="E153" s="12"/>
+      <c r="F153" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="10" t="s">
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="153" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C153" s="13">
+    <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="12">
         <v>34001</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D154" s="12">
         <v>34</v>
       </c>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13">
+      <c r="E154" s="12"/>
+      <c r="F154" s="12">
         <v>12</v>
       </c>
-      <c r="G153" s="12" t="s">
+      <c r="G154" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="H153" s="12" t="s">
+      <c r="H154" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="I153" s="10" t="s">
+      <c r="I154" s="9" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="154" ht="20.1" customHeight="1"/>
-    <row r="155" ht="20.1" customHeight="1"/>
-    <row r="156" ht="20.1" customHeight="1"/>
-    <row r="157" ht="20.1" customHeight="1"/>
-    <row r="158" ht="20.1" customHeight="1"/>
-    <row r="159" ht="20.1" customHeight="1"/>
-    <row r="160" ht="20.1" customHeight="1"/>
-    <row r="161" ht="20.1" customHeight="1"/>
-    <row r="162" ht="20.1" customHeight="1"/>
-    <row r="163" ht="20.1" customHeight="1"/>
-    <row r="164" ht="20.1" customHeight="1"/>
-    <row r="165" ht="20.1" customHeight="1"/>
-    <row r="166" ht="20.1" customHeight="1"/>
-    <row r="167" ht="20.1" customHeight="1"/>
-    <row r="168" ht="20.1" customHeight="1"/>
-    <row r="169" ht="20.1" customHeight="1"/>
-    <row r="170" ht="20.1" customHeight="1"/>
-    <row r="171" ht="20.1" customHeight="1"/>
-    <row r="172" ht="20.1" customHeight="1"/>
-    <row r="173" ht="20.1" customHeight="1"/>
-    <row r="174" ht="20.1" customHeight="1"/>
-    <row r="175" ht="20.1" customHeight="1"/>
-    <row r="176" ht="20.1" customHeight="1"/>
-    <row r="177" ht="20.1" customHeight="1"/>
-    <row r="178" ht="20.1" customHeight="1"/>
-    <row r="179" ht="20.1" customHeight="1"/>
-    <row r="180" ht="20.1" customHeight="1"/>
+    <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6740E014-7C7C-476D-82EC-78F6819286BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77CB7D8-52ED-46BA-AC9D-504EAF1EA5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1050" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
     <t>公共序列号weijing666</t>
   </si>
   <si>
-    <t>3;50000@10010041;50@10000152;50@10000136;20@10000143;50@10049102;1@10049101;1</t>
+    <t>3;50000@10000157;20@10000152;50@10000136;20@10000143;50@10049102;1@10049101;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3187,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="D111" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77CB7D8-52ED-46BA-AC9D-504EAF1EA5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D4202D-686C-46B5-A8BA-7851022F2A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1050" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -3187,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D111" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3874,7 +3874,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="9">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>69</v>
@@ -3895,7 +3895,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="9">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>71</v>
@@ -3916,7 +3916,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="9">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>72</v>
@@ -3937,7 +3937,7 @@
         <v>30</v>
       </c>
       <c r="G35" s="9">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>73</v>
@@ -3958,7 +3958,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>74</v>
@@ -3979,7 +3979,7 @@
         <v>40</v>
       </c>
       <c r="G37" s="9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>75</v>
@@ -4000,7 +4000,7 @@
         <v>9000</v>
       </c>
       <c r="G38" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>76</v>
@@ -4021,7 +4021,7 @@
         <v>14000</v>
       </c>
       <c r="G39" s="9">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>78</v>
@@ -4042,7 +4042,7 @@
         <v>20000</v>
       </c>
       <c r="G40" s="9">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>79</v>
@@ -4063,7 +4063,7 @@
         <v>28000</v>
       </c>
       <c r="G41" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>80</v>
@@ -4084,7 +4084,7 @@
         <v>36000</v>
       </c>
       <c r="G42" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>81</v>
@@ -4105,7 +4105,7 @@
         <v>45000</v>
       </c>
       <c r="G43" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>82</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D4202D-686C-46B5-A8BA-7851022F2A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5000CB-C40C-45F3-9C8C-8945665E0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="255">
   <si>
     <t>Id</t>
   </si>
@@ -381,42 +381,24 @@
     <t>3;980</t>
   </si>
   <si>
-    <t>10010098;10@10010099;1@10000132;100</t>
-  </si>
-  <si>
     <t>宠物箱子</t>
   </si>
   <si>
-    <t>10010098;10@10010099;1@10000131;100</t>
-  </si>
-  <si>
     <t>Activ106</t>
   </si>
   <si>
-    <t>10010042;10@10010042;10@10010043;1</t>
-  </si>
-  <si>
     <t>金币礼包</t>
   </si>
   <si>
-    <t>10010042;10@10010041;20@10010041;20</t>
-  </si>
-  <si>
     <t>经验礼包</t>
   </si>
   <si>
     <t>Activ102</t>
   </si>
   <si>
-    <t>10010083;20@10000141;1@10000141;1</t>
-  </si>
-  <si>
     <t>洗炼礼包</t>
   </si>
   <si>
-    <t>10010083;20@10010085;100@10000142;1</t>
-  </si>
-  <si>
     <t>晶石礼包</t>
   </si>
   <si>
@@ -424,60 +406,6 @@
   </si>
   <si>
     <t>1,19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3;9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10021010;500@10021008;10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@10021009;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
   </si>
   <si>
     <t>材料礼包</t>
@@ -626,24 +554,9 @@
     <t>Activ104</t>
   </si>
   <si>
-    <t>10010042;5@10000121;1@10000121;1</t>
-  </si>
-  <si>
     <t>装备宝箱</t>
   </si>
   <si>
-    <t>10010042;5@10000122;1@10000122;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000123;1@10000123;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000124;1@10000124;1</t>
-  </si>
-  <si>
-    <t>10010042;5@10000125;1@10000125;1</t>
-  </si>
-  <si>
     <t>Activ105</t>
   </si>
   <si>
@@ -1224,6 +1137,120 @@
   </si>
   <si>
     <t>3;50000@10000157;20@10000152;50@10000136;20@10000143;50@10049102;1@10049101;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肖礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;20@10010085;1000@10000142;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010051;2@10010052;1@10010037;50</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010040;1@10010041;20@10010041;20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010040;1@10010045;2@10010043;10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010083;20@10000141;1@10000141;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010093;1@10010099;1@10000132;100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010093;1@10010099;1@10000131;100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10021010;500@10021008;10@10021009;5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3;480</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;5@10000122;2@10000143;7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000157;20@10010043;5@10010046;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000150;1@10010040;1@10010045;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,999</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;980</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3;980</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;5@10000121;2@10000143;6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;5@10000123;2@10000143;8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;5@10000124;2@10000143;9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;5@10000125;2@10000143;10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000143;10@10000152;5@10020001;500</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activ104</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2458,7 +2485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2501,6 +2528,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2888,7 +2918,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G29" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="活动类型"/>
@@ -3185,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I181"/>
+  <dimension ref="C1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3287,10 +3317,10 @@
         <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3310,10 +3340,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3324,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
@@ -3333,10 +3363,10 @@
         <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3347,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
@@ -3356,10 +3386,10 @@
         <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3370,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
@@ -3379,10 +3409,10 @@
         <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3393,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7">
         <v>1999</v>
@@ -3402,10 +3432,10 @@
         <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3416,19 +3446,19 @@
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>33</v>
+        <v>241</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3439,19 +3469,19 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3462,19 +3492,19 @@
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="I14" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3485,19 +3515,19 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="I15" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3508,19 +3538,19 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3531,19 +3561,19 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3554,19 +3584,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3577,19 +3607,19 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3600,19 +3630,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3623,19 +3653,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3646,19 +3676,19 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3669,19 +3699,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3692,19 +3722,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3715,1710 +3745,1718 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="9">
-        <v>10001</v>
-      </c>
-      <c r="D26" s="9">
-        <v>3</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
-        <v>5</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1999</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="9" t="str">
-        <f>F26&amp;"级礼包"</f>
-        <v>5级礼包</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="9">
-        <v>10002</v>
-      </c>
-      <c r="D27" s="9">
-        <v>3</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9">
-        <v>10</v>
+        <v>234</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="9" t="str">
-        <f t="shared" ref="I27:I31" si="0">F27&amp;"级礼包"</f>
-        <v>10级礼包</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="9">
-        <v>10003</v>
-      </c>
-      <c r="D28" s="9">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9">
-        <v>15</v>
+        <v>244</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1999</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>15级礼包</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="9">
-        <v>10004</v>
-      </c>
-      <c r="D29" s="9">
-        <v>3</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9">
-        <v>20</v>
+        <v>245</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>20级礼包</v>
+        <v>248</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="9">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="D30" s="9">
         <v>3</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>25级礼包</v>
+        <f>F30&amp;"级礼包"</f>
+        <v>5级礼包</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="9">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="D31" s="9">
         <v>3</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9">
-        <v>30</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>30级礼包</v>
+        <f t="shared" ref="I31:I35" si="0">F31&amp;"级礼包"</f>
+        <v>10级礼包</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="9">
-        <v>21001</v>
+        <v>10003</v>
       </c>
       <c r="D32" s="9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9">
         <v>15</v>
       </c>
-      <c r="G32" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>70</v>
+      <c r="G32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>15级礼包</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="9">
-        <v>21002</v>
+        <v>10004</v>
       </c>
       <c r="D33" s="9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9">
         <v>20</v>
       </c>
-      <c r="G33" s="9">
-        <v>500</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>70</v>
+      <c r="G33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>20级礼包</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="9">
-        <v>21003</v>
+        <v>10005</v>
       </c>
       <c r="D34" s="9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9">
         <v>25</v>
       </c>
-      <c r="G34" s="9">
-        <v>300</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>70</v>
+      <c r="G34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>25级礼包</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="9">
-        <v>21004</v>
+        <v>10006</v>
       </c>
       <c r="D35" s="9">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9">
         <v>30</v>
       </c>
-      <c r="G35" s="9">
-        <v>200</v>
+      <c r="G35" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>30级礼包</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="9">
-        <v>21005</v>
+        <v>21001</v>
       </c>
       <c r="D36" s="9">
         <v>21</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G36" s="9">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="9">
-        <v>21006</v>
+        <v>21002</v>
       </c>
       <c r="D37" s="9">
         <v>21</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G37" s="9">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="9">
-        <v>22001</v>
+        <v>21003</v>
       </c>
       <c r="D38" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9">
-        <v>9000</v>
+        <v>25</v>
       </c>
       <c r="G38" s="9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="9">
-        <v>22002</v>
+        <v>21004</v>
       </c>
       <c r="D39" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9">
-        <v>14000</v>
+        <v>30</v>
       </c>
       <c r="G39" s="9">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="9">
-        <v>22003</v>
+        <v>21005</v>
       </c>
       <c r="D40" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9">
-        <v>20000</v>
+        <v>35</v>
       </c>
       <c r="G40" s="9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="9">
-        <v>22004</v>
+        <v>21006</v>
       </c>
       <c r="D41" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9">
-        <v>28000</v>
+        <v>40</v>
       </c>
       <c r="G41" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="9">
-        <v>22005</v>
+        <v>22001</v>
       </c>
       <c r="D42" s="9">
         <v>22</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="G42" s="9">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="9">
-        <v>22006</v>
+        <v>22002</v>
       </c>
       <c r="D43" s="9">
         <v>22</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="G43" s="9">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="9">
-        <v>23001</v>
+        <v>22003</v>
       </c>
       <c r="D44" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>83</v>
+        <v>20000</v>
+      </c>
+      <c r="G44" s="9">
+        <v>150</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="9">
-        <v>23002</v>
+        <v>22004</v>
       </c>
       <c r="D45" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9">
-        <v>2</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>83</v>
+        <v>28000</v>
+      </c>
+      <c r="G45" s="9">
+        <v>75</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="9">
-        <v>23003</v>
+        <v>22005</v>
       </c>
       <c r="D46" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9">
-        <v>3</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>83</v>
+        <v>36000</v>
+      </c>
+      <c r="G46" s="9">
+        <v>25</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="9">
-        <v>23004</v>
+        <v>22006</v>
       </c>
       <c r="D47" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9">
-        <v>4</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>83</v>
+        <v>45000</v>
+      </c>
+      <c r="G47" s="9">
+        <v>10</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="9">
-        <v>23005</v>
+        <v>23001</v>
       </c>
       <c r="D48" s="9">
         <v>23</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="9">
-        <v>23006</v>
+        <v>23002</v>
       </c>
       <c r="D49" s="9">
         <v>23</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="9">
-        <v>23007</v>
+        <v>23003</v>
       </c>
       <c r="D50" s="9">
         <v>23</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="9">
-        <v>23008</v>
+        <v>23004</v>
       </c>
       <c r="D51" s="9">
         <v>23</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="9">
-        <v>23009</v>
+        <v>23005</v>
       </c>
       <c r="D52" s="9">
         <v>23</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="9">
-        <v>23010</v>
+        <v>23006</v>
       </c>
       <c r="D53" s="9">
         <v>23</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="9">
-        <v>23011</v>
+        <v>23007</v>
       </c>
       <c r="D54" s="9">
         <v>23</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="9">
-        <v>23012</v>
+        <v>23008</v>
       </c>
       <c r="D55" s="9">
         <v>23</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="9">
-        <v>23013</v>
+        <v>23009</v>
       </c>
       <c r="D56" s="9">
         <v>23</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="9">
-        <v>23014</v>
+        <v>23010</v>
       </c>
       <c r="D57" s="9">
         <v>23</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="9">
-        <v>23015</v>
+        <v>23011</v>
       </c>
       <c r="D58" s="9">
         <v>23</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="9">
-        <v>23016</v>
+        <v>23012</v>
       </c>
       <c r="D59" s="9">
         <v>23</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="9">
-        <v>23017</v>
+        <v>23013</v>
       </c>
       <c r="D60" s="9">
         <v>23</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="9">
-        <v>23018</v>
+        <v>23014</v>
       </c>
       <c r="D61" s="9">
         <v>23</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="9">
-        <v>23019</v>
+        <v>23015</v>
       </c>
       <c r="D62" s="9">
         <v>23</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="9">
-        <v>23020</v>
+        <v>23016</v>
       </c>
       <c r="D63" s="9">
         <v>23</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="9">
-        <v>23021</v>
+        <v>23017</v>
       </c>
       <c r="D64" s="9">
         <v>23</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="9">
-        <v>23022</v>
+        <v>23018</v>
       </c>
       <c r="D65" s="9">
         <v>23</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="9">
-        <v>23023</v>
+        <v>23019</v>
       </c>
       <c r="D66" s="9">
         <v>23</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="9">
-        <v>23024</v>
+        <v>23020</v>
       </c>
       <c r="D67" s="9">
         <v>23</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="9">
-        <v>23025</v>
+        <v>23021</v>
       </c>
       <c r="D68" s="9">
         <v>23</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="9">
-        <v>23026</v>
+        <v>23022</v>
       </c>
       <c r="D69" s="9">
         <v>23</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="9">
-        <v>23027</v>
+        <v>23023</v>
       </c>
       <c r="D70" s="9">
         <v>23</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="9">
-        <v>23028</v>
+        <v>23024</v>
       </c>
       <c r="D71" s="9">
         <v>23</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="9">
-        <v>23029</v>
+        <v>23025</v>
       </c>
       <c r="D72" s="9">
         <v>23</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="9">
-        <v>23030</v>
+        <v>23026</v>
       </c>
       <c r="D73" s="9">
         <v>23</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="9">
-        <v>24001</v>
+        <v>23027</v>
       </c>
       <c r="D74" s="9">
-        <v>24</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="10">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9">
+        <v>27</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="9">
-        <v>24002</v>
+        <v>23028</v>
       </c>
       <c r="D75" s="9">
-        <v>24</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="10">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9">
+        <v>28</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="9">
-        <v>24003</v>
+        <v>23029</v>
       </c>
       <c r="D76" s="9">
-        <v>24</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="10">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9">
+        <v>29</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="9">
-        <v>24004</v>
+        <v>23030</v>
       </c>
       <c r="D77" s="9">
-        <v>24</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="10">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9">
+        <v>30</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="9">
-        <v>24005</v>
+        <v>24001</v>
       </c>
       <c r="D78" s="9">
         <v>24</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="10">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="9">
-        <v>24006</v>
+        <v>24002</v>
       </c>
       <c r="D79" s="9">
         <v>24</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="9">
-        <v>24007</v>
+        <v>24003</v>
       </c>
       <c r="D80" s="9">
         <v>24</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="9">
-        <v>24008</v>
+        <v>24004</v>
       </c>
       <c r="D81" s="9">
         <v>24</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="10">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="9">
-        <v>24009</v>
+        <v>24005</v>
       </c>
       <c r="D82" s="9">
         <v>24</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="9">
-        <v>24010</v>
+        <v>24006</v>
       </c>
       <c r="D83" s="9">
         <v>24</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="9">
-        <v>24011</v>
+        <v>24007</v>
       </c>
       <c r="D84" s="9">
         <v>24</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="10">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="9">
-        <v>24012</v>
+        <v>24008</v>
       </c>
       <c r="D85" s="9">
         <v>24</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="10">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="9">
-        <v>24013</v>
+        <v>24009</v>
       </c>
       <c r="D86" s="9">
         <v>24</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="9">
-        <v>24014</v>
+        <v>24010</v>
       </c>
       <c r="D87" s="9">
         <v>24</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="10">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="9">
-        <v>24015</v>
+        <v>24011</v>
       </c>
       <c r="D88" s="9">
         <v>24</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="10">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="9">
-        <v>24016</v>
+        <v>24012</v>
       </c>
       <c r="D89" s="9">
         <v>24</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="10">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="9">
-        <v>24017</v>
+        <v>24013</v>
       </c>
       <c r="D90" s="9">
         <v>24</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="10">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="9">
-        <v>24018</v>
+        <v>24014</v>
       </c>
       <c r="D91" s="9">
         <v>24</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="10">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="9">
-        <v>24019</v>
+        <v>24015</v>
       </c>
       <c r="D92" s="9">
         <v>24</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="10">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>109</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="9">
-        <v>24020</v>
+        <v>24016</v>
       </c>
       <c r="D93" s="9">
         <v>24</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="10">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="9">
-        <v>24021</v>
+        <v>24017</v>
       </c>
       <c r="D94" s="9">
         <v>24</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="10">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="9">
-        <v>24022</v>
+        <v>24018</v>
       </c>
       <c r="D95" s="9">
         <v>24</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="10">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="9">
-        <v>24023</v>
+        <v>24019</v>
       </c>
       <c r="D96" s="9">
         <v>24</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="10">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="9">
-        <v>24024</v>
+        <v>24020</v>
       </c>
       <c r="D97" s="9">
         <v>24</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="10">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="9">
-        <v>24025</v>
+        <v>24021</v>
       </c>
       <c r="D98" s="9">
         <v>24</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="10">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="9">
-        <v>24026</v>
+        <v>24022</v>
       </c>
       <c r="D99" s="9">
         <v>24</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="10">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="9">
-        <v>24027</v>
+        <v>24023</v>
       </c>
       <c r="D100" s="9">
         <v>24</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="10">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="9">
-        <v>24028</v>
+        <v>24024</v>
       </c>
       <c r="D101" s="9">
         <v>24</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="10">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="9">
-        <v>30001</v>
-      </c>
-      <c r="D102" s="12">
-        <v>101</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12">
-        <v>1</v>
-      </c>
-      <c r="G102" s="11">
-        <v>100</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>139</v>
+        <v>24025</v>
+      </c>
+      <c r="D102" s="9">
+        <v>24</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="10">
+        <v>53</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="9">
-        <v>30002</v>
-      </c>
-      <c r="D103" s="12">
-        <v>101</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12">
-        <v>1</v>
-      </c>
-      <c r="G103" s="11">
-        <v>300</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>141</v>
+        <v>24026</v>
+      </c>
+      <c r="D103" s="9">
+        <v>24</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="10">
+        <v>55</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="9">
-        <v>30003</v>
-      </c>
-      <c r="D104" s="12">
-        <v>101</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12">
-        <v>1</v>
-      </c>
-      <c r="G104" s="11">
-        <v>700</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>143</v>
+        <v>24027</v>
+      </c>
+      <c r="D104" s="9">
+        <v>24</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="10">
+        <v>57</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="9">
-        <v>30004</v>
-      </c>
-      <c r="D105" s="12">
-        <v>101</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12">
-        <v>1</v>
-      </c>
-      <c r="G105" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>145</v>
+        <v>24028</v>
+      </c>
+      <c r="D105" s="9">
+        <v>24</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="10">
+        <v>59</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="9">
-        <v>30005</v>
+        <v>30001</v>
       </c>
       <c r="D106" s="12">
         <v>101</v>
@@ -5428,18 +5466,18 @@
         <v>1</v>
       </c>
       <c r="G106" s="11">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="9">
-        <v>30006</v>
+        <v>30002</v>
       </c>
       <c r="D107" s="12">
         <v>101</v>
@@ -5449,18 +5487,18 @@
         <v>1</v>
       </c>
       <c r="G107" s="11">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="9">
-        <v>30007</v>
+        <v>30003</v>
       </c>
       <c r="D108" s="12">
         <v>101</v>
@@ -5470,18 +5508,18 @@
         <v>1</v>
       </c>
       <c r="G108" s="11">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="9">
-        <v>30008</v>
+        <v>30004</v>
       </c>
       <c r="D109" s="12">
         <v>101</v>
@@ -5491,18 +5529,18 @@
         <v>1</v>
       </c>
       <c r="G109" s="11">
-        <v>13000</v>
+        <v>1500</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="9">
-        <v>30009</v>
+        <v>30005</v>
       </c>
       <c r="D110" s="12">
         <v>101</v>
@@ -5512,18 +5550,18 @@
         <v>1</v>
       </c>
       <c r="G110" s="11">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="9">
-        <v>30010</v>
+        <v>30006</v>
       </c>
       <c r="D111" s="12">
         <v>101</v>
@@ -5533,18 +5571,18 @@
         <v>1</v>
       </c>
       <c r="G111" s="11">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="9">
-        <v>30011</v>
+        <v>30007</v>
       </c>
       <c r="D112" s="12">
         <v>101</v>
@@ -5554,18 +5592,18 @@
         <v>1</v>
       </c>
       <c r="G112" s="11">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="9">
-        <v>30012</v>
+        <v>30008</v>
       </c>
       <c r="D113" s="12">
         <v>101</v>
@@ -5575,18 +5613,18 @@
         <v>1</v>
       </c>
       <c r="G113" s="11">
-        <v>75000</v>
+        <v>13000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="9">
-        <v>30013</v>
+        <v>30009</v>
       </c>
       <c r="D114" s="12">
         <v>101</v>
@@ -5596,18 +5634,18 @@
         <v>1</v>
       </c>
       <c r="G114" s="11">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="9">
-        <v>30014</v>
+        <v>30010</v>
       </c>
       <c r="D115" s="12">
         <v>101</v>
@@ -5617,18 +5655,18 @@
         <v>1</v>
       </c>
       <c r="G115" s="11">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="9">
-        <v>30015</v>
+        <v>30011</v>
       </c>
       <c r="D116" s="12">
         <v>101</v>
@@ -5638,18 +5676,18 @@
         <v>1</v>
       </c>
       <c r="G116" s="11">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="9">
-        <v>30016</v>
+        <v>30012</v>
       </c>
       <c r="D117" s="12">
         <v>101</v>
@@ -5659,18 +5697,18 @@
         <v>1</v>
       </c>
       <c r="G117" s="11">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="9">
-        <v>30017</v>
+        <v>30013</v>
       </c>
       <c r="D118" s="12">
         <v>101</v>
@@ -5680,102 +5718,102 @@
         <v>1</v>
       </c>
       <c r="G118" s="11">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="12">
-        <v>31001</v>
+      <c r="C119" s="9">
+        <v>30014</v>
       </c>
       <c r="D119" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="11">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="12">
-        <v>31002</v>
+      <c r="C120" s="9">
+        <v>30015</v>
       </c>
       <c r="D120" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="11">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="12">
-        <v>31003</v>
+      <c r="C121" s="9">
+        <v>30016</v>
       </c>
       <c r="D121" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="11">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="12">
-        <v>31004</v>
+      <c r="C122" s="9">
+        <v>30017</v>
       </c>
       <c r="D122" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="11">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="12">
-        <v>31005</v>
+        <v>31001</v>
       </c>
       <c r="D123" s="12">
         <v>31</v>
@@ -5788,15 +5826,15 @@
         <v>0</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="12">
-        <v>31006</v>
+        <v>31002</v>
       </c>
       <c r="D124" s="12">
         <v>31</v>
@@ -5809,15 +5847,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="12">
-        <v>31007</v>
+        <v>31003</v>
       </c>
       <c r="D125" s="12">
         <v>31</v>
@@ -5830,99 +5868,99 @@
         <v>0</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="12">
-        <v>32001</v>
+        <v>31004</v>
       </c>
       <c r="D126" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12">
-        <v>1</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H126" s="11" t="s">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="G126" s="11">
+        <v>0</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="12">
-        <v>32002</v>
+        <v>31005</v>
       </c>
       <c r="D127" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12">
-        <v>1</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>189</v>
+        <v>0</v>
+      </c>
+      <c r="G127" s="11">
+        <v>0</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="12">
-        <v>32003</v>
+        <v>31006</v>
       </c>
       <c r="D128" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12">
-        <v>1</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H128" s="11" t="s">
-        <v>191</v>
+        <v>0</v>
+      </c>
+      <c r="G128" s="11">
+        <v>0</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="12">
-        <v>32004</v>
+        <v>31007</v>
       </c>
       <c r="D129" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12">
-        <v>1</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H129" s="11" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="G129" s="11">
+        <v>0</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="12">
-        <v>32005</v>
+        <v>32001</v>
       </c>
       <c r="D130" s="12">
         <v>32</v>
@@ -5932,18 +5970,18 @@
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="12">
-        <v>32006</v>
+        <v>32002</v>
       </c>
       <c r="D131" s="12">
         <v>32</v>
@@ -5953,18 +5991,18 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="12">
-        <v>32007</v>
+        <v>32003</v>
       </c>
       <c r="D132" s="12">
         <v>32</v>
@@ -5974,18 +6012,18 @@
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="12">
-        <v>32008</v>
+        <v>32004</v>
       </c>
       <c r="D133" s="12">
         <v>32</v>
@@ -5995,380 +6033,460 @@
         <v>1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="12">
-        <v>33001</v>
+        <v>32005</v>
       </c>
       <c r="D134" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E134" s="12"/>
-      <c r="F134" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
+      <c r="F134" s="12">
+        <v>1</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="I134" s="9" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="12">
-        <v>33002</v>
+        <v>32006</v>
       </c>
       <c r="D135" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E135" s="12"/>
-      <c r="F135" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
+      <c r="F135" s="12">
+        <v>1</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="I135" s="9" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="12">
-        <v>33003</v>
+        <v>32007</v>
       </c>
       <c r="D136" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E136" s="12"/>
-      <c r="F136" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
+      <c r="F136" s="12">
+        <v>1</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="I136" s="9" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="12">
-        <v>33004</v>
+        <v>32008</v>
       </c>
       <c r="D137" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E137" s="12"/>
-      <c r="F137" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="F137" s="12">
+        <v>1</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="I137" s="9" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="12">
-        <v>33005</v>
+        <v>33001</v>
       </c>
       <c r="D138" s="12">
         <v>33</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="9" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="12">
-        <v>33006</v>
+        <v>33002</v>
       </c>
       <c r="D139" s="12">
         <v>33</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="9" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="12">
-        <v>33007</v>
+        <v>33003</v>
       </c>
       <c r="D140" s="12">
         <v>33</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="9" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="12">
-        <v>33008</v>
+        <v>33004</v>
       </c>
       <c r="D141" s="12">
         <v>33</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="9" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="12">
-        <v>33009</v>
+        <v>33005</v>
       </c>
       <c r="D142" s="12">
         <v>33</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="9" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="12">
-        <v>33010</v>
+        <v>33006</v>
       </c>
       <c r="D143" s="12">
         <v>33</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="9" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="12">
-        <v>33011</v>
+        <v>33007</v>
       </c>
       <c r="D144" s="12">
         <v>33</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="9" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="12">
-        <v>33012</v>
+        <v>33008</v>
       </c>
       <c r="D145" s="12">
         <v>33</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="9" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="12">
-        <v>33013</v>
+        <v>33009</v>
       </c>
       <c r="D146" s="12">
         <v>33</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="9" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="12">
-        <v>33014</v>
+        <v>33010</v>
       </c>
       <c r="D147" s="12">
         <v>33</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="9" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="12">
-        <v>33015</v>
+        <v>33011</v>
       </c>
       <c r="D148" s="12">
         <v>33</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="9" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="12">
-        <v>33016</v>
+        <v>33012</v>
       </c>
       <c r="D149" s="12">
         <v>33</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="9" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="12">
-        <v>33017</v>
+        <v>33013</v>
       </c>
       <c r="D150" s="12">
         <v>33</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="9" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="12">
-        <v>33018</v>
+        <v>33014</v>
       </c>
       <c r="D151" s="12">
         <v>33</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="9" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="12">
-        <v>33019</v>
+        <v>33015</v>
       </c>
       <c r="D152" s="12">
         <v>33</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="9" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="12">
-        <v>33020</v>
+        <v>33016</v>
       </c>
       <c r="D153" s="12">
         <v>33</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="9" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="12">
+        <v>33017</v>
+      </c>
+      <c r="D154" s="12">
+        <v>33</v>
+      </c>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="12">
+        <v>33018</v>
+      </c>
+      <c r="D155" s="12">
+        <v>33</v>
+      </c>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C156" s="12">
+        <v>33019</v>
+      </c>
+      <c r="D156" s="12">
+        <v>33</v>
+      </c>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="12">
+        <v>33020</v>
+      </c>
+      <c r="D157" s="12">
+        <v>33</v>
+      </c>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C158" s="12">
         <v>34001</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D158" s="12">
         <v>34</v>
       </c>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12">
+      <c r="E158" s="12"/>
+      <c r="F158" s="12">
         <v>12</v>
       </c>
-      <c r="G154" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I154" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G158" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
     <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6392,6 +6510,10 @@
     <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5000CB-C40C-45F3-9C8C-8945665E0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29CC39-00C9-4987-80D2-95AB9D1AD77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1193,15 +1193,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10010042;5@10000122;2@10000143;7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>深渊礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000157;20@10010043;5@10010046;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1230,27 +1222,35 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10010042;5@10000121;2@10000143;6</t>
+    <t>Activ104</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10010042;5@10000123;2@10000143;8</t>
+    <t>10010042;5@10000121;2@10000143;3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10010042;5@10000124;2@10000143;9</t>
+    <t>10010042;5@10000125;2@10000143;5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10010042;5@10000125;2@10000143;10</t>
+    <t>10010042;5@10000122;2@10000143;3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>10000143;10@10000152;5@10020001;500</t>
+    <t>10010042;5@10000123;2@10000143;4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Activ104</t>
+    <t>10010042;5@10000124;2@10000143;4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000143;3@10000152;3@10020001;500</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000157;10@10010043;5@10010046;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3217,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3541,7 +3541,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>241</v>
@@ -3567,10 +3567,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>36</v>
@@ -3584,7 +3584,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
@@ -3593,7 +3593,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>36</v>
@@ -3616,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>36</v>
@@ -3639,7 +3639,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>36</v>
@@ -3662,7 +3662,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>36</v>
@@ -3800,7 +3800,7 @@
         <v>16</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>232</v>
@@ -3823,10 +3823,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3840,10 +3840,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>253</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29CC39-00C9-4987-80D2-95AB9D1AD77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE4AC8-352C-4FF4-AC64-DAFA5F23F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="256">
   <si>
     <t>Id</t>
   </si>
@@ -1251,6 +1251,10 @@
   </si>
   <si>
     <t>10000157;10@10010043;5@10010046;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>17级探险家奖励</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2485,7 +2489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2533,6 +2537,7 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="313">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3215,10 +3220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I185"/>
+  <dimension ref="C1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="E100" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110:J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5265,7 +5270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="9">
         <v>24020</v>
       </c>
@@ -5286,7 +5291,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="9">
         <v>24021</v>
       </c>
@@ -5307,7 +5312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="9">
         <v>24022</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="9">
         <v>24023</v>
       </c>
@@ -5349,7 +5354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="9">
         <v>24024</v>
       </c>
@@ -5370,7 +5375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="9">
         <v>24025</v>
       </c>
@@ -5391,7 +5396,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="9">
         <v>24026</v>
       </c>
@@ -5412,7 +5417,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="9">
         <v>24027</v>
       </c>
@@ -5433,7 +5438,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="9">
         <v>24028</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="9">
         <v>30001</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="9">
         <v>30002</v>
       </c>
@@ -5496,7 +5501,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="9">
         <v>30003</v>
       </c>
@@ -5517,7 +5522,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="9">
         <v>30004</v>
       </c>
@@ -5538,7 +5543,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="9">
         <v>30005</v>
       </c>
@@ -5558,8 +5563,9 @@
       <c r="I110" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="9">
         <v>30006</v>
       </c>
@@ -5579,8 +5585,11 @@
       <c r="I111" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="9">
         <v>30007</v>
       </c>
@@ -5600,8 +5609,11 @@
       <c r="I112" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J112" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="9">
         <v>30008</v>
       </c>
@@ -5621,8 +5633,11 @@
       <c r="I113" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J113" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="9">
         <v>30009</v>
       </c>
@@ -5642,8 +5657,11 @@
       <c r="I114" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J114" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="9">
         <v>30010</v>
       </c>
@@ -5663,8 +5681,11 @@
       <c r="I115" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J115" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="9">
         <v>30011</v>
       </c>
@@ -5684,8 +5705,11 @@
       <c r="I116" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J116" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="9">
         <v>30012</v>
       </c>
@@ -5705,8 +5729,11 @@
       <c r="I117" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J117" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="9">
         <v>30013</v>
       </c>
@@ -5726,8 +5753,9 @@
       <c r="I118" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="9">
         <v>30014</v>
       </c>
@@ -5747,8 +5775,9 @@
       <c r="I119" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J119" s="17"/>
+    </row>
+    <row r="120" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="9">
         <v>30015</v>
       </c>
@@ -5769,7 +5798,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="9">
         <v>30016</v>
       </c>
@@ -5790,7 +5819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="9">
         <v>30017</v>
       </c>
@@ -5808,10 +5837,10 @@
         <v>230</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="12">
         <v>31001</v>
       </c>
@@ -5832,7 +5861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="12">
         <v>31002</v>
       </c>
@@ -5853,7 +5882,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="12">
         <v>31003</v>
       </c>
@@ -5874,7 +5903,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="12">
         <v>31004</v>
       </c>
@@ -5895,7 +5924,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="12">
         <v>31005</v>
       </c>
@@ -5916,7 +5945,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="12">
         <v>31006</v>
       </c>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE4AC8-352C-4FF4-AC64-DAFA5F23F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A04E45-F493-4271-B7A2-3004CAC4F17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
@@ -848,9 +848,6 @@
     <t>4级探险家奖励</t>
   </si>
   <si>
-    <t>3;1500@10010041;20@10010083;40@10000136;10@10010045;1@10000133;1@10000156;1</t>
-  </si>
-  <si>
     <t>5级探险家奖励</t>
   </si>
   <si>
@@ -1255,6 +1252,10 @@
   </si>
   <si>
     <t>17级探险家奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;1500@10010041;20@10010083;40@10000143;10@10010045;1@10000133;1@10000156;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3223,7 +3224,7 @@
   <dimension ref="C1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E100" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110:J119"/>
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3322,7 +3323,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>17</v>
@@ -3345,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
@@ -3368,7 +3369,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>19</v>
@@ -3391,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>20</v>
@@ -3414,7 +3415,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>22</v>
@@ -3437,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>23</v>
@@ -3457,10 +3458,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>26</v>
@@ -3480,7 +3481,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>28</v>
@@ -3503,7 +3504,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>30</v>
@@ -3526,7 +3527,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>32</v>
@@ -3546,10 +3547,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>34</v>
@@ -3572,10 +3573,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>36</v>
@@ -3589,7 +3590,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
@@ -3598,7 +3599,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>36</v>
@@ -3621,7 +3622,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>36</v>
@@ -3644,7 +3645,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>36</v>
@@ -3667,7 +3668,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>36</v>
@@ -3782,10 +3783,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3805,10 +3806,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3828,10 +3829,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3845,13 +3846,13 @@
         <v>24</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>26</v>
@@ -5558,10 +5559,10 @@
         <v>3000</v>
       </c>
       <c r="H110" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I110" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="J110" s="10"/>
     </row>
@@ -5580,14 +5581,12 @@
         <v>5000</v>
       </c>
       <c r="H111" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I111" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I111" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J111" s="10">
-        <v>10</v>
-      </c>
+      <c r="J111" s="10"/>
     </row>
     <row r="112" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="9">
@@ -5604,14 +5603,12 @@
         <v>8000</v>
       </c>
       <c r="H112" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I112" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I112" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J112" s="10">
-        <v>10</v>
-      </c>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="9">
@@ -5628,14 +5625,12 @@
         <v>13000</v>
       </c>
       <c r="H113" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I113" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I113" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J113" s="10">
-        <v>10</v>
-      </c>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="9">
@@ -5652,14 +5647,12 @@
         <v>20000</v>
       </c>
       <c r="H114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I114" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I114" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J114" s="10">
-        <v>10</v>
-      </c>
+      <c r="J114" s="10"/>
     </row>
     <row r="115" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="9">
@@ -5676,14 +5669,12 @@
         <v>30000</v>
       </c>
       <c r="H115" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I115" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I115" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J115" s="10">
-        <v>10</v>
-      </c>
+      <c r="J115" s="10"/>
     </row>
     <row r="116" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="9">
@@ -5700,14 +5691,12 @@
         <v>50000</v>
       </c>
       <c r="H116" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I116" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I116" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J116" s="10">
-        <v>20</v>
-      </c>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="9">
@@ -5724,14 +5713,12 @@
         <v>75000</v>
       </c>
       <c r="H117" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I117" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I117" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="J117" s="10">
-        <v>20</v>
-      </c>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="9">
@@ -5748,10 +5735,10 @@
         <v>100000</v>
       </c>
       <c r="H118" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I118" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="J118" s="10"/>
     </row>
@@ -5770,10 +5757,10 @@
         <v>150000</v>
       </c>
       <c r="H119" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I119" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="I119" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="J119" s="17"/>
     </row>
@@ -5792,10 +5779,10 @@
         <v>200000</v>
       </c>
       <c r="H120" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I120" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="121" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5813,10 +5800,10 @@
         <v>300000</v>
       </c>
       <c r="H121" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I121" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="I121" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="122" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5834,10 +5821,10 @@
         <v>500000</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5855,10 +5842,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I123" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="124" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5876,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I124" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="125" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5897,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="H125" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I125" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="I125" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="126" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5918,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="H126" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I126" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="I126" s="9" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="127" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5939,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I127" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="I127" s="9" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="128" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5960,10 +5947,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I128" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="I128" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5981,10 +5968,10 @@
         <v>0</v>
       </c>
       <c r="H129" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I129" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5999,13 +5986,13 @@
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H130" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H130" s="11" t="s">
+      <c r="I130" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="I130" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6020,13 +6007,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H131" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H131" s="11" t="s">
-        <v>176</v>
-      </c>
       <c r="I131" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6041,13 +6028,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H132" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H132" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="I132" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6062,13 +6049,13 @@
         <v>1</v>
       </c>
       <c r="G133" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H133" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H133" s="11" t="s">
-        <v>180</v>
-      </c>
       <c r="I133" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6083,13 +6070,13 @@
         <v>1</v>
       </c>
       <c r="G134" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H134" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H134" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="I134" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6104,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="G135" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H135" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="I135" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6125,13 +6112,13 @@
         <v>1</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6146,13 +6133,13 @@
         <v>1</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6164,12 +6151,12 @@
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6181,12 +6168,12 @@
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6198,12 +6185,12 @@
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6215,12 +6202,12 @@
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6232,12 +6219,12 @@
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6249,12 +6236,12 @@
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6266,12 +6253,12 @@
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6283,12 +6270,12 @@
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6300,12 +6287,12 @@
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6317,12 +6304,12 @@
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6334,12 +6321,12 @@
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6351,12 +6338,12 @@
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6368,12 +6355,12 @@
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6385,12 +6372,12 @@
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6402,12 +6389,12 @@
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6419,12 +6406,12 @@
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6436,12 +6423,12 @@
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6453,12 +6440,12 @@
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6470,12 +6457,12 @@
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6487,12 +6474,12 @@
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6507,13 +6494,13 @@
         <v>12</v>
       </c>
       <c r="G158" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H158" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H158" s="11" t="s">
+      <c r="I158" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="I158" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A04E45-F493-4271-B7A2-3004CAC4F17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB9F21-746E-4B42-A791-7ED2FA55CE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="271">
   <si>
     <t>Id</t>
   </si>
@@ -659,25 +659,13 @@
     <t>10000151;1@5;20@10010044;1</t>
   </si>
   <si>
-    <t>10010042;1@10010041;3</t>
-  </si>
-  <si>
     <t>签到礼包</t>
   </si>
   <si>
-    <t>10010042;1@10000101;1</t>
-  </si>
-  <si>
     <t>10010042;1@10010083;5</t>
   </si>
   <si>
     <t>10010042;1@10000131;5</t>
-  </si>
-  <si>
-    <t>10010042;1@10010085;20</t>
-  </si>
-  <si>
-    <t>10010042;1@10010034;2</t>
   </si>
   <si>
     <t>10010042;1@10000132;5</t>
@@ -1257,6 +1245,63 @@
   <si>
     <t>3;1500@10010041;20@10010083;40@10000143;10@10010045;1@10000133;1@10000156;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010091;1@10010041;3</t>
+  </si>
+  <si>
+    <t>10010033;1@10000101;1</t>
+  </si>
+  <si>
+    <t>10010048;1@10010083;5</t>
+  </si>
+  <si>
+    <t>10000155;1@10000131;5</t>
+  </si>
+  <si>
+    <t>10010048;1@10010085;50</t>
+  </si>
+  <si>
+    <t>10010039;1@10010083;5</t>
+  </si>
+  <si>
+    <t>10000104;1@10000132;5</t>
+  </si>
+  <si>
+    <t>10010099;1@10010098;5</t>
+  </si>
+  <si>
+    <t>10000158;1@10010085;50</t>
+  </si>
+  <si>
+    <t>10000155;1@10010098;5</t>
+  </si>
+  <si>
+    <t>10010039;1@10010085;50</t>
+  </si>
+  <si>
+    <t>10000143;1@10000131;5</t>
+  </si>
+  <si>
+    <t>10010039;1@10000132;5</t>
+  </si>
+  <si>
+    <t>10010039;1@10010098;5</t>
+  </si>
+  <si>
+    <t>10010042;1@10010085;50</t>
+  </si>
+  <si>
+    <t>10000158;1@10010083;5</t>
+  </si>
+  <si>
+    <t>10010039;1@10000131;5</t>
+  </si>
+  <si>
+    <t>10000155;1@10010083;5</t>
+  </si>
+  <si>
+    <t>10000143;1@10010085;50</t>
   </si>
 </sst>
 </file>
@@ -3223,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E100" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3323,7 +3368,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>17</v>
@@ -3346,7 +3391,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
@@ -3369,7 +3414,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>19</v>
@@ -3392,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>20</v>
@@ -3415,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>22</v>
@@ -3438,7 +3483,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>23</v>
@@ -3458,10 +3503,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>26</v>
@@ -3481,7 +3526,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>28</v>
@@ -3504,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>30</v>
@@ -3527,7 +3572,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>32</v>
@@ -3547,10 +3592,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>34</v>
@@ -3573,10 +3618,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>36</v>
@@ -3590,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
@@ -3599,7 +3644,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>36</v>
@@ -3622,7 +3667,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>36</v>
@@ -3645,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>36</v>
@@ -3668,7 +3713,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>36</v>
@@ -3783,10 +3828,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3806,10 +3851,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3829,10 +3874,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3846,13 +3891,13 @@
         <v>24</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>26</v>
@@ -4257,10 +4302,10 @@
         <v>70</v>
       </c>
       <c r="H48" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,10 +4323,10 @@
         <v>70</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4299,10 +4344,10 @@
         <v>70</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4320,10 +4365,10 @@
         <v>70</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4341,10 +4386,10 @@
         <v>70</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4362,10 +4407,10 @@
         <v>70</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4383,10 +4428,10 @@
         <v>70</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4404,10 +4449,10 @@
         <v>70</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4425,10 +4470,10 @@
         <v>70</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4446,10 +4491,10 @@
         <v>70</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4467,10 +4512,10 @@
         <v>70</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4488,10 +4533,10 @@
         <v>70</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4509,10 +4554,10 @@
         <v>70</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4530,10 +4575,10 @@
         <v>70</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4551,10 +4596,10 @@
         <v>70</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4572,10 +4617,10 @@
         <v>70</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4593,10 +4638,10 @@
         <v>70</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4614,10 +4659,10 @@
         <v>70</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4635,10 +4680,10 @@
         <v>70</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4656,10 +4701,10 @@
         <v>70</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4677,10 +4722,10 @@
         <v>70</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4698,10 +4743,10 @@
         <v>70</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4719,10 +4764,10 @@
         <v>70</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4740,10 +4785,10 @@
         <v>70</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4761,10 +4806,10 @@
         <v>70</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4782,10 +4827,10 @@
         <v>70</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4803,10 +4848,10 @@
         <v>70</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4824,10 +4869,10 @@
         <v>70</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4845,10 +4890,10 @@
         <v>70</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4866,10 +4911,10 @@
         <v>70</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4884,13 +4929,13 @@
         <v>5</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4905,13 +4950,13 @@
         <v>7</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4926,13 +4971,13 @@
         <v>9</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4947,13 +4992,13 @@
         <v>11</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4968,13 +5013,13 @@
         <v>13</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4989,13 +5034,13 @@
         <v>15</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5010,13 +5055,13 @@
         <v>17</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5031,13 +5076,13 @@
         <v>19</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,13 +5097,13 @@
         <v>21</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5073,13 +5118,13 @@
         <v>23</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5094,13 +5139,13 @@
         <v>25</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H88" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5115,13 +5160,13 @@
         <v>27</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5136,13 +5181,13 @@
         <v>29</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5157,13 +5202,13 @@
         <v>31</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5178,13 +5223,13 @@
         <v>33</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5199,13 +5244,13 @@
         <v>35</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5220,13 +5265,13 @@
         <v>37</v>
       </c>
       <c r="G94" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5241,13 +5286,13 @@
         <v>39</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5262,13 +5307,13 @@
         <v>41</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5283,13 +5328,13 @@
         <v>43</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5304,13 +5349,13 @@
         <v>45</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5325,13 +5370,13 @@
         <v>47</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5346,13 +5391,13 @@
         <v>49</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5367,13 +5412,13 @@
         <v>51</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5388,13 +5433,13 @@
         <v>53</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5409,13 +5454,13 @@
         <v>55</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H103" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I103" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="104" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5430,13 +5475,13 @@
         <v>57</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5451,13 +5496,13 @@
         <v>59</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5475,10 +5520,10 @@
         <v>100</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5496,10 +5541,10 @@
         <v>300</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5517,10 +5562,10 @@
         <v>700</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5538,10 +5583,10 @@
         <v>1500</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5559,10 +5604,10 @@
         <v>3000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J110" s="10"/>
     </row>
@@ -5581,10 +5626,10 @@
         <v>5000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J111" s="10"/>
     </row>
@@ -5603,10 +5648,10 @@
         <v>8000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J112" s="10"/>
     </row>
@@ -5625,10 +5670,10 @@
         <v>13000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J113" s="10"/>
     </row>
@@ -5647,10 +5692,10 @@
         <v>20000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J114" s="10"/>
     </row>
@@ -5669,10 +5714,10 @@
         <v>30000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J115" s="10"/>
     </row>
@@ -5691,10 +5736,10 @@
         <v>50000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J116" s="10"/>
     </row>
@@ -5713,10 +5758,10 @@
         <v>75000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J117" s="10"/>
     </row>
@@ -5735,10 +5780,10 @@
         <v>100000</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J118" s="10"/>
     </row>
@@ -5757,10 +5802,10 @@
         <v>150000</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J119" s="17"/>
     </row>
@@ -5779,10 +5824,10 @@
         <v>200000</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5800,10 +5845,10 @@
         <v>300000</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5821,10 +5866,10 @@
         <v>500000</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5842,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5863,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5884,10 +5929,10 @@
         <v>0</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5905,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5926,10 +5971,10 @@
         <v>0</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5947,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5968,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5986,13 +6031,13 @@
         <v>1</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6007,13 +6052,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6028,13 +6073,13 @@
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6049,13 +6094,13 @@
         <v>1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6070,13 +6115,13 @@
         <v>1</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6091,13 +6136,13 @@
         <v>1</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6112,13 +6157,13 @@
         <v>1</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6133,13 +6178,13 @@
         <v>1</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6151,12 +6196,12 @@
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6168,12 +6213,12 @@
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6185,12 +6230,12 @@
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6202,12 +6247,12 @@
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6219,12 +6264,12 @@
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6236,12 +6281,12 @@
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6253,12 +6298,12 @@
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6270,12 +6315,12 @@
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6287,12 +6332,12 @@
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6304,12 +6349,12 @@
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6321,12 +6366,12 @@
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6338,12 +6383,12 @@
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6355,12 +6400,12 @@
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6372,12 +6417,12 @@
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6389,12 +6434,12 @@
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6406,12 +6451,12 @@
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6423,12 +6468,12 @@
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6440,12 +6485,12 @@
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6457,12 +6502,12 @@
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6474,12 +6519,12 @@
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6494,13 +6539,13 @@
         <v>12</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB9F21-746E-4B42-A791-7ED2FA55CE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE111B1-DC57-430A-8C8C-73A13F1E5580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="273">
   <si>
     <t>Id</t>
   </si>
@@ -1302,6 +1302,14 @@
   </si>
   <si>
     <t>10000143;1@10010085;50</t>
+  </si>
+  <si>
+    <t>18级探险家奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;100000@10000157;20@10000152;50@10000136;20@10000143;50@10049104;1@10010026;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3266,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J185"/>
+  <dimension ref="C1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E41" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="D101" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5873,29 +5881,29 @@
       </c>
     </row>
     <row r="123" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="12">
-        <v>31001</v>
+      <c r="C123" s="9">
+        <v>30018</v>
       </c>
       <c r="D123" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="11">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="12">
-        <v>31002</v>
+        <v>31001</v>
       </c>
       <c r="D124" s="12">
         <v>31</v>
@@ -5908,15 +5916,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="12">
-        <v>31003</v>
+        <v>31002</v>
       </c>
       <c r="D125" s="12">
         <v>31</v>
@@ -5929,15 +5937,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="12">
-        <v>31004</v>
+        <v>31003</v>
       </c>
       <c r="D126" s="12">
         <v>31</v>
@@ -5950,15 +5958,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="12">
-        <v>31005</v>
+        <v>31004</v>
       </c>
       <c r="D127" s="12">
         <v>31</v>
@@ -5971,15 +5979,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="12">
-        <v>31006</v>
+        <v>31005</v>
       </c>
       <c r="D128" s="12">
         <v>31</v>
@@ -5992,15 +6000,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="12">
-        <v>31007</v>
+        <v>31006</v>
       </c>
       <c r="D129" s="12">
         <v>31</v>
@@ -6013,36 +6021,36 @@
         <v>0</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="12">
-        <v>32001</v>
+        <v>31007</v>
       </c>
       <c r="D130" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12">
-        <v>1</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>168</v>
+        <v>0</v>
+      </c>
+      <c r="G130" s="11">
+        <v>0</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="12">
-        <v>32002</v>
+        <v>32001</v>
       </c>
       <c r="D131" s="12">
         <v>32</v>
@@ -6052,10 +6060,10 @@
         <v>1</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I131" s="9" t="s">
         <v>169</v>
@@ -6063,7 +6071,7 @@
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="12">
-        <v>32003</v>
+        <v>32002</v>
       </c>
       <c r="D132" s="12">
         <v>32</v>
@@ -6073,10 +6081,10 @@
         <v>1</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>169</v>
@@ -6084,7 +6092,7 @@
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="12">
-        <v>32004</v>
+        <v>32003</v>
       </c>
       <c r="D133" s="12">
         <v>32</v>
@@ -6094,10 +6102,10 @@
         <v>1</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>169</v>
@@ -6105,7 +6113,7 @@
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="12">
-        <v>32005</v>
+        <v>32004</v>
       </c>
       <c r="D134" s="12">
         <v>32</v>
@@ -6115,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I134" s="9" t="s">
         <v>169</v>
@@ -6126,7 +6134,7 @@
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="12">
-        <v>32006</v>
+        <v>32005</v>
       </c>
       <c r="D135" s="12">
         <v>32</v>
@@ -6136,10 +6144,10 @@
         <v>1</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I135" s="9" t="s">
         <v>169</v>
@@ -6147,7 +6155,7 @@
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="12">
-        <v>32007</v>
+        <v>32006</v>
       </c>
       <c r="D136" s="12">
         <v>32</v>
@@ -6157,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>179</v>
@@ -6168,7 +6176,7 @@
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="12">
-        <v>32008</v>
+        <v>32007</v>
       </c>
       <c r="D137" s="12">
         <v>32</v>
@@ -6178,7 +6186,7 @@
         <v>1</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>179</v>
@@ -6189,366 +6197,386 @@
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="12">
-        <v>33001</v>
+        <v>32008</v>
       </c>
       <c r="D138" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E138" s="12"/>
-      <c r="F138" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+      <c r="F138" s="12">
+        <v>1</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H138" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="I138" s="9" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="12">
-        <v>33002</v>
+        <v>33001</v>
       </c>
       <c r="D139" s="12">
         <v>33</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="12">
-        <v>33003</v>
+        <v>33002</v>
       </c>
       <c r="D140" s="12">
         <v>33</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="12">
-        <v>33004</v>
+        <v>33003</v>
       </c>
       <c r="D141" s="12">
         <v>33</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="12">
-        <v>33005</v>
+        <v>33004</v>
       </c>
       <c r="D142" s="12">
         <v>33</v>
       </c>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="12">
-        <v>33006</v>
+        <v>33005</v>
       </c>
       <c r="D143" s="12">
         <v>33</v>
       </c>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="12">
-        <v>33007</v>
+        <v>33006</v>
       </c>
       <c r="D144" s="12">
         <v>33</v>
       </c>
       <c r="E144" s="12"/>
       <c r="F144" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="12">
-        <v>33008</v>
+        <v>33007</v>
       </c>
       <c r="D145" s="12">
         <v>33</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="12">
-        <v>33009</v>
+        <v>33008</v>
       </c>
       <c r="D146" s="12">
         <v>33</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="12">
-        <v>33010</v>
+        <v>33009</v>
       </c>
       <c r="D147" s="12">
         <v>33</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="12">
-        <v>33011</v>
+        <v>33010</v>
       </c>
       <c r="D148" s="12">
         <v>33</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="12">
-        <v>33012</v>
+        <v>33011</v>
       </c>
       <c r="D149" s="12">
         <v>33</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="12">
-        <v>33013</v>
+        <v>33012</v>
       </c>
       <c r="D150" s="12">
         <v>33</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="12">
-        <v>33014</v>
+        <v>33013</v>
       </c>
       <c r="D151" s="12">
         <v>33</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="12">
-        <v>33015</v>
+        <v>33014</v>
       </c>
       <c r="D152" s="12">
         <v>33</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="12">
-        <v>33016</v>
+        <v>33015</v>
       </c>
       <c r="D153" s="12">
         <v>33</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="12">
-        <v>33017</v>
+        <v>33016</v>
       </c>
       <c r="D154" s="12">
         <v>33</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="12">
-        <v>33018</v>
+        <v>33017</v>
       </c>
       <c r="D155" s="12">
         <v>33</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="12">
-        <v>33019</v>
+        <v>33018</v>
       </c>
       <c r="D156" s="12">
         <v>33</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="12">
-        <v>33020</v>
+        <v>33019</v>
       </c>
       <c r="D157" s="12">
         <v>33</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="12">
+        <v>33020</v>
+      </c>
+      <c r="D158" s="12">
+        <v>33</v>
+      </c>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C159" s="12">
         <v>34001</v>
       </c>
-      <c r="D158" s="12">
+      <c r="D159" s="12">
         <v>34</v>
       </c>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12">
+      <c r="E159" s="12"/>
+      <c r="F159" s="12">
         <v>12</v>
       </c>
-      <c r="G158" s="11" t="s">
+      <c r="G159" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H158" s="11" t="s">
+      <c r="H159" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="I158" s="9" t="s">
+      <c r="I159" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6575,6 +6603,7 @@
     <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE111B1-DC57-430A-8C8C-73A13F1E5580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4A657-A130-4634-8DF3-58C40CE949EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="282">
   <si>
     <t>Id</t>
   </si>
@@ -623,18 +623,6 @@
     <t>1;50000@10010083;10@10021008;3@10000122;1</t>
   </si>
   <si>
-    <t>1;100000@10010083;15@10021008;3@10021009;2</t>
-  </si>
-  <si>
-    <t>1;150000@10010083;20@10022008;3@10000103;1@10000123;1</t>
-  </si>
-  <si>
-    <t>1;200000@10010083;25@10022008;3@10010033;1@10022009;2</t>
-  </si>
-  <si>
-    <t>1;250000@10010083;30@10023008;3@10023009;2@10000124;1</t>
-  </si>
-  <si>
     <t>1;50000@10010083;10</t>
   </si>
   <si>
@@ -651,9 +639,6 @@
   </si>
   <si>
     <t>1;200000@10010083;25@10010085;200@10010026;1@10010046;1</t>
-  </si>
-  <si>
-    <t>1;250000@10010083;30@10010085;300@10000143;10@10010046;1</t>
   </si>
   <si>
     <t>10000151;1@5;20@10010044;1</t>
@@ -1309,6 +1294,62 @@
   </si>
   <si>
     <t>3;100000@10000157;20@10000152;50@10000136;20@10000143;50@10049104;1@10010026;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@10010083;15@10022008;3@10022009;2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;200000@10010083;25@10023008;3@10010033;1@10023009;2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;150000@10010083;20@10023008;3@10000103;1@10000123;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10024008;3@10024009;2@10000158;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;250000@10010083;30@10024008;3@10024009;2@10000124;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10025008;3@10025009;2@10000125;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10025008;3@10025009;2@10000158;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10023008;3@10023009;2@10000143;2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10023008;3@10023009;2@10000143;3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10010085;750@10000143;10@10010046;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10010085;1000@10000143;10@10010046;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;250000@10010083;30@10010085;300@10000143;5@10010046;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10010085;300@10000143;5@10010046;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10010085;500@10000143;5@10010046;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3274,10 +3315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J186"/>
+  <dimension ref="C1:J196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D101" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3376,7 +3417,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>17</v>
@@ -3399,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
@@ -3422,7 +3463,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>19</v>
@@ -3445,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>20</v>
@@ -3468,7 +3509,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>22</v>
@@ -3491,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>23</v>
@@ -3511,10 +3552,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>26</v>
@@ -3534,7 +3575,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>28</v>
@@ -3557,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>30</v>
@@ -3580,7 +3621,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>32</v>
@@ -3600,10 +3641,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>34</v>
@@ -3626,10 +3667,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>36</v>
@@ -3643,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>27</v>
@@ -3652,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>36</v>
@@ -3675,7 +3716,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>36</v>
@@ -3698,7 +3739,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>36</v>
@@ -3721,7 +3762,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>36</v>
@@ -3836,10 +3877,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3859,10 +3900,10 @@
         <v>16</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3882,10 +3923,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3899,13 +3940,13 @@
         <v>24</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>26</v>
@@ -4100,7 +4141,7 @@
         <v>300</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>57</v>
@@ -4121,7 +4162,7 @@
         <v>200</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>57</v>
@@ -4142,7 +4183,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>57</v>
@@ -4163,7 +4204,7 @@
         <v>50</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>62</v>
+        <v>272</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>57</v>
@@ -4171,1567 +4212,1561 @@
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="9">
-        <v>22001</v>
+        <v>21007</v>
       </c>
       <c r="D42" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9">
-        <v>9000</v>
+        <v>45</v>
       </c>
       <c r="G42" s="9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="9">
-        <v>22002</v>
+        <v>21008</v>
       </c>
       <c r="D43" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9">
-        <v>14000</v>
+        <v>50</v>
       </c>
       <c r="G43" s="9">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="9">
-        <v>22003</v>
+        <v>21009</v>
       </c>
       <c r="D44" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9">
-        <v>20000</v>
+        <v>55</v>
       </c>
       <c r="G44" s="9">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="9">
-        <v>22004</v>
+        <v>21010</v>
       </c>
       <c r="D45" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9">
-        <v>28000</v>
+        <v>60</v>
       </c>
       <c r="G45" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="9">
-        <v>22005</v>
+        <v>21011</v>
       </c>
       <c r="D46" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9">
-        <v>36000</v>
+        <v>65</v>
       </c>
       <c r="G46" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="9">
-        <v>22006</v>
+        <v>22001</v>
       </c>
       <c r="D47" s="9">
         <v>22</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9">
-        <v>45000</v>
+        <v>9000</v>
       </c>
       <c r="G47" s="9">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="9">
-        <v>23001</v>
+        <v>22002</v>
       </c>
       <c r="D48" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>70</v>
+        <v>14000</v>
+      </c>
+      <c r="G48" s="9">
+        <v>300</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="9">
-        <v>23002</v>
+        <v>22003</v>
       </c>
       <c r="D49" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9">
-        <v>2</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>70</v>
+        <v>20000</v>
+      </c>
+      <c r="G49" s="9">
+        <v>150</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="9">
-        <v>23003</v>
+        <v>22004</v>
       </c>
       <c r="D50" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9">
-        <v>3</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>70</v>
+        <v>28000</v>
+      </c>
+      <c r="G50" s="9">
+        <v>75</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="9">
-        <v>23004</v>
+        <v>22005</v>
       </c>
       <c r="D51" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9">
-        <v>4</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>70</v>
+        <v>36000</v>
+      </c>
+      <c r="G51" s="9">
+        <v>25</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="9">
-        <v>23005</v>
+        <v>22006</v>
       </c>
       <c r="D52" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9">
-        <v>5</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>70</v>
+        <v>45000</v>
+      </c>
+      <c r="G52" s="9">
+        <v>10</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="9">
-        <v>23006</v>
+        <v>22007</v>
       </c>
       <c r="D53" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9">
-        <v>6</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>70</v>
+        <v>60000</v>
+      </c>
+      <c r="G53" s="9">
+        <v>10</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="9">
-        <v>23007</v>
+        <v>22008</v>
       </c>
       <c r="D54" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9">
-        <v>7</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>70</v>
+        <v>75000</v>
+      </c>
+      <c r="G54" s="9">
+        <v>10</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="9">
-        <v>23008</v>
+        <v>22009</v>
       </c>
       <c r="D55" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9">
-        <v>8</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>70</v>
+        <v>90000</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="9">
-        <v>23009</v>
+        <v>22010</v>
       </c>
       <c r="D56" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9">
-        <v>9</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>70</v>
+        <v>105000</v>
+      </c>
+      <c r="G56" s="9">
+        <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="9">
-        <v>23010</v>
+        <v>22011</v>
       </c>
       <c r="D57" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9">
-        <v>10</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>70</v>
+        <v>120000</v>
+      </c>
+      <c r="G57" s="9">
+        <v>5</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="9">
-        <v>23011</v>
+        <v>23001</v>
       </c>
       <c r="D58" s="9">
         <v>23</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="9">
-        <v>23012</v>
+        <v>23002</v>
       </c>
       <c r="D59" s="9">
         <v>23</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="9">
-        <v>23013</v>
+        <v>23003</v>
       </c>
       <c r="D60" s="9">
         <v>23</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="9">
-        <v>23014</v>
+        <v>23004</v>
       </c>
       <c r="D61" s="9">
         <v>23</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="9">
-        <v>23015</v>
+        <v>23005</v>
       </c>
       <c r="D62" s="9">
         <v>23</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="9">
-        <v>23016</v>
+        <v>23006</v>
       </c>
       <c r="D63" s="9">
         <v>23</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="9">
-        <v>23017</v>
+        <v>23007</v>
       </c>
       <c r="D64" s="9">
         <v>23</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="9">
-        <v>23018</v>
+        <v>23008</v>
       </c>
       <c r="D65" s="9">
         <v>23</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="9">
-        <v>23019</v>
+        <v>23009</v>
       </c>
       <c r="D66" s="9">
         <v>23</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="9">
-        <v>23020</v>
+        <v>23010</v>
       </c>
       <c r="D67" s="9">
         <v>23</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="9">
-        <v>23021</v>
+        <v>23011</v>
       </c>
       <c r="D68" s="9">
         <v>23</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="9">
-        <v>23022</v>
+        <v>23012</v>
       </c>
       <c r="D69" s="9">
         <v>23</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="9">
-        <v>23023</v>
+        <v>23013</v>
       </c>
       <c r="D70" s="9">
         <v>23</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="9">
-        <v>23024</v>
+        <v>23014</v>
       </c>
       <c r="D71" s="9">
         <v>23</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="9">
-        <v>23025</v>
+        <v>23015</v>
       </c>
       <c r="D72" s="9">
         <v>23</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="9">
-        <v>23026</v>
+        <v>23016</v>
       </c>
       <c r="D73" s="9">
         <v>23</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="9">
-        <v>23027</v>
+        <v>23017</v>
       </c>
       <c r="D74" s="9">
         <v>23</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="9">
-        <v>23028</v>
+        <v>23018</v>
       </c>
       <c r="D75" s="9">
         <v>23</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="9">
-        <v>23029</v>
+        <v>23019</v>
       </c>
       <c r="D76" s="9">
         <v>23</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="9">
-        <v>23030</v>
+        <v>23020</v>
       </c>
       <c r="D77" s="9">
         <v>23</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="9">
-        <v>24001</v>
+        <v>23021</v>
       </c>
       <c r="D78" s="9">
-        <v>24</v>
-      </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="10">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9">
+        <v>21</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="9">
-        <v>24002</v>
+        <v>23022</v>
       </c>
       <c r="D79" s="9">
-        <v>24</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="10">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9">
+        <v>22</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="9">
-        <v>24003</v>
+        <v>23023</v>
       </c>
       <c r="D80" s="9">
-        <v>24</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="10">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9">
+        <v>23</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="9">
-        <v>24004</v>
+        <v>23024</v>
       </c>
       <c r="D81" s="9">
+        <v>23</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9">
         <v>24</v>
       </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="10">
-        <v>11</v>
-      </c>
       <c r="G81" s="9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="9">
-        <v>24005</v>
+        <v>23025</v>
       </c>
       <c r="D82" s="9">
-        <v>24</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="10">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9">
+        <v>25</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="9">
-        <v>24006</v>
+        <v>23026</v>
       </c>
       <c r="D83" s="9">
-        <v>24</v>
-      </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="10">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9">
+        <v>26</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="9">
-        <v>24007</v>
+        <v>23027</v>
       </c>
       <c r="D84" s="9">
-        <v>24</v>
-      </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="10">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9">
+        <v>27</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="9">
-        <v>24008</v>
+        <v>23028</v>
       </c>
       <c r="D85" s="9">
-        <v>24</v>
-      </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="10">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9">
+        <v>28</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="9">
-        <v>24009</v>
+        <v>23029</v>
       </c>
       <c r="D86" s="9">
-        <v>24</v>
-      </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="10">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9">
+        <v>29</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="9">
-        <v>24010</v>
+        <v>23030</v>
       </c>
       <c r="D87" s="9">
-        <v>24</v>
-      </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="10">
         <v>23</v>
       </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9">
+        <v>30</v>
+      </c>
       <c r="G87" s="9" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="9">
-        <v>24011</v>
+        <v>24001</v>
       </c>
       <c r="D88" s="9">
         <v>24</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="10">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="9">
-        <v>24012</v>
+        <v>24002</v>
       </c>
       <c r="D89" s="9">
         <v>24</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="10">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="9">
-        <v>24013</v>
+        <v>24003</v>
       </c>
       <c r="D90" s="9">
         <v>24</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="10">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="9">
-        <v>24014</v>
+        <v>24004</v>
       </c>
       <c r="D91" s="9">
         <v>24</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="10">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="9">
-        <v>24015</v>
+        <v>24005</v>
       </c>
       <c r="D92" s="9">
         <v>24</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="9">
-        <v>24016</v>
+        <v>24006</v>
       </c>
       <c r="D93" s="9">
         <v>24</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="10">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="9">
-        <v>24017</v>
+        <v>24007</v>
       </c>
       <c r="D94" s="9">
         <v>24</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="10">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="9">
-        <v>24018</v>
+        <v>24008</v>
       </c>
       <c r="D95" s="9">
         <v>24</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="10">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="9">
-        <v>24019</v>
+        <v>24009</v>
       </c>
       <c r="D96" s="9">
         <v>24</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="10">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="9">
-        <v>24020</v>
+        <v>24010</v>
       </c>
       <c r="D97" s="9">
         <v>24</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="10">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="9">
-        <v>24021</v>
+        <v>24011</v>
       </c>
       <c r="D98" s="9">
         <v>24</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="10">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="9">
-        <v>24022</v>
+        <v>24012</v>
       </c>
       <c r="D99" s="9">
         <v>24</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="10">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="9">
-        <v>24023</v>
+        <v>24013</v>
       </c>
       <c r="D100" s="9">
         <v>24</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="10">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="9">
-        <v>24024</v>
+        <v>24014</v>
       </c>
       <c r="D101" s="9">
         <v>24</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="10">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="9">
-        <v>24025</v>
+        <v>24015</v>
       </c>
       <c r="D102" s="9">
         <v>24</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="10">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="9">
-        <v>24026</v>
+        <v>24016</v>
       </c>
       <c r="D103" s="9">
         <v>24</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="10">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="9">
-        <v>24027</v>
+        <v>24017</v>
       </c>
       <c r="D104" s="9">
         <v>24</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="10">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="9">
-        <v>24028</v>
+        <v>24018</v>
       </c>
       <c r="D105" s="9">
         <v>24</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="10">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="9">
-        <v>30001</v>
-      </c>
-      <c r="D106" s="12">
-        <v>101</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12">
-        <v>1</v>
-      </c>
-      <c r="G106" s="11">
-        <v>100</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>122</v>
+        <v>24019</v>
+      </c>
+      <c r="D106" s="9">
+        <v>24</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="10">
+        <v>41</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="9">
-        <v>30002</v>
-      </c>
-      <c r="D107" s="12">
-        <v>101</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12">
-        <v>1</v>
-      </c>
-      <c r="G107" s="11">
-        <v>300</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>124</v>
+        <v>24020</v>
+      </c>
+      <c r="D107" s="9">
+        <v>24</v>
+      </c>
+      <c r="E107" s="11"/>
+      <c r="F107" s="10">
+        <v>43</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="9">
-        <v>30003</v>
-      </c>
-      <c r="D108" s="12">
-        <v>101</v>
-      </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12">
-        <v>1</v>
-      </c>
-      <c r="G108" s="11">
-        <v>700</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>126</v>
+        <v>24021</v>
+      </c>
+      <c r="D108" s="9">
+        <v>24</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="10">
+        <v>45</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="9">
-        <v>30004</v>
-      </c>
-      <c r="D109" s="12">
-        <v>101</v>
-      </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12">
-        <v>1</v>
-      </c>
-      <c r="G109" s="11">
-        <v>1500</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>128</v>
+        <v>24022</v>
+      </c>
+      <c r="D109" s="9">
+        <v>24</v>
+      </c>
+      <c r="E109" s="11"/>
+      <c r="F109" s="10">
+        <v>47</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="9">
-        <v>30005</v>
-      </c>
-      <c r="D110" s="12">
-        <v>101</v>
-      </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12">
-        <v>1</v>
-      </c>
-      <c r="G110" s="11">
-        <v>3000</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>251</v>
+        <v>24023</v>
+      </c>
+      <c r="D110" s="9">
+        <v>24</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="10">
+        <v>49</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J110" s="10"/>
-    </row>
-    <row r="111" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="9">
-        <v>30006</v>
-      </c>
-      <c r="D111" s="12">
-        <v>101</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12">
-        <v>1</v>
-      </c>
-      <c r="G111" s="11">
-        <v>5000</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>131</v>
+        <v>24024</v>
+      </c>
+      <c r="D111" s="9">
+        <v>24</v>
+      </c>
+      <c r="E111" s="11"/>
+      <c r="F111" s="10">
+        <v>51</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="9">
-        <v>30007</v>
-      </c>
-      <c r="D112" s="12">
-        <v>101</v>
-      </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12">
-        <v>1</v>
-      </c>
-      <c r="G112" s="11">
-        <v>8000</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>133</v>
+        <v>24025</v>
+      </c>
+      <c r="D112" s="9">
+        <v>24</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="10">
+        <v>53</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J112" s="10"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="113" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="9">
-        <v>30008</v>
-      </c>
-      <c r="D113" s="12">
-        <v>101</v>
-      </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12">
-        <v>1</v>
-      </c>
-      <c r="G113" s="11">
-        <v>13000</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>135</v>
+        <v>24026</v>
+      </c>
+      <c r="D113" s="9">
+        <v>24</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="10">
+        <v>55</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J113" s="10"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="114" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="9">
-        <v>30009</v>
-      </c>
-      <c r="D114" s="12">
-        <v>101</v>
-      </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12">
-        <v>1</v>
-      </c>
-      <c r="G114" s="11">
-        <v>20000</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>137</v>
+        <v>24027</v>
+      </c>
+      <c r="D114" s="9">
+        <v>24</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="10">
+        <v>57</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J114" s="10"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="115" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="9">
-        <v>30010</v>
-      </c>
-      <c r="D115" s="12">
-        <v>101</v>
-      </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12">
-        <v>1</v>
-      </c>
-      <c r="G115" s="11">
-        <v>30000</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>139</v>
+        <v>24028</v>
+      </c>
+      <c r="D115" s="9">
+        <v>24</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="10">
+        <v>59</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J115" s="10"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="116" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="9">
-        <v>30011</v>
+        <v>30001</v>
       </c>
       <c r="D116" s="12">
         <v>101</v>
@@ -5741,19 +5776,18 @@
         <v>1</v>
       </c>
       <c r="G116" s="11">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J116" s="10"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="117" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="9">
-        <v>30012</v>
+        <v>30002</v>
       </c>
       <c r="D117" s="12">
         <v>101</v>
@@ -5763,19 +5797,18 @@
         <v>1</v>
       </c>
       <c r="G117" s="11">
-        <v>75000</v>
+        <v>300</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J117" s="10"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="118" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="9">
-        <v>30013</v>
+        <v>30003</v>
       </c>
       <c r="D118" s="12">
         <v>101</v>
@@ -5785,19 +5818,18 @@
         <v>1</v>
       </c>
       <c r="G118" s="11">
-        <v>100000</v>
+        <v>700</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J118" s="10"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="119" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="9">
-        <v>30014</v>
+        <v>30004</v>
       </c>
       <c r="D119" s="12">
         <v>101</v>
@@ -5807,19 +5839,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="11">
-        <v>150000</v>
+        <v>1500</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="J119" s="17"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="120" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="9">
-        <v>30015</v>
+        <v>30005</v>
       </c>
       <c r="D120" s="12">
         <v>101</v>
@@ -5829,18 +5860,19 @@
         <v>1</v>
       </c>
       <c r="G120" s="11">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>150</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="9">
-        <v>30016</v>
+        <v>30006</v>
       </c>
       <c r="D121" s="12">
         <v>101</v>
@@ -5850,18 +5882,19 @@
         <v>1</v>
       </c>
       <c r="G121" s="11">
-        <v>300000</v>
+        <v>5000</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>152</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="9">
-        <v>30017</v>
+        <v>30007</v>
       </c>
       <c r="D122" s="12">
         <v>101</v>
@@ -5871,18 +5904,19 @@
         <v>1</v>
       </c>
       <c r="G122" s="11">
-        <v>500000</v>
+        <v>8000</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>250</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="9">
-        <v>30018</v>
+        <v>30008</v>
       </c>
       <c r="D123" s="12">
         <v>101</v>
@@ -5892,708 +5926,915 @@
         <v>1</v>
       </c>
       <c r="G123" s="11">
-        <v>1000000</v>
+        <v>13000</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>271</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="J123" s="10"/>
     </row>
     <row r="124" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="12">
-        <v>31001</v>
+      <c r="C124" s="9">
+        <v>30009</v>
       </c>
       <c r="D124" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="11">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>154</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="12">
-        <v>31002</v>
+      <c r="C125" s="9">
+        <v>30010</v>
       </c>
       <c r="D125" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="11">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>156</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J125" s="10"/>
     </row>
     <row r="126" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="12">
-        <v>31003</v>
+      <c r="C126" s="9">
+        <v>30011</v>
       </c>
       <c r="D126" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="11">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>158</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J126" s="10"/>
     </row>
     <row r="127" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="12">
-        <v>31004</v>
+      <c r="C127" s="9">
+        <v>30012</v>
       </c>
       <c r="D127" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="11">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>160</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="J127" s="10"/>
     </row>
     <row r="128" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="12">
-        <v>31005</v>
+      <c r="C128" s="9">
+        <v>30013</v>
       </c>
       <c r="D128" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="11">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="12">
-        <v>31006</v>
+        <v>141</v>
+      </c>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="9">
+        <v>30014</v>
       </c>
       <c r="D129" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="11">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="12">
-        <v>31007</v>
+        <v>143</v>
+      </c>
+      <c r="J129" s="17"/>
+    </row>
+    <row r="130" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="9">
+        <v>30015</v>
       </c>
       <c r="D130" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="11">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="12">
-        <v>32001</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="9">
+        <v>30016</v>
       </c>
       <c r="D131" s="12">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12">
         <v>1</v>
       </c>
-      <c r="G131" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>168</v>
+      <c r="G131" s="11">
+        <v>300000</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="12">
-        <v>32002</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="9">
+        <v>30017</v>
       </c>
       <c r="D132" s="12">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12">
         <v>1</v>
       </c>
-      <c r="G132" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>171</v>
+      <c r="G132" s="11">
+        <v>500000</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="12">
-        <v>32003</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="9">
+        <v>30018</v>
       </c>
       <c r="D133" s="12">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12">
         <v>1</v>
       </c>
-      <c r="G133" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>173</v>
+      <c r="G133" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="12">
-        <v>32004</v>
+        <v>31001</v>
       </c>
       <c r="D134" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12">
-        <v>1</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="G134" s="11">
+        <v>0</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="12">
-        <v>32005</v>
+        <v>31002</v>
       </c>
       <c r="D135" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12">
-        <v>1</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>177</v>
+        <v>0</v>
+      </c>
+      <c r="G135" s="11">
+        <v>0</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="12">
-        <v>32006</v>
+        <v>31003</v>
       </c>
       <c r="D136" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12">
-        <v>1</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H136" s="11" t="s">
-        <v>179</v>
+        <v>0</v>
+      </c>
+      <c r="G136" s="11">
+        <v>0</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="12">
-        <v>32007</v>
+        <v>31004</v>
       </c>
       <c r="D137" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12">
-        <v>1</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>179</v>
+        <v>0</v>
+      </c>
+      <c r="G137" s="11">
+        <v>0</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="12">
-        <v>32008</v>
+        <v>31005</v>
       </c>
       <c r="D138" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12">
+        <v>0</v>
+      </c>
+      <c r="G138" s="11">
+        <v>0</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="12">
+        <v>31006</v>
+      </c>
+      <c r="D139" s="12">
+        <v>31</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12">
+        <v>0</v>
+      </c>
+      <c r="G139" s="11">
+        <v>0</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="12">
+        <v>31007</v>
+      </c>
+      <c r="D140" s="12">
+        <v>31</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12">
+        <v>0</v>
+      </c>
+      <c r="G140" s="11">
+        <v>0</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="12">
+        <v>32001</v>
+      </c>
+      <c r="D141" s="12">
+        <v>32</v>
+      </c>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12">
         <v>1</v>
       </c>
-      <c r="G138" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H138" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I138" s="9" t="s">
+      <c r="G141" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="12">
+        <v>32002</v>
+      </c>
+      <c r="D142" s="12">
+        <v>32</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12">
+        <v>1</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="12">
+        <v>32003</v>
+      </c>
+      <c r="D143" s="12">
+        <v>32</v>
+      </c>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12">
+        <v>1</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="12">
+        <v>32004</v>
+      </c>
+      <c r="D144" s="12">
+        <v>32</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12">
+        <v>1</v>
+      </c>
+      <c r="G144" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="12">
-        <v>33001</v>
-      </c>
-      <c r="D139" s="12">
-        <v>33</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="12">
-        <v>33002</v>
-      </c>
-      <c r="D140" s="12">
-        <v>33</v>
-      </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="12">
-        <v>33003</v>
-      </c>
-      <c r="D141" s="12">
-        <v>33</v>
-      </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="12">
-        <v>33004</v>
-      </c>
-      <c r="D142" s="12">
-        <v>33</v>
-      </c>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="12">
-        <v>33005</v>
-      </c>
-      <c r="D143" s="12">
-        <v>33</v>
-      </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="12">
-        <v>33006</v>
-      </c>
-      <c r="D144" s="12">
-        <v>33</v>
-      </c>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+      <c r="H144" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="I144" s="9" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="12">
-        <v>33007</v>
+        <v>32005</v>
       </c>
       <c r="D145" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E145" s="12"/>
-      <c r="F145" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
+      <c r="F145" s="12">
+        <v>1</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="I145" s="9" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="12">
-        <v>33008</v>
+        <v>32006</v>
       </c>
       <c r="D146" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E146" s="12"/>
-      <c r="F146" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
+      <c r="F146" s="12">
+        <v>1</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="I146" s="9" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="12">
-        <v>33009</v>
+        <v>32007</v>
       </c>
       <c r="D147" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E147" s="12"/>
-      <c r="F147" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
+      <c r="F147" s="12">
+        <v>1</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="I147" s="9" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="12">
-        <v>33010</v>
+        <v>32008</v>
       </c>
       <c r="D148" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E148" s="12"/>
-      <c r="F148" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
+      <c r="F148" s="12">
+        <v>1</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="I148" s="9" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="12">
-        <v>33011</v>
+        <v>33001</v>
       </c>
       <c r="D149" s="12">
         <v>33</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="9" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="12">
-        <v>33012</v>
+        <v>33002</v>
       </c>
       <c r="D150" s="12">
         <v>33</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="12">
-        <v>33013</v>
+        <v>33003</v>
       </c>
       <c r="D151" s="12">
         <v>33</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="9" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="12">
-        <v>33014</v>
+        <v>33004</v>
       </c>
       <c r="D152" s="12">
         <v>33</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="9" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="12">
-        <v>33015</v>
+        <v>33005</v>
       </c>
       <c r="D153" s="12">
         <v>33</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="9" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="12">
-        <v>33016</v>
+        <v>33006</v>
       </c>
       <c r="D154" s="12">
         <v>33</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="9" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C155" s="12">
-        <v>33017</v>
+        <v>33007</v>
       </c>
       <c r="D155" s="12">
         <v>33</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="9" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C156" s="12">
-        <v>33018</v>
+        <v>33008</v>
       </c>
       <c r="D156" s="12">
         <v>33</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="9" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C157" s="12">
-        <v>33019</v>
+        <v>33009</v>
       </c>
       <c r="D157" s="12">
         <v>33</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="9" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C158" s="12">
-        <v>33020</v>
+        <v>33010</v>
       </c>
       <c r="D158" s="12">
         <v>33</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
       <c r="I158" s="9" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C159" s="12">
+        <v>33011</v>
+      </c>
+      <c r="D159" s="12">
+        <v>33</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C160" s="12">
+        <v>33012</v>
+      </c>
+      <c r="D160" s="12">
+        <v>33</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C161" s="12">
+        <v>33013</v>
+      </c>
+      <c r="D161" s="12">
+        <v>33</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C162" s="12">
+        <v>33014</v>
+      </c>
+      <c r="D162" s="12">
+        <v>33</v>
+      </c>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="12">
+        <v>33015</v>
+      </c>
+      <c r="D163" s="12">
+        <v>33</v>
+      </c>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C164" s="12">
+        <v>33016</v>
+      </c>
+      <c r="D164" s="12">
+        <v>33</v>
+      </c>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C165" s="12">
+        <v>33017</v>
+      </c>
+      <c r="D165" s="12">
+        <v>33</v>
+      </c>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C166" s="12">
+        <v>33018</v>
+      </c>
+      <c r="D166" s="12">
+        <v>33</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C167" s="12">
+        <v>33019</v>
+      </c>
+      <c r="D167" s="12">
+        <v>33</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C168" s="12">
+        <v>33020</v>
+      </c>
+      <c r="D168" s="12">
+        <v>33</v>
+      </c>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C169" s="12">
         <v>34001</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D169" s="12">
         <v>34</v>
       </c>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12">
+      <c r="E169" s="12"/>
+      <c r="F169" s="12">
         <v>12</v>
       </c>
-      <c r="G159" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H159" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="160" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="G169" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6604,6 +6845,16 @@
     <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A4A657-A130-4634-8DF3-58C40CE949EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEECB78-18D0-4834-ADC8-BE2562CD367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,14 +1325,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1;300000@10010083;30@10023008;3@10023009;2@10000143;2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10023008;3@10023009;2@10000143;3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>1;300000@10010083;30@10010085;750@10000143;10@10010046;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1350,6 +1342,14 @@
   </si>
   <si>
     <t>1;300000@10010083;30@10010085;500@10000143;5@10010046;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10010053;1@10000158;1@10000143;2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@10010083;30@10010040;1@10000158;1@10000143;3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3317,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4288,7 +4288,7 @@
         <v>30</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>57</v>
@@ -4309,7 +4309,7 @@
         <v>20</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>57</v>
@@ -4435,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>60</v>
@@ -4456,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>60</v>
@@ -4477,7 +4477,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>60</v>
@@ -4498,7 +4498,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>60</v>
@@ -4519,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>60</v>
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>60</v>

--- a/Excel/ActivityConfig.xlsx
+++ b/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEECB78-18D0-4834-ADC8-BE2562CD367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233839A4-E2DD-49DD-81E9-FD0CCD4FACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,10 +1293,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>3;100000@10000157;20@10000152;50@10000136;20@10000143;50@10049104;1@10010026;1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>1;100000@10010083;15@10022008;3@10022009;2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1350,6 +1346,10 @@
   </si>
   <si>
     <t>1;300000@10010083;30@10010040;1@10000158;1@10000143;3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;100000@10000157;20@10000152;50@10000136;20@10000143;50@10049104;1@10000210;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3317,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4141,7 +4141,7 @@
         <v>300</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>57</v>
@@ -4162,7 +4162,7 @@
         <v>200</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>57</v>
@@ -4183,7 +4183,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>57</v>
@@ -4204,7 +4204,7 @@
         <v>50</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>57</v>
@@ -4225,7 +4225,7 @@
         <v>50</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>57</v>
@@ -4246,7 +4246,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>57</v>
@@ -4267,7 +4267,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>57</v>
@@ -4288,7 +4288,7 @@
         <v>30</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>57</v>
@@ -4309,7 +4309,7 @@
         <v>20</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>57</v>
@@ -4435,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>60</v>
@@ -4456,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>60</v>
@@ -4477